--- a/Ke hoach ban hang.xlsx
+++ b/Ke hoach ban hang.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Von ban dau" sheetId="1" r:id="rId1"/>
     <sheet name="Uoc luong san pham ban ra" sheetId="2" r:id="rId2"/>
     <sheet name="Von dau tu &amp; von luu dong" sheetId="3" r:id="rId3"/>
     <sheet name="Chi phi &amp; Gia thanh" sheetId="4" r:id="rId4"/>
+    <sheet name="Doanh Thu" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t>Tháng 1</t>
   </si>
@@ -58,9 +59,6 @@
     <t>Sản phẩm</t>
   </si>
   <si>
-    <t>Linh kiện khác(Nguồn, quạt tản nhiệt, GPU,….vv)</t>
-  </si>
-  <si>
     <t>Danh  mục</t>
   </si>
   <si>
@@ -257,6 +255,72 @@
   </si>
   <si>
     <t>Chi(2 tháng đầu)</t>
+  </si>
+  <si>
+    <t>Số hàng bán ra</t>
+  </si>
+  <si>
+    <t>Giá bán trung bình cho 1 sản phẩm</t>
+  </si>
+  <si>
+    <t>Doanh thu hàng tháng</t>
+  </si>
+  <si>
+    <t>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</t>
+  </si>
+  <si>
+    <t>tháng 1</t>
+  </si>
+  <si>
+    <t>tháng 2</t>
+  </si>
+  <si>
+    <t>tháng 3</t>
+  </si>
+  <si>
+    <t>tháng 4</t>
+  </si>
+  <si>
+    <t>tháng 5</t>
+  </si>
+  <si>
+    <t>tháng 6</t>
+  </si>
+  <si>
+    <t>tháng 7</t>
+  </si>
+  <si>
+    <t>tháng 8</t>
+  </si>
+  <si>
+    <t>tháng 9</t>
+  </si>
+  <si>
+    <t>tháng 10</t>
+  </si>
+  <si>
+    <t>tháng 11</t>
+  </si>
+  <si>
+    <t>tháng 12</t>
+  </si>
+  <si>
+    <t>Tháng 7</t>
+  </si>
+  <si>
+    <t>Tháng 8</t>
+  </si>
+  <si>
+    <t>Tháng 9</t>
+  </si>
+  <si>
+    <t>Tháng 10</t>
+  </si>
+  <si>
+    <t>Tháng 11</t>
+  </si>
+  <si>
+    <t>Tháng 12</t>
   </si>
 </sst>
 </file>
@@ -332,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -411,13 +475,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -461,6 +631,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -785,18 +970,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -806,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="24">
         <f>75000*4</f>
@@ -818,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="24">
         <f>2700*1*2</f>
@@ -828,7 +1013,7 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
       <c r="B5" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="24">
         <f>C3+C4</f>
@@ -837,7 +1022,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -847,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="24">
         <f>1500*2</f>
@@ -859,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="24">
         <f>2000*4*2</f>
@@ -871,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="24">
         <f>210*2</f>
@@ -883,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="24">
         <f>700*2</f>
@@ -895,7 +1080,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="24">
         <f>50*10</f>
@@ -907,7 +1092,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="24">
         <f>1054 * 3</f>
@@ -919,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="24">
         <f>250*1</f>
@@ -931,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="24">
         <f>3000</f>
@@ -943,7 +1128,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="24">
         <f>150</f>
@@ -955,7 +1140,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="24">
         <f>100000</f>
@@ -965,7 +1150,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="24">
         <f>SUM(C7:C16)</f>
@@ -974,7 +1159,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="25">
@@ -994,23 +1179,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1033,21 +1219,39 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2">
         <v>8</v>
@@ -1067,25 +1271,43 @@
       <c r="G2" s="2">
         <v>50</v>
       </c>
-      <c r="H2" s="3">
-        <f t="shared" ref="H2:H11" si="0">_xlfn.FLOOR.MATH(AVERAGE(B2:G2))</f>
+      <c r="H2" s="2">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2">
+        <v>50</v>
+      </c>
+      <c r="N2" s="3">
+        <f>_xlfn.FLOOR.MATH(AVERAGE(B2:M2))</f>
         <v>34</v>
       </c>
-      <c r="I2" s="2">
-        <f>H2*12</f>
+      <c r="O2" s="2">
+        <f>N2*12</f>
         <v>408</v>
       </c>
-      <c r="J2" s="6">
+      <c r="P2" s="6">
         <v>0</v>
       </c>
-      <c r="K2" s="6">
-        <f>H2*I2</f>
+      <c r="Q2" s="6">
+        <f>N2*O2</f>
         <v>13872</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2">
         <v>13</v>
@@ -1105,25 +1327,43 @@
       <c r="G3" s="2">
         <v>40</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" si="0"/>
+      <c r="H3" s="2">
+        <v>13</v>
+      </c>
+      <c r="I3" s="2">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2">
+        <v>40</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:N11" si="0">_xlfn.FLOOR.MATH(AVERAGE(B3:M3))</f>
         <v>35</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I11" si="1">H3*12</f>
+      <c r="O3" s="2">
+        <f>N3*12</f>
         <v>420</v>
       </c>
-      <c r="J3" s="6">
+      <c r="P3" s="6">
         <v>0</v>
       </c>
-      <c r="K3" s="6">
-        <f t="shared" ref="K3:K11" si="2">H3*I3</f>
+      <c r="Q3" s="6">
+        <f>N3*O3</f>
         <v>14700</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
@@ -1143,23 +1383,41 @@
       <c r="G4" s="2">
         <v>15</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2">
+        <v>12</v>
+      </c>
+      <c r="M4" s="2">
+        <v>15</v>
+      </c>
+      <c r="N4" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" si="1"/>
+      <c r="O4" s="2">
+        <f>N4*12</f>
         <v>108</v>
       </c>
-      <c r="J4" s="6">
+      <c r="P4" s="6">
         <v>8000</v>
       </c>
-      <c r="K4" s="6">
-        <f t="shared" si="2"/>
+      <c r="Q4" s="6">
+        <f>N4*O4</f>
         <v>972</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1181,23 +1439,41 @@
       <c r="G5" s="2">
         <v>25</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2">
+        <v>20</v>
+      </c>
+      <c r="M5" s="2">
+        <v>25</v>
+      </c>
+      <c r="N5" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I5" s="2">
-        <f t="shared" si="1"/>
+      <c r="O5" s="2">
+        <f>N5*12</f>
         <v>204</v>
       </c>
-      <c r="J5" s="6">
+      <c r="P5" s="6">
         <v>900</v>
       </c>
-      <c r="K5" s="6">
-        <f t="shared" si="2"/>
+      <c r="Q5" s="6">
+        <f>N5*O5</f>
         <v>3468</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1219,23 +1495,41 @@
       <c r="G6" s="2">
         <v>9</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
+      </c>
+      <c r="J6" s="2">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
+      <c r="L6" s="2">
+        <v>7</v>
+      </c>
+      <c r="M6" s="2">
+        <v>9</v>
+      </c>
+      <c r="N6" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
+      <c r="O6" s="2">
+        <f>N6*12</f>
         <v>84</v>
       </c>
-      <c r="J6" s="6">
+      <c r="P6" s="6">
         <v>2500</v>
       </c>
-      <c r="K6" s="6">
-        <f t="shared" si="2"/>
+      <c r="Q6" s="6">
+        <f>N6*O6</f>
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1257,23 +1551,41 @@
       <c r="G7" s="2">
         <v>56</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <v>50</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2">
+        <v>56</v>
+      </c>
+      <c r="N7" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
+      <c r="O7" s="2">
+        <f>N7*12</f>
         <v>480</v>
       </c>
-      <c r="J7" s="6">
+      <c r="P7" s="6">
         <v>300</v>
       </c>
-      <c r="K7" s="6">
-        <f t="shared" si="2"/>
+      <c r="Q7" s="6">
+        <f>N7*O7</f>
         <v>19200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1295,23 +1607,41 @@
       <c r="G8" s="2">
         <v>12</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>10</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2">
+        <v>12</v>
+      </c>
+      <c r="N8" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
+      <c r="O8" s="2">
+        <f>N8*12</f>
         <v>108</v>
       </c>
-      <c r="J8" s="6">
+      <c r="P8" s="6">
         <v>3000</v>
       </c>
-      <c r="K8" s="6">
-        <f t="shared" si="2"/>
+      <c r="Q8" s="6">
+        <f>N8*O8</f>
         <v>972</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1333,23 +1663,41 @@
       <c r="G9" s="2">
         <v>35</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2">
+        <v>30</v>
+      </c>
+      <c r="K9" s="2">
+        <v>24</v>
+      </c>
+      <c r="L9" s="2">
+        <v>31</v>
+      </c>
+      <c r="M9" s="2">
+        <v>35</v>
+      </c>
+      <c r="N9" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
+      <c r="O9" s="2">
+        <f>N9*12</f>
         <v>288</v>
       </c>
-      <c r="J9" s="6">
+      <c r="P9" s="6">
         <v>200</v>
       </c>
-      <c r="K9" s="6">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="6">
+        <f>N9*O9</f>
         <v>6912</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1371,25 +1719,43 @@
       <c r="G10" s="2">
         <v>9</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6</v>
+      </c>
+      <c r="M10" s="2">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
+      <c r="O10" s="2">
+        <f>N10*12</f>
         <v>60</v>
       </c>
-      <c r="J10" s="6">
+      <c r="P10" s="6">
         <v>2500</v>
       </c>
-      <c r="K10" s="6">
-        <f t="shared" si="2"/>
+      <c r="Q10" s="6">
+        <f>N10*O10</f>
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -1410,27 +1776,45 @@
         <v>19</v>
       </c>
       <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2">
+        <v>19</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="1"/>
+      <c r="O11" s="2">
+        <f>N11*12</f>
         <v>204</v>
       </c>
-      <c r="J11" s="6">
+      <c r="P11" s="6">
         <v>2500</v>
       </c>
-      <c r="K11" s="6">
-        <f t="shared" si="2"/>
+      <c r="Q11" s="6">
+        <f>N11*O11</f>
         <v>3468</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="5">
-        <f>SUM(K2:K11)</f>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="5">
+        <f>SUM(Q2:Q11)</f>
         <v>64452</v>
       </c>
     </row>
@@ -1444,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,24 +1845,24 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="16">
         <f>1500/12</f>
@@ -1489,7 +1873,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="16">
         <f>300</f>
@@ -1498,21 +1882,21 @@
       <c r="C3" s="16"/>
       <c r="D3" s="10"/>
       <c r="F3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="16">
         <f>30</f>
@@ -1538,7 +1922,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16">
         <f>3000</f>
@@ -1549,7 +1933,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="18">
         <f>SUM(I4)</f>
@@ -1558,7 +1942,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="16">
         <f>6000*4</f>
@@ -1566,12 +1950,12 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="16">
         <f>100</f>
@@ -1582,7 +1966,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="16">
         <f>1000/12</f>
@@ -1593,7 +1977,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="16">
         <f>250</f>
@@ -1604,7 +1988,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="16">
         <f>20000</f>
@@ -1615,7 +1999,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16">
@@ -1626,7 +2010,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16">
@@ -1634,12 +2018,12 @@
         <v>1000</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16">
@@ -1650,7 +2034,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16">
@@ -1658,7 +2042,7 @@
         <v>10000</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1708,17 +2092,17 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="14"/>
       <c r="E1" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="29"/>
       <c r="H1" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="27"/>
@@ -1729,44 +2113,44 @@
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="E2" s="12" t="str">
         <f>'Uoc luong san pham ban ra'!A1</f>
         <v>Sản phẩm</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" s="12" t="str">
         <f>'Uoc luong san pham ban ra'!A1</f>
         <v>Sản phẩm</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="17" t="str">
-        <f>'Uoc luong san pham ban ra'!J1</f>
+        <f>'Uoc luong san pham ban ra'!P1</f>
         <v>Giá nhập sản phẩm</v>
       </c>
       <c r="K2" s="12" t="str">
-        <f>'Uoc luong san pham ban ra'!H1</f>
+        <f>'Uoc luong san pham ban ra'!N1</f>
         <v>Bình quân bán được(1 tháng)</v>
       </c>
       <c r="L2" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1795,11 +2179,11 @@
         <v>1404</v>
       </c>
       <c r="J3" s="18">
-        <f>'Uoc luong san pham ban ra'!J2</f>
+        <f>'Uoc luong san pham ban ra'!P2</f>
         <v>0</v>
       </c>
       <c r="K3" s="11">
-        <f>'Uoc luong san pham ban ra'!H2</f>
+        <f>'Uoc luong san pham ban ra'!N2</f>
         <v>34</v>
       </c>
       <c r="L3" s="18">
@@ -1840,11 +2224,11 @@
         <v>1404</v>
       </c>
       <c r="J4" s="18">
-        <f>'Uoc luong san pham ban ra'!J3</f>
+        <f>'Uoc luong san pham ban ra'!P3</f>
         <v>0</v>
       </c>
       <c r="K4" s="11">
-        <f>'Uoc luong san pham ban ra'!H3</f>
+        <f>'Uoc luong san pham ban ra'!N3</f>
         <v>35</v>
       </c>
       <c r="L4" s="18">
@@ -1885,11 +2269,11 @@
         <v>5619</v>
       </c>
       <c r="J5" s="18">
-        <f>'Uoc luong san pham ban ra'!J4</f>
+        <f>'Uoc luong san pham ban ra'!P4</f>
         <v>8000</v>
       </c>
       <c r="K5" s="11">
-        <f>'Uoc luong san pham ban ra'!H4</f>
+        <f>'Uoc luong san pham ban ra'!N4</f>
         <v>9</v>
       </c>
       <c r="L5" s="18">
@@ -1931,11 +2315,11 @@
         <v>2809</v>
       </c>
       <c r="J6" s="18">
-        <f>'Uoc luong san pham ban ra'!J5</f>
+        <f>'Uoc luong san pham ban ra'!P5</f>
         <v>900</v>
       </c>
       <c r="K6" s="11">
-        <f>'Uoc luong san pham ban ra'!H5</f>
+        <f>'Uoc luong san pham ban ra'!N5</f>
         <v>17</v>
       </c>
       <c r="L6" s="18">
@@ -1977,11 +2361,11 @@
         <v>2809</v>
       </c>
       <c r="J7" s="18">
-        <f>'Uoc luong san pham ban ra'!J6</f>
+        <f>'Uoc luong san pham ban ra'!P6</f>
         <v>2500</v>
       </c>
       <c r="K7" s="11">
-        <f>'Uoc luong san pham ban ra'!H6</f>
+        <f>'Uoc luong san pham ban ra'!N6</f>
         <v>7</v>
       </c>
       <c r="L7" s="18">
@@ -2023,11 +2407,11 @@
         <v>2809</v>
       </c>
       <c r="J8" s="18">
-        <f>'Uoc luong san pham ban ra'!J7</f>
+        <f>'Uoc luong san pham ban ra'!P7</f>
         <v>300</v>
       </c>
       <c r="K8" s="11">
-        <f>'Uoc luong san pham ban ra'!H7</f>
+        <f>'Uoc luong san pham ban ra'!N7</f>
         <v>40</v>
       </c>
       <c r="L8" s="18">
@@ -2068,11 +2452,11 @@
         <v>2809</v>
       </c>
       <c r="J9" s="18">
-        <f>'Uoc luong san pham ban ra'!J8</f>
+        <f>'Uoc luong san pham ban ra'!P8</f>
         <v>3000</v>
       </c>
       <c r="K9" s="11">
-        <f>'Uoc luong san pham ban ra'!H8</f>
+        <f>'Uoc luong san pham ban ra'!N8</f>
         <v>9</v>
       </c>
       <c r="L9" s="18">
@@ -2114,11 +2498,11 @@
         <v>1404</v>
       </c>
       <c r="J10" s="18">
-        <f>'Uoc luong san pham ban ra'!J9</f>
+        <f>'Uoc luong san pham ban ra'!P9</f>
         <v>200</v>
       </c>
       <c r="K10" s="11">
-        <f>'Uoc luong san pham ban ra'!H9</f>
+        <f>'Uoc luong san pham ban ra'!N9</f>
         <v>24</v>
       </c>
       <c r="L10" s="18">
@@ -2159,11 +2543,11 @@
         <v>2809</v>
       </c>
       <c r="J11" s="18">
-        <f>'Uoc luong san pham ban ra'!J10</f>
+        <f>'Uoc luong san pham ban ra'!P10</f>
         <v>2500</v>
       </c>
       <c r="K11" s="11">
-        <f>'Uoc luong san pham ban ra'!H10</f>
+        <f>'Uoc luong san pham ban ra'!N10</f>
         <v>5</v>
       </c>
       <c r="L11" s="18">
@@ -2181,7 +2565,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="20">
         <f>SUM(B3:B11)</f>
@@ -2190,25 +2574,25 @@
       <c r="C12" s="21"/>
       <c r="E12" s="11" t="str">
         <f>'Uoc luong san pham ban ra'!A11</f>
-        <v>Linh kiện khác(Nguồn, quạt tản nhiệt, GPU,….vv)</v>
+        <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
       </c>
       <c r="F12" s="11">
         <v>15</v>
       </c>
       <c r="H12" s="11" t="str">
         <f>'Uoc luong san pham ban ra'!A11</f>
-        <v>Linh kiện khác(Nguồn, quạt tản nhiệt, GPU,….vv)</v>
+        <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
       </c>
       <c r="I12" s="18">
         <f t="shared" si="0"/>
         <v>4214</v>
       </c>
       <c r="J12" s="18">
-        <f>'Uoc luong san pham ban ra'!J11</f>
+        <f>'Uoc luong san pham ban ra'!P11</f>
         <v>2500</v>
       </c>
       <c r="K12" s="11">
-        <f>'Uoc luong san pham ban ra'!H11</f>
+        <f>'Uoc luong san pham ban ra'!N11</f>
         <v>17</v>
       </c>
       <c r="L12" s="18">
@@ -2226,7 +2610,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="19">
         <f>SUM(F3:F12)</f>
@@ -2241,4 +2625,998 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:N29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="str">
+        <f>'Uoc luong san pham ban ra'!A2</f>
+        <v>Dịch vụ Sửa PC</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="30">
+        <f>'Uoc luong san pham ban ra'!B2</f>
+        <v>8</v>
+      </c>
+      <c r="D2" s="30">
+        <f>'Uoc luong san pham ban ra'!C2</f>
+        <v>20</v>
+      </c>
+      <c r="E2" s="30">
+        <f>'Uoc luong san pham ban ra'!D2</f>
+        <v>40</v>
+      </c>
+      <c r="F2" s="30">
+        <f>'Uoc luong san pham ban ra'!E2</f>
+        <v>41</v>
+      </c>
+      <c r="G2" s="30">
+        <f>'Uoc luong san pham ban ra'!F2</f>
+        <v>45</v>
+      </c>
+      <c r="H2" s="30">
+        <f>'Uoc luong san pham ban ra'!G2</f>
+        <v>50</v>
+      </c>
+      <c r="I2" s="30">
+        <f>'Uoc luong san pham ban ra'!H2</f>
+        <v>8</v>
+      </c>
+      <c r="J2" s="30">
+        <f>'Uoc luong san pham ban ra'!I2</f>
+        <v>20</v>
+      </c>
+      <c r="K2" s="30">
+        <f>'Uoc luong san pham ban ra'!J2</f>
+        <v>40</v>
+      </c>
+      <c r="L2" s="30">
+        <f>'Uoc luong san pham ban ra'!K2</f>
+        <v>41</v>
+      </c>
+      <c r="M2" s="30">
+        <f>'Uoc luong san pham ban ra'!L2</f>
+        <v>45</v>
+      </c>
+      <c r="N2" s="30">
+        <f>'Uoc luong san pham ban ra'!M2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38"/>
+      <c r="B4" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+    </row>
+    <row r="5" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="str">
+        <f>'Uoc luong san pham ban ra'!$A$3</f>
+        <v>Dịch vụ Sửa Laptop</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="30">
+        <f>'Uoc luong san pham ban ra'!B3</f>
+        <v>13</v>
+      </c>
+      <c r="D5" s="30">
+        <f>'Uoc luong san pham ban ra'!C3</f>
+        <v>16</v>
+      </c>
+      <c r="E5" s="30">
+        <f>'Uoc luong san pham ban ra'!D3</f>
+        <v>55</v>
+      </c>
+      <c r="F5" s="30">
+        <f>'Uoc luong san pham ban ra'!E3</f>
+        <v>50</v>
+      </c>
+      <c r="G5" s="30">
+        <f>'Uoc luong san pham ban ra'!F3</f>
+        <v>37</v>
+      </c>
+      <c r="H5" s="30">
+        <f>'Uoc luong san pham ban ra'!G3</f>
+        <v>40</v>
+      </c>
+      <c r="I5" s="30">
+        <f>'Uoc luong san pham ban ra'!H3</f>
+        <v>13</v>
+      </c>
+      <c r="J5" s="30">
+        <f>'Uoc luong san pham ban ra'!I3</f>
+        <v>16</v>
+      </c>
+      <c r="K5" s="30">
+        <f>'Uoc luong san pham ban ra'!J3</f>
+        <v>55</v>
+      </c>
+      <c r="L5" s="30">
+        <f>'Uoc luong san pham ban ra'!K3</f>
+        <v>50</v>
+      </c>
+      <c r="M5" s="30">
+        <f>'Uoc luong san pham ban ra'!L3</f>
+        <v>37</v>
+      </c>
+      <c r="N5" s="30">
+        <f>'Uoc luong san pham ban ra'!M3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+    </row>
+    <row r="8" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="str">
+        <f>'Uoc luong san pham ban ra'!$A$4</f>
+        <v>PC (bán)</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="30">
+        <f>'Uoc luong san pham ban ra'!B4</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="30">
+        <f>'Uoc luong san pham ban ra'!C4</f>
+        <v>8</v>
+      </c>
+      <c r="E8" s="30">
+        <f>'Uoc luong san pham ban ra'!D4</f>
+        <v>7</v>
+      </c>
+      <c r="F8" s="30">
+        <f>'Uoc luong san pham ban ra'!E4</f>
+        <v>10</v>
+      </c>
+      <c r="G8" s="30">
+        <f>'Uoc luong san pham ban ra'!F4</f>
+        <v>12</v>
+      </c>
+      <c r="H8" s="30">
+        <f>'Uoc luong san pham ban ra'!G4</f>
+        <v>15</v>
+      </c>
+      <c r="I8" s="30">
+        <f>'Uoc luong san pham ban ra'!H4</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="30">
+        <f>'Uoc luong san pham ban ra'!I4</f>
+        <v>8</v>
+      </c>
+      <c r="K8" s="30">
+        <f>'Uoc luong san pham ban ra'!J4</f>
+        <v>7</v>
+      </c>
+      <c r="L8" s="30">
+        <f>'Uoc luong san pham ban ra'!K4</f>
+        <v>10</v>
+      </c>
+      <c r="M8" s="30">
+        <f>'Uoc luong san pham ban ra'!L4</f>
+        <v>12</v>
+      </c>
+      <c r="N8" s="30">
+        <f>'Uoc luong san pham ban ra'!M4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+    </row>
+    <row r="11" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="str">
+        <f>'Uoc luong san pham ban ra'!$A$5</f>
+        <v>Ram</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="30">
+        <f>'Uoc luong san pham ban ra'!B5</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="30">
+        <f>'Uoc luong san pham ban ra'!C5</f>
+        <v>15</v>
+      </c>
+      <c r="E11" s="30">
+        <f>'Uoc luong san pham ban ra'!D5</f>
+        <v>20</v>
+      </c>
+      <c r="F11" s="30">
+        <f>'Uoc luong san pham ban ra'!E5</f>
+        <v>17</v>
+      </c>
+      <c r="G11" s="30">
+        <f>'Uoc luong san pham ban ra'!F5</f>
+        <v>20</v>
+      </c>
+      <c r="H11" s="30">
+        <f>'Uoc luong san pham ban ra'!G5</f>
+        <v>25</v>
+      </c>
+      <c r="I11" s="30">
+        <f>'Uoc luong san pham ban ra'!H5</f>
+        <v>5</v>
+      </c>
+      <c r="J11" s="30">
+        <f>'Uoc luong san pham ban ra'!I5</f>
+        <v>15</v>
+      </c>
+      <c r="K11" s="30">
+        <f>'Uoc luong san pham ban ra'!J5</f>
+        <v>20</v>
+      </c>
+      <c r="L11" s="30">
+        <f>'Uoc luong san pham ban ra'!K5</f>
+        <v>17</v>
+      </c>
+      <c r="M11" s="30">
+        <f>'Uoc luong san pham ban ra'!L5</f>
+        <v>20</v>
+      </c>
+      <c r="N11" s="30">
+        <f>'Uoc luong san pham ban ra'!M5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="38"/>
+      <c r="B13" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+    </row>
+    <row r="14" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="str">
+        <f>'Uoc luong san pham ban ra'!$A$6</f>
+        <v>Ổ cứng</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="30">
+        <f>'Uoc luong san pham ban ra'!B6</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="30">
+        <f>'Uoc luong san pham ban ra'!C6</f>
+        <v>10</v>
+      </c>
+      <c r="E14" s="30">
+        <f>'Uoc luong san pham ban ra'!D6</f>
+        <v>10</v>
+      </c>
+      <c r="F14" s="30">
+        <f>'Uoc luong san pham ban ra'!E6</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="30">
+        <f>'Uoc luong san pham ban ra'!F6</f>
+        <v>7</v>
+      </c>
+      <c r="H14" s="30">
+        <f>'Uoc luong san pham ban ra'!G6</f>
+        <v>9</v>
+      </c>
+      <c r="I14" s="30">
+        <f>'Uoc luong san pham ban ra'!H6</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="30">
+        <f>'Uoc luong san pham ban ra'!I6</f>
+        <v>10</v>
+      </c>
+      <c r="K14" s="30">
+        <f>'Uoc luong san pham ban ra'!J6</f>
+        <v>10</v>
+      </c>
+      <c r="L14" s="30">
+        <f>'Uoc luong san pham ban ra'!K6</f>
+        <v>10</v>
+      </c>
+      <c r="M14" s="30">
+        <f>'Uoc luong san pham ban ra'!L6</f>
+        <v>7</v>
+      </c>
+      <c r="N14" s="30">
+        <f>'Uoc luong san pham ban ra'!M6</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="38"/>
+      <c r="B16" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+    </row>
+    <row r="17" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="36" t="str">
+        <f>'Uoc luong san pham ban ra'!$A$7</f>
+        <v>bàn phím/chuột</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="30">
+        <f>'Uoc luong san pham ban ra'!B7</f>
+        <v>10</v>
+      </c>
+      <c r="D17" s="30">
+        <f>'Uoc luong san pham ban ra'!C7</f>
+        <v>30</v>
+      </c>
+      <c r="E17" s="30">
+        <f>'Uoc luong san pham ban ra'!D7</f>
+        <v>50</v>
+      </c>
+      <c r="F17" s="30">
+        <f>'Uoc luong san pham ban ra'!E7</f>
+        <v>45</v>
+      </c>
+      <c r="G17" s="30">
+        <f>'Uoc luong san pham ban ra'!F7</f>
+        <v>50</v>
+      </c>
+      <c r="H17" s="30">
+        <f>'Uoc luong san pham ban ra'!G7</f>
+        <v>56</v>
+      </c>
+      <c r="I17" s="30">
+        <f>'Uoc luong san pham ban ra'!H7</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="30">
+        <f>'Uoc luong san pham ban ra'!I7</f>
+        <v>30</v>
+      </c>
+      <c r="K17" s="30">
+        <f>'Uoc luong san pham ban ra'!J7</f>
+        <v>50</v>
+      </c>
+      <c r="L17" s="30">
+        <f>'Uoc luong san pham ban ra'!K7</f>
+        <v>45</v>
+      </c>
+      <c r="M17" s="30">
+        <f>'Uoc luong san pham ban ra'!L7</f>
+        <v>50</v>
+      </c>
+      <c r="N17" s="30">
+        <f>'Uoc luong san pham ban ra'!M7</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38"/>
+      <c r="B19" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+    </row>
+    <row r="20" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="str">
+        <f>'Uoc luong san pham ban ra'!$A$8</f>
+        <v>Màn hình</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="30">
+        <f>'Uoc luong san pham ban ra'!B8</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="30">
+        <f>'Uoc luong san pham ban ra'!C8</f>
+        <v>10</v>
+      </c>
+      <c r="E20" s="30">
+        <f>'Uoc luong san pham ban ra'!D8</f>
+        <v>10</v>
+      </c>
+      <c r="F20" s="30">
+        <f>'Uoc luong san pham ban ra'!E8</f>
+        <v>9</v>
+      </c>
+      <c r="G20" s="30">
+        <f>'Uoc luong san pham ban ra'!F8</f>
+        <v>11</v>
+      </c>
+      <c r="H20" s="30">
+        <f>'Uoc luong san pham ban ra'!G8</f>
+        <v>12</v>
+      </c>
+      <c r="I20" s="30">
+        <f>'Uoc luong san pham ban ra'!H8</f>
+        <v>2</v>
+      </c>
+      <c r="J20" s="30">
+        <f>'Uoc luong san pham ban ra'!I8</f>
+        <v>10</v>
+      </c>
+      <c r="K20" s="30">
+        <f>'Uoc luong san pham ban ra'!J8</f>
+        <v>10</v>
+      </c>
+      <c r="L20" s="30">
+        <f>'Uoc luong san pham ban ra'!K8</f>
+        <v>9</v>
+      </c>
+      <c r="M20" s="30">
+        <f>'Uoc luong san pham ban ra'!L8</f>
+        <v>11</v>
+      </c>
+      <c r="N20" s="30">
+        <f>'Uoc luong san pham ban ra'!M8</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="38"/>
+      <c r="B22" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+    </row>
+    <row r="23" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="str">
+        <f>'Uoc luong san pham ban ra'!$A$9</f>
+        <v>USB</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2">
+        <v>30</v>
+      </c>
+      <c r="F23" s="2">
+        <v>24</v>
+      </c>
+      <c r="G23" s="2">
+        <v>31</v>
+      </c>
+      <c r="H23" s="2">
+        <v>35</v>
+      </c>
+      <c r="I23" s="2">
+        <v>7</v>
+      </c>
+      <c r="J23" s="2">
+        <v>22</v>
+      </c>
+      <c r="K23" s="2">
+        <v>30</v>
+      </c>
+      <c r="L23" s="2">
+        <v>24</v>
+      </c>
+      <c r="M23" s="2">
+        <v>31</v>
+      </c>
+      <c r="N23" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="38"/>
+      <c r="B25" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+    </row>
+    <row r="26" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="str">
+        <f>'Uoc luong san pham ban ra'!$A$10</f>
+        <v>Mainboard</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="30">
+        <f>'Uoc luong san pham ban ra'!B10</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="30">
+        <f>'Uoc luong san pham ban ra'!C10</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="30">
+        <f>'Uoc luong san pham ban ra'!D10</f>
+        <v>5</v>
+      </c>
+      <c r="F26" s="30">
+        <f>'Uoc luong san pham ban ra'!E10</f>
+        <v>5</v>
+      </c>
+      <c r="G26" s="30">
+        <f>'Uoc luong san pham ban ra'!F10</f>
+        <v>6</v>
+      </c>
+      <c r="H26" s="30">
+        <f>'Uoc luong san pham ban ra'!G10</f>
+        <v>9</v>
+      </c>
+      <c r="I26" s="30">
+        <f>'Uoc luong san pham ban ra'!H10</f>
+        <v>1</v>
+      </c>
+      <c r="J26" s="30">
+        <f>'Uoc luong san pham ban ra'!I10</f>
+        <v>5</v>
+      </c>
+      <c r="K26" s="30">
+        <f>'Uoc luong san pham ban ra'!J10</f>
+        <v>5</v>
+      </c>
+      <c r="L26" s="30">
+        <f>'Uoc luong san pham ban ra'!K10</f>
+        <v>5</v>
+      </c>
+      <c r="M26" s="30">
+        <f>'Uoc luong san pham ban ra'!L10</f>
+        <v>6</v>
+      </c>
+      <c r="N26" s="30">
+        <f>'Uoc luong san pham ban ra'!M10</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38"/>
+      <c r="B28" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="str">
+        <f>'Uoc luong san pham ban ra'!$A$11</f>
+        <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="30">
+        <f>'Uoc luong san pham ban ra'!B11</f>
+        <v>10</v>
+      </c>
+      <c r="D29" s="30">
+        <f>'Uoc luong san pham ban ra'!C11</f>
+        <v>19</v>
+      </c>
+      <c r="E29" s="30">
+        <f>'Uoc luong san pham ban ra'!D11</f>
+        <v>20</v>
+      </c>
+      <c r="F29" s="30">
+        <f>'Uoc luong san pham ban ra'!E11</f>
+        <v>17</v>
+      </c>
+      <c r="G29" s="30">
+        <f>'Uoc luong san pham ban ra'!F11</f>
+        <v>18</v>
+      </c>
+      <c r="H29" s="30">
+        <f>'Uoc luong san pham ban ra'!G11</f>
+        <v>19</v>
+      </c>
+      <c r="I29" s="30">
+        <f>'Uoc luong san pham ban ra'!H11</f>
+        <v>10</v>
+      </c>
+      <c r="J29" s="30">
+        <f>'Uoc luong san pham ban ra'!I11</f>
+        <v>19</v>
+      </c>
+      <c r="K29" s="30">
+        <f>'Uoc luong san pham ban ra'!J11</f>
+        <v>20</v>
+      </c>
+      <c r="L29" s="30">
+        <f>'Uoc luong san pham ban ra'!K11</f>
+        <v>17</v>
+      </c>
+      <c r="M29" s="30">
+        <f>'Uoc luong san pham ban ra'!L11</f>
+        <v>18</v>
+      </c>
+      <c r="N29" s="30">
+        <f>'Uoc luong san pham ban ra'!M11</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ke hoach ban hang.xlsx
+++ b/Ke hoach ban hang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Von ban dau" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Chi phi &amp; Gia thanh" sheetId="4" r:id="rId4"/>
     <sheet name="Doanh Thu" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -326,7 +326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,6 +620,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -632,12 +638,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -980,11 +980,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -1021,11 +1021,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
@@ -1158,10 +1158,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="25">
         <f>C5-C17</f>
         <v>177518</v>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,22 +1266,22 @@
         <v>41</v>
       </c>
       <c r="F2" s="2">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2">
         <v>45</v>
       </c>
-      <c r="G2" s="2">
-        <v>50</v>
-      </c>
       <c r="H2" s="2">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K2" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2">
         <v>45</v>
@@ -1291,18 +1291,18 @@
       </c>
       <c r="N2" s="3">
         <f>_xlfn.FLOOR.MATH(AVERAGE(B2:M2))</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O2" s="2">
-        <f>N2*12</f>
-        <v>408</v>
+        <f t="shared" ref="O2:O11" si="0">N2*12</f>
+        <v>444</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
       </c>
       <c r="Q2" s="6">
-        <f>N2*O2</f>
-        <v>13872</v>
+        <f t="shared" ref="Q2:Q11" si="1">N2*O2</f>
+        <v>16428</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1325,40 +1325,40 @@
         <v>37</v>
       </c>
       <c r="G3" s="2">
+        <v>35</v>
+      </c>
+      <c r="H3" s="2">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2">
         <v>40</v>
       </c>
-      <c r="H3" s="2">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2">
-        <v>16</v>
-      </c>
       <c r="J3" s="2">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2">
         <v>37</v>
       </c>
       <c r="M3" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N11" si="0">_xlfn.FLOOR.MATH(AVERAGE(B3:M3))</f>
-        <v>35</v>
+        <f t="shared" ref="N3:N11" si="2">_xlfn.FLOOR.MATH(AVERAGE(B3:M3))</f>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
-        <f>N3*12</f>
-        <v>420</v>
+        <f t="shared" si="0"/>
+        <v>432</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
       <c r="Q3" s="6">
-        <f>N3*O3</f>
-        <v>14700</v>
+        <f t="shared" si="1"/>
+        <v>15552</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1378,43 +1378,43 @@
         <v>10</v>
       </c>
       <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
+      <c r="K4" s="2">
         <v>15</v>
       </c>
-      <c r="H4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="L4" s="2">
+        <v>7</v>
+      </c>
+      <c r="M4" s="2">
         <v>8</v>
       </c>
-      <c r="J4" s="2">
-        <v>7</v>
-      </c>
-      <c r="K4" s="2">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2">
-        <v>12</v>
-      </c>
-      <c r="M4" s="2">
-        <v>15</v>
-      </c>
       <c r="N4" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O4" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O4" s="2">
-        <f>N4*12</f>
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="P4" s="6">
         <v>8000</v>
       </c>
       <c r="Q4" s="6">
-        <f>N4*O4</f>
-        <v>972</v>
+        <f t="shared" si="1"/>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1437,40 +1437,40 @@
         <v>20</v>
       </c>
       <c r="G5" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2">
         <v>15</v>
-      </c>
-      <c r="J5" s="2">
-        <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>17</v>
       </c>
       <c r="L5" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M5" s="2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N5" s="3">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O5" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="O5" s="2">
-        <f>N5*12</f>
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="P5" s="6">
         <v>900</v>
       </c>
       <c r="Q5" s="6">
-        <f>N5*O5</f>
-        <v>3468</v>
+        <f t="shared" si="1"/>
+        <v>2700</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1514,18 +1514,18 @@
         <v>9</v>
       </c>
       <c r="N6" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O6" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="O6" s="2">
-        <f>N6*12</f>
         <v>84</v>
       </c>
       <c r="P6" s="6">
         <v>2500</v>
       </c>
       <c r="Q6" s="6">
-        <f>N6*O6</f>
+        <f t="shared" si="1"/>
         <v>588</v>
       </c>
     </row>
@@ -1552,13 +1552,13 @@
         <v>56</v>
       </c>
       <c r="H7" s="2">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="I7" s="2">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K7" s="2">
         <v>45</v>
@@ -1567,22 +1567,22 @@
         <v>50</v>
       </c>
       <c r="M7" s="2">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="N7" s="3">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="O7" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="O7" s="2">
-        <f>N7*12</f>
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="P7" s="6">
         <v>300</v>
       </c>
       <c r="Q7" s="6">
-        <f>N7*O7</f>
-        <v>19200</v>
+        <f t="shared" si="1"/>
+        <v>23232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
@@ -1608,37 +1608,37 @@
         <v>12</v>
       </c>
       <c r="H8" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2">
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K8" s="2">
         <v>9</v>
       </c>
       <c r="L8" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M8" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N8" s="3">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O8" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O8" s="2">
-        <f>N8*12</f>
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="P8" s="6">
         <v>3000</v>
       </c>
       <c r="Q8" s="6">
-        <f>N8*O8</f>
-        <v>972</v>
+        <f t="shared" si="1"/>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1664,37 +1664,37 @@
         <v>35</v>
       </c>
       <c r="H9" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2">
         <v>30</v>
       </c>
       <c r="K9" s="2">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="L9" s="2">
         <v>31</v>
       </c>
       <c r="M9" s="2">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="N9" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="O9" s="2">
-        <f>N9*12</f>
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="P9" s="6">
         <v>200</v>
       </c>
       <c r="Q9" s="6">
-        <f>N9*O9</f>
-        <v>6912</v>
+        <f t="shared" si="1"/>
+        <v>7500</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1720,36 +1720,36 @@
         <v>9</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I10" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K10" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L10" s="2">
         <v>6</v>
       </c>
       <c r="M10" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N10" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O10" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="O10" s="2">
-        <f>N10*12</f>
         <v>60</v>
       </c>
       <c r="P10" s="6">
         <v>2500</v>
       </c>
       <c r="Q10" s="6">
-        <f>N10*O10</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
     </row>
@@ -1776,36 +1776,36 @@
         <v>19</v>
       </c>
       <c r="H11" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2">
         <v>19</v>
       </c>
       <c r="J11" s="2">
+        <v>16</v>
+      </c>
+      <c r="K11" s="2">
         <v>20</v>
-      </c>
-      <c r="K11" s="2">
-        <v>17</v>
       </c>
       <c r="L11" s="2">
         <v>18</v>
       </c>
       <c r="M11" s="2">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N11" s="3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O11" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="O11" s="2">
-        <f>N11*12</f>
         <v>204</v>
       </c>
       <c r="P11" s="6">
         <v>2500</v>
       </c>
       <c r="Q11" s="6">
-        <f>N11*O11</f>
+        <f t="shared" si="1"/>
         <v>3468</v>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="Q12" s="5">
         <f>SUM(Q2:Q11)</f>
-        <v>64452</v>
+        <v>71304</v>
       </c>
     </row>
   </sheetData>
@@ -2091,25 +2091,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="H1" s="27" t="s">
+      <c r="F1" s="35"/>
+      <c r="H1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2184,18 +2184,18 @@
       </c>
       <c r="K3" s="11">
         <f>'Uoc luong san pham ban ra'!N2</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L3" s="18">
         <f>_xlfn.FLOOR.MATH(J3+I3/K3)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M3" s="18">
         <v>80</v>
       </c>
       <c r="N3" s="18">
         <f>SUM(M3+L3)</f>
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2229,18 +2229,18 @@
       </c>
       <c r="K4" s="11">
         <f>'Uoc luong san pham ban ra'!N3</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L4" s="18">
         <f t="shared" ref="L4:L12" si="1">_xlfn.FLOOR.MATH(J4+I4/K4)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="18">
         <v>80</v>
       </c>
       <c r="N4" s="18">
         <f t="shared" ref="N4:N12" si="2">SUM(M4+L4)</f>
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2274,19 +2274,19 @@
       </c>
       <c r="K5" s="11">
         <f>'Uoc luong san pham ban ra'!N4</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L5" s="18">
         <f>_xlfn.FLOOR.MATH(J5+I5/K5)</f>
-        <v>8624</v>
+        <v>8702</v>
       </c>
       <c r="M5" s="18">
         <f>_xlfn.FLOOR.MATH(L5*3%)</f>
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N5" s="18">
         <f t="shared" si="2"/>
-        <v>8882</v>
+        <v>8963</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2320,19 +2320,19 @@
       </c>
       <c r="K6" s="11">
         <f>'Uoc luong san pham ban ra'!N5</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" s="18">
         <f t="shared" si="1"/>
-        <v>1065</v>
+        <v>1087</v>
       </c>
       <c r="M6" s="18">
         <f>_xlfn.FLOOR.MATH(L6*5%)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="18">
         <f t="shared" si="2"/>
-        <v>1118</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2412,18 +2412,18 @@
       </c>
       <c r="K8" s="11">
         <f>'Uoc luong san pham ban ra'!N7</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L8" s="18">
         <f t="shared" si="1"/>
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M8" s="18">
         <v>50</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2457,19 +2457,19 @@
       </c>
       <c r="K9" s="11">
         <f>'Uoc luong san pham ban ra'!N8</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="18">
         <f t="shared" si="1"/>
-        <v>3312</v>
+        <v>3351</v>
       </c>
       <c r="M9" s="18">
         <f>_xlfn.FLOOR.MATH(L9*5%)</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N9" s="18">
         <f t="shared" si="2"/>
-        <v>3477</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2503,18 +2503,18 @@
       </c>
       <c r="K10" s="11">
         <f>'Uoc luong san pham ban ra'!N9</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" s="18">
         <f t="shared" si="1"/>
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M10" s="18">
         <v>20</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="2"/>
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29:N29"/>
     </sheetView>
   </sheetViews>
@@ -2642,107 +2642,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="str">
         <f>'Uoc luong san pham ban ra'!A2</f>
         <v>Dịch vụ Sửa PC</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="26">
         <f>'Uoc luong san pham ban ra'!B2</f>
         <v>8</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="26">
         <f>'Uoc luong san pham ban ra'!C2</f>
         <v>20</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="26">
         <f>'Uoc luong san pham ban ra'!D2</f>
         <v>40</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="26">
         <f>'Uoc luong san pham ban ra'!E2</f>
         <v>41</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="26">
         <f>'Uoc luong san pham ban ra'!F2</f>
+        <v>37</v>
+      </c>
+      <c r="H2" s="26">
+        <f>'Uoc luong san pham ban ra'!G2</f>
         <v>45</v>
       </c>
-      <c r="H2" s="30">
-        <f>'Uoc luong san pham ban ra'!G2</f>
-        <v>50</v>
-      </c>
-      <c r="I2" s="30">
+      <c r="I2" s="26">
         <f>'Uoc luong san pham ban ra'!H2</f>
-        <v>8</v>
-      </c>
-      <c r="J2" s="30">
+        <v>45</v>
+      </c>
+      <c r="J2" s="26">
         <f>'Uoc luong san pham ban ra'!I2</f>
-        <v>20</v>
-      </c>
-      <c r="K2" s="30">
+        <v>40</v>
+      </c>
+      <c r="K2" s="26">
         <f>'Uoc luong san pham ban ra'!J2</f>
-        <v>40</v>
-      </c>
-      <c r="L2" s="30">
+        <v>42</v>
+      </c>
+      <c r="L2" s="26">
         <f>'Uoc luong san pham ban ra'!K2</f>
-        <v>41</v>
-      </c>
-      <c r="M2" s="30">
+        <v>39</v>
+      </c>
+      <c r="M2" s="26">
         <f>'Uoc luong san pham ban ra'!L2</f>
         <v>45</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="26">
         <f>'Uoc luong san pham ban ra'!M2</f>
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37"/>
       <c r="B3" s="11" t="s">
         <v>80</v>
@@ -2760,82 +2760,82 @@
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-    </row>
-    <row r="5" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="str">
         <f>'Uoc luong san pham ban ra'!$A$3</f>
         <v>Dịch vụ Sửa Laptop</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="26">
         <f>'Uoc luong san pham ban ra'!B3</f>
         <v>13</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="26">
         <f>'Uoc luong san pham ban ra'!C3</f>
         <v>16</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="26">
         <f>'Uoc luong san pham ban ra'!D3</f>
         <v>55</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="26">
         <f>'Uoc luong san pham ban ra'!E3</f>
         <v>50</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="26">
         <f>'Uoc luong san pham ban ra'!F3</f>
         <v>37</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="26">
         <f>'Uoc luong san pham ban ra'!G3</f>
+        <v>35</v>
+      </c>
+      <c r="I5" s="26">
+        <f>'Uoc luong san pham ban ra'!H3</f>
+        <v>33</v>
+      </c>
+      <c r="J5" s="26">
+        <f>'Uoc luong san pham ban ra'!I3</f>
         <v>40</v>
       </c>
-      <c r="I5" s="30">
-        <f>'Uoc luong san pham ban ra'!H3</f>
-        <v>13</v>
-      </c>
-      <c r="J5" s="30">
-        <f>'Uoc luong san pham ban ra'!I3</f>
-        <v>16</v>
-      </c>
-      <c r="K5" s="30">
+      <c r="K5" s="26">
         <f>'Uoc luong san pham ban ra'!J3</f>
-        <v>55</v>
-      </c>
-      <c r="L5" s="30">
+        <v>42</v>
+      </c>
+      <c r="L5" s="26">
         <f>'Uoc luong san pham ban ra'!K3</f>
-        <v>50</v>
-      </c>
-      <c r="M5" s="30">
+        <v>41</v>
+      </c>
+      <c r="M5" s="26">
         <f>'Uoc luong san pham ban ra'!L3</f>
         <v>37</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="26">
         <f>'Uoc luong san pham ban ra'!M3</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>
       <c r="B6" s="11" t="s">
         <v>80</v>
@@ -2853,82 +2853,82 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-    </row>
-    <row r="8" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="str">
         <f>'Uoc luong san pham ban ra'!$A$4</f>
         <v>PC (bán)</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="26">
         <f>'Uoc luong san pham ban ra'!B4</f>
         <v>2</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="26">
         <f>'Uoc luong san pham ban ra'!C4</f>
         <v>8</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="26">
         <f>'Uoc luong san pham ban ra'!D4</f>
         <v>7</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="26">
         <f>'Uoc luong san pham ban ra'!E4</f>
         <v>10</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="26">
         <f>'Uoc luong san pham ban ra'!F4</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="26">
+        <f>'Uoc luong san pham ban ra'!G4</f>
+        <v>9</v>
+      </c>
+      <c r="I8" s="26">
+        <f>'Uoc luong san pham ban ra'!H4</f>
+        <v>5</v>
+      </c>
+      <c r="J8" s="26">
+        <f>'Uoc luong san pham ban ra'!I4</f>
+        <v>11</v>
+      </c>
+      <c r="K8" s="26">
+        <f>'Uoc luong san pham ban ra'!J4</f>
         <v>12</v>
       </c>
-      <c r="H8" s="30">
-        <f>'Uoc luong san pham ban ra'!G4</f>
+      <c r="L8" s="26">
+        <f>'Uoc luong san pham ban ra'!K4</f>
         <v>15</v>
       </c>
-      <c r="I8" s="30">
-        <f>'Uoc luong san pham ban ra'!H4</f>
-        <v>2</v>
-      </c>
-      <c r="J8" s="30">
-        <f>'Uoc luong san pham ban ra'!I4</f>
+      <c r="M8" s="26">
+        <f>'Uoc luong san pham ban ra'!L4</f>
+        <v>7</v>
+      </c>
+      <c r="N8" s="26">
+        <f>'Uoc luong san pham ban ra'!M4</f>
         <v>8</v>
       </c>
-      <c r="K8" s="30">
-        <f>'Uoc luong san pham ban ra'!J4</f>
-        <v>7</v>
-      </c>
-      <c r="L8" s="30">
-        <f>'Uoc luong san pham ban ra'!K4</f>
-        <v>10</v>
-      </c>
-      <c r="M8" s="30">
-        <f>'Uoc luong san pham ban ra'!L4</f>
-        <v>12</v>
-      </c>
-      <c r="N8" s="30">
-        <f>'Uoc luong san pham ban ra'!M4</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="37"/>
       <c r="B9" s="11" t="s">
         <v>80</v>
@@ -2946,82 +2946,82 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-    </row>
-    <row r="11" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="str">
         <f>'Uoc luong san pham ban ra'!$A$5</f>
         <v>Ram</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="26">
         <f>'Uoc luong san pham ban ra'!B5</f>
         <v>5</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="26">
         <f>'Uoc luong san pham ban ra'!C5</f>
         <v>15</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="26">
         <f>'Uoc luong san pham ban ra'!D5</f>
         <v>20</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="26">
         <f>'Uoc luong san pham ban ra'!E5</f>
         <v>17</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="26">
         <f>'Uoc luong san pham ban ra'!F5</f>
         <v>20</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="26">
         <f>'Uoc luong san pham ban ra'!G5</f>
-        <v>25</v>
-      </c>
-      <c r="I11" s="30">
+        <v>22</v>
+      </c>
+      <c r="I11" s="26">
         <f>'Uoc luong san pham ban ra'!H5</f>
-        <v>5</v>
-      </c>
-      <c r="J11" s="30">
+        <v>16</v>
+      </c>
+      <c r="J11" s="26">
         <f>'Uoc luong san pham ban ra'!I5</f>
+        <v>18</v>
+      </c>
+      <c r="K11" s="26">
+        <f>'Uoc luong san pham ban ra'!J5</f>
         <v>15</v>
       </c>
-      <c r="K11" s="30">
-        <f>'Uoc luong san pham ban ra'!J5</f>
-        <v>20</v>
-      </c>
-      <c r="L11" s="30">
+      <c r="L11" s="26">
         <f>'Uoc luong san pham ban ra'!K5</f>
         <v>17</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="26">
         <f>'Uoc luong san pham ban ra'!L5</f>
-        <v>20</v>
-      </c>
-      <c r="N11" s="30">
+        <v>10</v>
+      </c>
+      <c r="N11" s="26">
         <f>'Uoc luong san pham ban ra'!M5</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="11" t="s">
         <v>80</v>
@@ -3039,82 +3039,82 @@
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-    </row>
-    <row r="14" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="str">
         <f>'Uoc luong san pham ban ra'!$A$6</f>
         <v>Ổ cứng</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="26">
         <f>'Uoc luong san pham ban ra'!B6</f>
         <v>1</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <f>'Uoc luong san pham ban ra'!C6</f>
         <v>10</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="26">
         <f>'Uoc luong san pham ban ra'!D6</f>
         <v>10</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="26">
         <f>'Uoc luong san pham ban ra'!E6</f>
         <v>10</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="26">
         <f>'Uoc luong san pham ban ra'!F6</f>
         <v>7</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="26">
         <f>'Uoc luong san pham ban ra'!G6</f>
         <v>9</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="26">
         <f>'Uoc luong san pham ban ra'!H6</f>
         <v>1</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="26">
         <f>'Uoc luong san pham ban ra'!I6</f>
         <v>10</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="26">
         <f>'Uoc luong san pham ban ra'!J6</f>
         <v>10</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="26">
         <f>'Uoc luong san pham ban ra'!K6</f>
         <v>10</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="26">
         <f>'Uoc luong san pham ban ra'!L6</f>
         <v>7</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="26">
         <f>'Uoc luong san pham ban ra'!M6</f>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="11" t="s">
         <v>80</v>
@@ -3132,82 +3132,82 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-    </row>
-    <row r="17" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+    </row>
+    <row r="17" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="str">
         <f>'Uoc luong san pham ban ra'!$A$7</f>
         <v>bàn phím/chuột</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="26">
         <f>'Uoc luong san pham ban ra'!B7</f>
         <v>10</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="26">
         <f>'Uoc luong san pham ban ra'!C7</f>
         <v>30</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="26">
         <f>'Uoc luong san pham ban ra'!D7</f>
         <v>50</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="26">
         <f>'Uoc luong san pham ban ra'!E7</f>
         <v>45</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="26">
         <f>'Uoc luong san pham ban ra'!F7</f>
         <v>50</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="26">
         <f>'Uoc luong san pham ban ra'!G7</f>
         <v>56</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="26">
         <f>'Uoc luong san pham ban ra'!H7</f>
-        <v>10</v>
-      </c>
-      <c r="J17" s="30">
+        <v>55</v>
+      </c>
+      <c r="J17" s="26">
         <f>'Uoc luong san pham ban ra'!I7</f>
-        <v>30</v>
-      </c>
-      <c r="K17" s="30">
+        <v>56</v>
+      </c>
+      <c r="K17" s="26">
         <f>'Uoc luong san pham ban ra'!J7</f>
-        <v>50</v>
-      </c>
-      <c r="L17" s="30">
+        <v>44</v>
+      </c>
+      <c r="L17" s="26">
         <f>'Uoc luong san pham ban ra'!K7</f>
         <v>45</v>
       </c>
-      <c r="M17" s="30">
+      <c r="M17" s="26">
         <f>'Uoc luong san pham ban ra'!L7</f>
         <v>50</v>
       </c>
-      <c r="N17" s="30">
+      <c r="N17" s="26">
         <f>'Uoc luong san pham ban ra'!M7</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="11" t="s">
         <v>80</v>
@@ -3225,82 +3225,82 @@
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
     </row>
-    <row r="19" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-    </row>
-    <row r="20" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="20" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="str">
         <f>'Uoc luong san pham ban ra'!$A$8</f>
         <v>Màn hình</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="26">
         <f>'Uoc luong san pham ban ra'!B8</f>
         <v>2</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="26">
         <f>'Uoc luong san pham ban ra'!C8</f>
-        <v>10</v>
-      </c>
-      <c r="E20" s="30">
+        <v>6</v>
+      </c>
+      <c r="E20" s="26">
         <f>'Uoc luong san pham ban ra'!D8</f>
         <v>10</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="26">
         <f>'Uoc luong san pham ban ra'!E8</f>
         <v>9</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="26">
         <f>'Uoc luong san pham ban ra'!F8</f>
         <v>11</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="26">
         <f>'Uoc luong san pham ban ra'!G8</f>
         <v>12</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="26">
         <f>'Uoc luong san pham ban ra'!H8</f>
-        <v>2</v>
-      </c>
-      <c r="J20" s="30">
+        <v>8</v>
+      </c>
+      <c r="J20" s="26">
         <f>'Uoc luong san pham ban ra'!I8</f>
         <v>10</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="26">
         <f>'Uoc luong san pham ban ra'!J8</f>
-        <v>10</v>
-      </c>
-      <c r="L20" s="30">
+        <v>11</v>
+      </c>
+      <c r="L20" s="26">
         <f>'Uoc luong san pham ban ra'!K8</f>
         <v>9</v>
       </c>
-      <c r="M20" s="30">
+      <c r="M20" s="26">
         <f>'Uoc luong san pham ban ra'!L8</f>
-        <v>11</v>
-      </c>
-      <c r="N20" s="30">
+        <v>7</v>
+      </c>
+      <c r="N20" s="26">
         <f>'Uoc luong san pham ban ra'!M8</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="11" t="s">
         <v>80</v>
@@ -3318,30 +3318,30 @@
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-    </row>
-    <row r="23" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+    </row>
+    <row r="23" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="str">
         <f>'Uoc luong san pham ban ra'!$A$9</f>
         <v>USB</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="26" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="2">
@@ -3381,7 +3381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="11" t="s">
         <v>80</v>
@@ -3399,82 +3399,82 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-    </row>
-    <row r="26" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+    </row>
+    <row r="26" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="str">
         <f>'Uoc luong san pham ban ra'!$A$10</f>
         <v>Mainboard</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="26">
         <f>'Uoc luong san pham ban ra'!B10</f>
         <v>1</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="26">
         <f>'Uoc luong san pham ban ra'!C10</f>
         <v>5</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="26">
         <f>'Uoc luong san pham ban ra'!D10</f>
         <v>5</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="26">
         <f>'Uoc luong san pham ban ra'!E10</f>
         <v>5</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="26">
         <f>'Uoc luong san pham ban ra'!F10</f>
         <v>6</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="26">
         <f>'Uoc luong san pham ban ra'!G10</f>
         <v>9</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="26">
         <f>'Uoc luong san pham ban ra'!H10</f>
-        <v>1</v>
-      </c>
-      <c r="J26" s="30">
+        <v>6</v>
+      </c>
+      <c r="J26" s="26">
         <f>'Uoc luong san pham ban ra'!I10</f>
-        <v>5</v>
-      </c>
-      <c r="K26" s="30">
+        <v>8</v>
+      </c>
+      <c r="K26" s="26">
         <f>'Uoc luong san pham ban ra'!J10</f>
-        <v>5</v>
-      </c>
-      <c r="L26" s="30">
+        <v>8</v>
+      </c>
+      <c r="L26" s="26">
         <f>'Uoc luong san pham ban ra'!K10</f>
-        <v>5</v>
-      </c>
-      <c r="M26" s="30">
+        <v>7</v>
+      </c>
+      <c r="M26" s="26">
         <f>'Uoc luong san pham ban ra'!L10</f>
         <v>6</v>
       </c>
-      <c r="N26" s="30">
+      <c r="N26" s="26">
         <f>'Uoc luong san pham ban ra'!M10</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="11" t="s">
         <v>80</v>
@@ -3492,82 +3492,82 @@
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
     </row>
-    <row r="28" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="str">
         <f>'Uoc luong san pham ban ra'!$A$11</f>
         <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="26">
         <f>'Uoc luong san pham ban ra'!B11</f>
         <v>10</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="26">
         <f>'Uoc luong san pham ban ra'!C11</f>
         <v>19</v>
       </c>
-      <c r="E29" s="30">
+      <c r="E29" s="26">
         <f>'Uoc luong san pham ban ra'!D11</f>
         <v>20</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="26">
         <f>'Uoc luong san pham ban ra'!E11</f>
         <v>17</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="26">
         <f>'Uoc luong san pham ban ra'!F11</f>
         <v>18</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="26">
         <f>'Uoc luong san pham ban ra'!G11</f>
         <v>19</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="26">
         <f>'Uoc luong san pham ban ra'!H11</f>
-        <v>10</v>
-      </c>
-      <c r="J29" s="30">
+        <v>17</v>
+      </c>
+      <c r="J29" s="26">
         <f>'Uoc luong san pham ban ra'!I11</f>
         <v>19</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="26">
         <f>'Uoc luong san pham ban ra'!J11</f>
+        <v>16</v>
+      </c>
+      <c r="L29" s="26">
+        <f>'Uoc luong san pham ban ra'!K11</f>
         <v>20</v>
       </c>
-      <c r="L29" s="30">
-        <f>'Uoc luong san pham ban ra'!K11</f>
-        <v>17</v>
-      </c>
-      <c r="M29" s="30">
+      <c r="M29" s="26">
         <f>'Uoc luong san pham ban ra'!L11</f>
         <v>18</v>
       </c>
-      <c r="N29" s="30">
+      <c r="N29" s="26">
         <f>'Uoc luong san pham ban ra'!M11</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="11" t="s">
         <v>80</v>
@@ -3585,26 +3585,27 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" s="34" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38"/>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="A5:A7"/>
@@ -3614,7 +3615,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A2:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ke hoach ban hang.xlsx
+++ b/Ke hoach ban hang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Von ban dau" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Chi phi &amp; Gia thanh" sheetId="4" r:id="rId4"/>
     <sheet name="Doanh Thu" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
   <si>
     <t>Tháng 1</t>
   </si>
@@ -321,12 +321,15 @@
   </si>
   <si>
     <t>Tháng 12</t>
+  </si>
+  <si>
+    <t>Tổng doanh thu bán hàng theo tháng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -581,13 +584,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -625,7 +639,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -647,6 +660,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,11 +1000,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -1021,11 +1041,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
@@ -1158,10 +1178,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="25">
         <f>C5-C17</f>
         <v>177518</v>
@@ -1181,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,7 +2091,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,25 +2111,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="35"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="34"/>
+      <c r="H1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2629,979 +2649,1753 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:N29"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="13" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:14" s="42" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="41" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="str">
+      <c r="A2" s="35" t="str">
         <f>'Uoc luong san pham ban ra'!A2</f>
         <v>Dịch vụ Sửa PC</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="38">
         <f>'Uoc luong san pham ban ra'!B2</f>
         <v>8</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="38">
         <f>'Uoc luong san pham ban ra'!C2</f>
         <v>20</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="38">
         <f>'Uoc luong san pham ban ra'!D2</f>
         <v>40</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="38">
         <f>'Uoc luong san pham ban ra'!E2</f>
         <v>41</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="38">
         <f>'Uoc luong san pham ban ra'!F2</f>
         <v>37</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="38">
         <f>'Uoc luong san pham ban ra'!G2</f>
         <v>45</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="38">
         <f>'Uoc luong san pham ban ra'!H2</f>
         <v>45</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="38">
         <f>'Uoc luong san pham ban ra'!I2</f>
         <v>40</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="38">
         <f>'Uoc luong san pham ban ra'!J2</f>
         <v>42</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="38">
         <f>'Uoc luong san pham ban ra'!K2</f>
         <v>39</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="38">
         <f>'Uoc luong san pham ban ra'!L2</f>
         <v>45</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="38">
         <f>'Uoc luong san pham ban ra'!M2</f>
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="C3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
+      <c r="D3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
+      <c r="E3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
+      <c r="F3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
+      <c r="G3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
+      <c r="H3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
+      <c r="I3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
+      <c r="J3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
+      <c r="K3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
+      <c r="L3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
+      <c r="M3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
+      <c r="N3" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$3</f>
+        <v>117</v>
+      </c>
     </row>
     <row r="4" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="C4" s="39">
+        <f>C2*C3</f>
+        <v>936</v>
+      </c>
+      <c r="D4" s="39">
+        <f t="shared" ref="D4:N4" si="0">D2*D3</f>
+        <v>2340</v>
+      </c>
+      <c r="E4" s="39">
+        <f t="shared" si="0"/>
+        <v>4680</v>
+      </c>
+      <c r="F4" s="39">
+        <f t="shared" si="0"/>
+        <v>4797</v>
+      </c>
+      <c r="G4" s="39">
+        <f t="shared" si="0"/>
+        <v>4329</v>
+      </c>
+      <c r="H4" s="39">
+        <f t="shared" si="0"/>
+        <v>5265</v>
+      </c>
+      <c r="I4" s="39">
+        <f t="shared" si="0"/>
+        <v>5265</v>
+      </c>
+      <c r="J4" s="39">
+        <f t="shared" si="0"/>
+        <v>4680</v>
+      </c>
+      <c r="K4" s="39">
+        <f t="shared" si="0"/>
+        <v>4914</v>
+      </c>
+      <c r="L4" s="39">
+        <f t="shared" si="0"/>
+        <v>4563</v>
+      </c>
+      <c r="M4" s="39">
+        <f t="shared" si="0"/>
+        <v>5265</v>
+      </c>
+      <c r="N4" s="39">
+        <f t="shared" si="0"/>
+        <v>5850</v>
+      </c>
     </row>
     <row r="5" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="str">
+      <c r="A5" s="35" t="str">
         <f>'Uoc luong san pham ban ra'!$A$3</f>
         <v>Dịch vụ Sửa Laptop</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="38">
         <f>'Uoc luong san pham ban ra'!B3</f>
         <v>13</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="38">
         <f>'Uoc luong san pham ban ra'!C3</f>
         <v>16</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="38">
         <f>'Uoc luong san pham ban ra'!D3</f>
         <v>55</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="38">
         <f>'Uoc luong san pham ban ra'!E3</f>
         <v>50</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="38">
         <f>'Uoc luong san pham ban ra'!F3</f>
         <v>37</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="38">
         <f>'Uoc luong san pham ban ra'!G3</f>
         <v>35</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="38">
         <f>'Uoc luong san pham ban ra'!H3</f>
         <v>33</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="38">
         <f>'Uoc luong san pham ban ra'!I3</f>
         <v>40</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="38">
         <f>'Uoc luong san pham ban ra'!J3</f>
         <v>42</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="38">
         <f>'Uoc luong san pham ban ra'!K3</f>
         <v>41</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="38">
         <f>'Uoc luong san pham ban ra'!L3</f>
         <v>37</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="38">
         <f>'Uoc luong san pham ban ra'!M3</f>
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="C6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
+      <c r="D6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
+      <c r="E6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
+      <c r="F6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
+      <c r="G6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
+      <c r="H6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
+      <c r="I6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
+      <c r="J6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
+      <c r="K6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
+      <c r="L6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
+      <c r="M6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
+      <c r="N6" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$4</f>
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="C7" s="39">
+        <f>C5*C6</f>
+        <v>1547</v>
+      </c>
+      <c r="D7" s="39">
+        <f t="shared" ref="D7:N7" si="1">D5*D6</f>
+        <v>1904</v>
+      </c>
+      <c r="E7" s="39">
+        <f t="shared" si="1"/>
+        <v>6545</v>
+      </c>
+      <c r="F7" s="39">
+        <f t="shared" si="1"/>
+        <v>5950</v>
+      </c>
+      <c r="G7" s="39">
+        <f t="shared" si="1"/>
+        <v>4403</v>
+      </c>
+      <c r="H7" s="39">
+        <f t="shared" si="1"/>
+        <v>4165</v>
+      </c>
+      <c r="I7" s="39">
+        <f t="shared" si="1"/>
+        <v>3927</v>
+      </c>
+      <c r="J7" s="39">
+        <f t="shared" si="1"/>
+        <v>4760</v>
+      </c>
+      <c r="K7" s="39">
+        <f t="shared" si="1"/>
+        <v>4998</v>
+      </c>
+      <c r="L7" s="39">
+        <f t="shared" si="1"/>
+        <v>4879</v>
+      </c>
+      <c r="M7" s="39">
+        <f t="shared" si="1"/>
+        <v>4403</v>
+      </c>
+      <c r="N7" s="39">
+        <f t="shared" si="1"/>
+        <v>5236</v>
+      </c>
     </row>
     <row r="8" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="str">
+      <c r="A8" s="35" t="str">
         <f>'Uoc luong san pham ban ra'!$A$4</f>
         <v>PC (bán)</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="38">
         <f>'Uoc luong san pham ban ra'!B4</f>
         <v>2</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="38">
         <f>'Uoc luong san pham ban ra'!C4</f>
         <v>8</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="38">
         <f>'Uoc luong san pham ban ra'!D4</f>
         <v>7</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="38">
         <f>'Uoc luong san pham ban ra'!E4</f>
         <v>10</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="38">
         <f>'Uoc luong san pham ban ra'!F4</f>
         <v>10</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="38">
         <f>'Uoc luong san pham ban ra'!G4</f>
         <v>9</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="38">
         <f>'Uoc luong san pham ban ra'!H4</f>
         <v>5</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="38">
         <f>'Uoc luong san pham ban ra'!I4</f>
         <v>11</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="38">
         <f>'Uoc luong san pham ban ra'!J4</f>
         <v>12</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="38">
         <f>'Uoc luong san pham ban ra'!K4</f>
         <v>15</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="38">
         <f>'Uoc luong san pham ban ra'!L4</f>
         <v>7</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="38">
         <f>'Uoc luong san pham ban ra'!M4</f>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="C9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
+      <c r="D9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
+      <c r="E9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
+      <c r="F9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
+      <c r="G9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
+      <c r="H9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
+      <c r="I9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
+      <c r="J9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
+      <c r="K9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
+      <c r="L9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
+      <c r="M9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
+      <c r="N9" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$5</f>
+        <v>8963</v>
+      </c>
     </row>
     <row r="10" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="C10" s="39">
+        <f>C8*C9</f>
+        <v>17926</v>
+      </c>
+      <c r="D10" s="39">
+        <f t="shared" ref="D10:N10" si="2">D8*D9</f>
+        <v>71704</v>
+      </c>
+      <c r="E10" s="39">
+        <f t="shared" si="2"/>
+        <v>62741</v>
+      </c>
+      <c r="F10" s="39">
+        <f t="shared" si="2"/>
+        <v>89630</v>
+      </c>
+      <c r="G10" s="39">
+        <f t="shared" si="2"/>
+        <v>89630</v>
+      </c>
+      <c r="H10" s="39">
+        <f t="shared" si="2"/>
+        <v>80667</v>
+      </c>
+      <c r="I10" s="39">
+        <f t="shared" si="2"/>
+        <v>44815</v>
+      </c>
+      <c r="J10" s="39">
+        <f t="shared" si="2"/>
+        <v>98593</v>
+      </c>
+      <c r="K10" s="39">
+        <f t="shared" si="2"/>
+        <v>107556</v>
+      </c>
+      <c r="L10" s="39">
+        <f t="shared" si="2"/>
+        <v>134445</v>
+      </c>
+      <c r="M10" s="39">
+        <f t="shared" si="2"/>
+        <v>62741</v>
+      </c>
+      <c r="N10" s="39">
+        <f t="shared" si="2"/>
+        <v>71704</v>
+      </c>
     </row>
     <row r="11" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="str">
+      <c r="A11" s="35" t="str">
         <f>'Uoc luong san pham ban ra'!$A$5</f>
         <v>Ram</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="38">
         <f>'Uoc luong san pham ban ra'!B5</f>
         <v>5</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="38">
         <f>'Uoc luong san pham ban ra'!C5</f>
         <v>15</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="38">
         <f>'Uoc luong san pham ban ra'!D5</f>
         <v>20</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="38">
         <f>'Uoc luong san pham ban ra'!E5</f>
         <v>17</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="38">
         <f>'Uoc luong san pham ban ra'!F5</f>
         <v>20</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="38">
         <f>'Uoc luong san pham ban ra'!G5</f>
         <v>22</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="38">
         <f>'Uoc luong san pham ban ra'!H5</f>
         <v>16</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="38">
         <f>'Uoc luong san pham ban ra'!I5</f>
         <v>18</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="38">
         <f>'Uoc luong san pham ban ra'!J5</f>
         <v>15</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="38">
         <f>'Uoc luong san pham ban ra'!K5</f>
         <v>17</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="38">
         <f>'Uoc luong san pham ban ra'!L5</f>
         <v>10</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="38">
         <f>'Uoc luong san pham ban ra'!M5</f>
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="C12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
+      <c r="D12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
+      <c r="E12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
+      <c r="F12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
+      <c r="G12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
+      <c r="H12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
+      <c r="I12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
+      <c r="J12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
+      <c r="K12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
+      <c r="L12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
+      <c r="M12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
+      <c r="N12" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$6</f>
+        <v>1141</v>
+      </c>
     </row>
     <row r="13" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="C13" s="39">
+        <f>C11*C12</f>
+        <v>5705</v>
+      </c>
+      <c r="D13" s="39">
+        <f t="shared" ref="D13:N13" si="3">D11*D12</f>
+        <v>17115</v>
+      </c>
+      <c r="E13" s="39">
+        <f t="shared" si="3"/>
+        <v>22820</v>
+      </c>
+      <c r="F13" s="39">
+        <f t="shared" si="3"/>
+        <v>19397</v>
+      </c>
+      <c r="G13" s="39">
+        <f t="shared" si="3"/>
+        <v>22820</v>
+      </c>
+      <c r="H13" s="39">
+        <f t="shared" si="3"/>
+        <v>25102</v>
+      </c>
+      <c r="I13" s="39">
+        <f t="shared" si="3"/>
+        <v>18256</v>
+      </c>
+      <c r="J13" s="39">
+        <f t="shared" si="3"/>
+        <v>20538</v>
+      </c>
+      <c r="K13" s="39">
+        <f t="shared" si="3"/>
+        <v>17115</v>
+      </c>
+      <c r="L13" s="39">
+        <f t="shared" si="3"/>
+        <v>19397</v>
+      </c>
+      <c r="M13" s="39">
+        <f t="shared" si="3"/>
+        <v>11410</v>
+      </c>
+      <c r="N13" s="39">
+        <f t="shared" si="3"/>
+        <v>14833</v>
+      </c>
     </row>
     <row r="14" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="str">
+      <c r="A14" s="35" t="str">
         <f>'Uoc luong san pham ban ra'!$A$6</f>
         <v>Ổ cứng</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="38">
         <f>'Uoc luong san pham ban ra'!B6</f>
         <v>1</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="38">
         <f>'Uoc luong san pham ban ra'!C6</f>
         <v>10</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="38">
         <f>'Uoc luong san pham ban ra'!D6</f>
         <v>10</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="38">
         <f>'Uoc luong san pham ban ra'!E6</f>
         <v>10</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="38">
         <f>'Uoc luong san pham ban ra'!F6</f>
         <v>7</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="38">
         <f>'Uoc luong san pham ban ra'!G6</f>
         <v>9</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="38">
         <f>'Uoc luong san pham ban ra'!H6</f>
         <v>1</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="38">
         <f>'Uoc luong san pham ban ra'!I6</f>
         <v>10</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="38">
         <f>'Uoc luong san pham ban ra'!J6</f>
         <v>10</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="38">
         <f>'Uoc luong san pham ban ra'!K6</f>
         <v>10</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="38">
         <f>'Uoc luong san pham ban ra'!L6</f>
         <v>7</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="38">
         <f>'Uoc luong san pham ban ra'!M6</f>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="C15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
+      <c r="D15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
+      <c r="E15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
+      <c r="F15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
+      <c r="G15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
+      <c r="H15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
+      <c r="I15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
+      <c r="J15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
+      <c r="K15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
+      <c r="L15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
+      <c r="M15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
+      <c r="N15" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$7</f>
+        <v>3017</v>
+      </c>
     </row>
     <row r="16" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
+      <c r="C16" s="39">
+        <f>C14*C15</f>
+        <v>3017</v>
+      </c>
+      <c r="D16" s="39">
+        <f t="shared" ref="D16:N16" si="4">D14*D15</f>
+        <v>30170</v>
+      </c>
+      <c r="E16" s="39">
+        <f t="shared" si="4"/>
+        <v>30170</v>
+      </c>
+      <c r="F16" s="39">
+        <f t="shared" si="4"/>
+        <v>30170</v>
+      </c>
+      <c r="G16" s="39">
+        <f t="shared" si="4"/>
+        <v>21119</v>
+      </c>
+      <c r="H16" s="39">
+        <f t="shared" si="4"/>
+        <v>27153</v>
+      </c>
+      <c r="I16" s="39">
+        <f t="shared" si="4"/>
+        <v>3017</v>
+      </c>
+      <c r="J16" s="39">
+        <f t="shared" si="4"/>
+        <v>30170</v>
+      </c>
+      <c r="K16" s="39">
+        <f t="shared" si="4"/>
+        <v>30170</v>
+      </c>
+      <c r="L16" s="39">
+        <f t="shared" si="4"/>
+        <v>30170</v>
+      </c>
+      <c r="M16" s="39">
+        <f t="shared" si="4"/>
+        <v>21119</v>
+      </c>
+      <c r="N16" s="39">
+        <f t="shared" si="4"/>
+        <v>27153</v>
+      </c>
     </row>
     <row r="17" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="str">
+      <c r="A17" s="35" t="str">
         <f>'Uoc luong san pham ban ra'!$A$7</f>
         <v>bàn phím/chuột</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="38">
         <f>'Uoc luong san pham ban ra'!B7</f>
         <v>10</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="38">
         <f>'Uoc luong san pham ban ra'!C7</f>
         <v>30</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="38">
         <f>'Uoc luong san pham ban ra'!D7</f>
         <v>50</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="38">
         <f>'Uoc luong san pham ban ra'!E7</f>
         <v>45</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="38">
         <f>'Uoc luong san pham ban ra'!F7</f>
         <v>50</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="38">
         <f>'Uoc luong san pham ban ra'!G7</f>
         <v>56</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="38">
         <f>'Uoc luong san pham ban ra'!H7</f>
         <v>55</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="38">
         <f>'Uoc luong san pham ban ra'!I7</f>
         <v>56</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="38">
         <f>'Uoc luong san pham ban ra'!J7</f>
         <v>44</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="38">
         <f>'Uoc luong san pham ban ra'!K7</f>
         <v>45</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="38">
         <f>'Uoc luong san pham ban ra'!L7</f>
         <v>50</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="38">
         <f>'Uoc luong san pham ban ra'!M7</f>
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="C18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
+      <c r="D18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
+      <c r="E18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
+      <c r="F18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
+      <c r="G18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
+      <c r="H18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
+      <c r="I18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
+      <c r="J18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
+      <c r="K18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
+      <c r="L18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
+      <c r="M18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
+      <c r="N18" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$8</f>
+        <v>413</v>
+      </c>
     </row>
     <row r="19" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
+      <c r="C19" s="39">
+        <f>C17*C18</f>
+        <v>4130</v>
+      </c>
+      <c r="D19" s="39">
+        <f t="shared" ref="D19:N19" si="5">D17*D18</f>
+        <v>12390</v>
+      </c>
+      <c r="E19" s="39">
+        <f t="shared" si="5"/>
+        <v>20650</v>
+      </c>
+      <c r="F19" s="39">
+        <f t="shared" si="5"/>
+        <v>18585</v>
+      </c>
+      <c r="G19" s="39">
+        <f t="shared" si="5"/>
+        <v>20650</v>
+      </c>
+      <c r="H19" s="39">
+        <f t="shared" si="5"/>
+        <v>23128</v>
+      </c>
+      <c r="I19" s="39">
+        <f t="shared" si="5"/>
+        <v>22715</v>
+      </c>
+      <c r="J19" s="39">
+        <f t="shared" si="5"/>
+        <v>23128</v>
+      </c>
+      <c r="K19" s="39">
+        <f t="shared" si="5"/>
+        <v>18172</v>
+      </c>
+      <c r="L19" s="39">
+        <f t="shared" si="5"/>
+        <v>18585</v>
+      </c>
+      <c r="M19" s="39">
+        <f t="shared" si="5"/>
+        <v>20650</v>
+      </c>
+      <c r="N19" s="39">
+        <f t="shared" si="5"/>
+        <v>17346</v>
+      </c>
     </row>
     <row r="20" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="str">
+      <c r="A20" s="35" t="str">
         <f>'Uoc luong san pham ban ra'!$A$8</f>
         <v>Màn hình</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="38">
         <f>'Uoc luong san pham ban ra'!B8</f>
         <v>2</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="38">
         <f>'Uoc luong san pham ban ra'!C8</f>
         <v>6</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="38">
         <f>'Uoc luong san pham ban ra'!D8</f>
         <v>10</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="38">
         <f>'Uoc luong san pham ban ra'!E8</f>
         <v>9</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="38">
         <f>'Uoc luong san pham ban ra'!F8</f>
         <v>11</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="38">
         <f>'Uoc luong san pham ban ra'!G8</f>
         <v>12</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="38">
         <f>'Uoc luong san pham ban ra'!H8</f>
         <v>8</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="38">
         <f>'Uoc luong san pham ban ra'!I8</f>
         <v>10</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="38">
         <f>'Uoc luong san pham ban ra'!J8</f>
         <v>11</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="38">
         <f>'Uoc luong san pham ban ra'!K8</f>
         <v>9</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="38">
         <f>'Uoc luong san pham ban ra'!L8</f>
         <v>7</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="38">
         <f>'Uoc luong san pham ban ra'!M8</f>
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="C21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
+      <c r="D21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
+      <c r="E21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
+      <c r="F21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
+      <c r="G21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
+      <c r="H21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
+      <c r="I21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
+      <c r="J21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
+      <c r="K21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
+      <c r="L21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
+      <c r="M21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
+      <c r="N21" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$9</f>
+        <v>3518</v>
+      </c>
     </row>
     <row r="22" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
+      <c r="C22" s="39">
+        <f>C20*C21</f>
+        <v>7036</v>
+      </c>
+      <c r="D22" s="39">
+        <f t="shared" ref="D22:N22" si="6">D20*D21</f>
+        <v>21108</v>
+      </c>
+      <c r="E22" s="39">
+        <f t="shared" si="6"/>
+        <v>35180</v>
+      </c>
+      <c r="F22" s="39">
+        <f t="shared" si="6"/>
+        <v>31662</v>
+      </c>
+      <c r="G22" s="39">
+        <f t="shared" si="6"/>
+        <v>38698</v>
+      </c>
+      <c r="H22" s="39">
+        <f t="shared" si="6"/>
+        <v>42216</v>
+      </c>
+      <c r="I22" s="39">
+        <f t="shared" si="6"/>
+        <v>28144</v>
+      </c>
+      <c r="J22" s="39">
+        <f t="shared" si="6"/>
+        <v>35180</v>
+      </c>
+      <c r="K22" s="39">
+        <f t="shared" si="6"/>
+        <v>38698</v>
+      </c>
+      <c r="L22" s="39">
+        <f t="shared" si="6"/>
+        <v>31662</v>
+      </c>
+      <c r="M22" s="39">
+        <f t="shared" si="6"/>
+        <v>24626</v>
+      </c>
+      <c r="N22" s="39">
+        <f t="shared" si="6"/>
+        <v>17590</v>
+      </c>
     </row>
     <row r="23" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="str">
+      <c r="A23" s="35" t="str">
         <f>'Uoc luong san pham ban ra'!$A$9</f>
         <v>USB</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>7</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="6">
         <v>22</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="6">
         <v>30</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="6">
         <v>24</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="6">
         <v>31</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="6">
         <v>35</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="6">
         <v>7</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="6">
         <v>22</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="6">
         <v>30</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="6">
         <v>24</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="6">
         <v>31</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="6">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="C24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
+      <c r="D24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
+      <c r="E24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
+      <c r="F24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
+      <c r="G24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
+      <c r="H24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
+      <c r="I24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
+      <c r="J24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
+      <c r="K24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
+      <c r="L24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
+      <c r="M24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
+      <c r="N24" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$10</f>
+        <v>276</v>
+      </c>
     </row>
     <row r="25" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
+      <c r="A25" s="37"/>
       <c r="B25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
+      <c r="C25" s="39">
+        <f>C23*C24</f>
+        <v>1932</v>
+      </c>
+      <c r="D25" s="39">
+        <f t="shared" ref="D25:N25" si="7">D23*D24</f>
+        <v>6072</v>
+      </c>
+      <c r="E25" s="39">
+        <f t="shared" si="7"/>
+        <v>8280</v>
+      </c>
+      <c r="F25" s="39">
+        <f t="shared" si="7"/>
+        <v>6624</v>
+      </c>
+      <c r="G25" s="39">
+        <f t="shared" si="7"/>
+        <v>8556</v>
+      </c>
+      <c r="H25" s="39">
+        <f t="shared" si="7"/>
+        <v>9660</v>
+      </c>
+      <c r="I25" s="39">
+        <f t="shared" si="7"/>
+        <v>1932</v>
+      </c>
+      <c r="J25" s="39">
+        <f t="shared" si="7"/>
+        <v>6072</v>
+      </c>
+      <c r="K25" s="39">
+        <f t="shared" si="7"/>
+        <v>8280</v>
+      </c>
+      <c r="L25" s="39">
+        <f t="shared" si="7"/>
+        <v>6624</v>
+      </c>
+      <c r="M25" s="39">
+        <f t="shared" si="7"/>
+        <v>8556</v>
+      </c>
+      <c r="N25" s="39">
+        <f t="shared" si="7"/>
+        <v>9660</v>
+      </c>
     </row>
     <row r="26" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="str">
+      <c r="A26" s="35" t="str">
         <f>'Uoc luong san pham ban ra'!$A$10</f>
         <v>Mainboard</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="38">
         <f>'Uoc luong san pham ban ra'!B10</f>
         <v>1</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="38">
         <f>'Uoc luong san pham ban ra'!C10</f>
         <v>5</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="38">
         <f>'Uoc luong san pham ban ra'!D10</f>
         <v>5</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="38">
         <f>'Uoc luong san pham ban ra'!E10</f>
         <v>5</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="38">
         <f>'Uoc luong san pham ban ra'!F10</f>
         <v>6</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="38">
         <f>'Uoc luong san pham ban ra'!G10</f>
         <v>9</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="38">
         <f>'Uoc luong san pham ban ra'!H10</f>
         <v>6</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="38">
         <f>'Uoc luong san pham ban ra'!I10</f>
         <v>8</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="38">
         <f>'Uoc luong san pham ban ra'!J10</f>
         <v>8</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="38">
         <f>'Uoc luong san pham ban ra'!K10</f>
         <v>7</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="38">
         <f>'Uoc luong san pham ban ra'!L10</f>
         <v>6</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="38">
         <f>'Uoc luong san pham ban ra'!M10</f>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="C27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
+      <c r="D27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
+      <c r="E27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
+      <c r="F27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
+      <c r="G27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
+      <c r="H27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
+      <c r="I27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
+      <c r="J27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
+      <c r="K27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
+      <c r="L27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
+      <c r="M27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
+      <c r="N27" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$11</f>
+        <v>3214</v>
+      </c>
     </row>
     <row r="28" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="C28" s="39">
+        <f>C26*C27</f>
+        <v>3214</v>
+      </c>
+      <c r="D28" s="39">
+        <f t="shared" ref="D28:N28" si="8">D26*D27</f>
+        <v>16070</v>
+      </c>
+      <c r="E28" s="39">
+        <f t="shared" si="8"/>
+        <v>16070</v>
+      </c>
+      <c r="F28" s="39">
+        <f t="shared" si="8"/>
+        <v>16070</v>
+      </c>
+      <c r="G28" s="39">
+        <f t="shared" si="8"/>
+        <v>19284</v>
+      </c>
+      <c r="H28" s="39">
+        <f t="shared" si="8"/>
+        <v>28926</v>
+      </c>
+      <c r="I28" s="39">
+        <f t="shared" si="8"/>
+        <v>19284</v>
+      </c>
+      <c r="J28" s="39">
+        <f t="shared" si="8"/>
+        <v>25712</v>
+      </c>
+      <c r="K28" s="39">
+        <f t="shared" si="8"/>
+        <v>25712</v>
+      </c>
+      <c r="L28" s="39">
+        <f t="shared" si="8"/>
+        <v>22498</v>
+      </c>
+      <c r="M28" s="39">
+        <f t="shared" si="8"/>
+        <v>19284</v>
+      </c>
+      <c r="N28" s="39">
+        <f t="shared" si="8"/>
+        <v>12856</v>
+      </c>
     </row>
     <row r="29" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="str">
+      <c r="A29" s="35" t="str">
         <f>'Uoc luong san pham ban ra'!$A$11</f>
         <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="38">
         <f>'Uoc luong san pham ban ra'!B11</f>
         <v>10</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="38">
         <f>'Uoc luong san pham ban ra'!C11</f>
         <v>19</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="38">
         <f>'Uoc luong san pham ban ra'!D11</f>
         <v>20</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="38">
         <f>'Uoc luong san pham ban ra'!E11</f>
         <v>17</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="38">
         <f>'Uoc luong san pham ban ra'!F11</f>
         <v>18</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="38">
         <f>'Uoc luong san pham ban ra'!G11</f>
         <v>19</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="38">
         <f>'Uoc luong san pham ban ra'!H11</f>
         <v>17</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="38">
         <f>'Uoc luong san pham ban ra'!I11</f>
         <v>19</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="38">
         <f>'Uoc luong san pham ban ra'!J11</f>
         <v>16</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="38">
         <f>'Uoc luong san pham ban ra'!K11</f>
         <v>20</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="38">
         <f>'Uoc luong san pham ban ra'!L11</f>
         <v>18</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="38">
         <f>'Uoc luong san pham ban ra'!M11</f>
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="C30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
+      <c r="D30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
+      <c r="E30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
+      <c r="F30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
+      <c r="G30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
+      <c r="H30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
+      <c r="I30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
+      <c r="J30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
+      <c r="K30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
+      <c r="L30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
+      <c r="M30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
+      <c r="N30" s="18">
+        <f>'Chi phi &amp; Gia thanh'!$N$12</f>
+        <v>2884</v>
+      </c>
     </row>
     <row r="31" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
+      <c r="C31" s="39">
+        <f>C29*C30</f>
+        <v>28840</v>
+      </c>
+      <c r="D31" s="39">
+        <f t="shared" ref="D31:N31" si="9">D29*D30</f>
+        <v>54796</v>
+      </c>
+      <c r="E31" s="39">
+        <f t="shared" si="9"/>
+        <v>57680</v>
+      </c>
+      <c r="F31" s="39">
+        <f t="shared" si="9"/>
+        <v>49028</v>
+      </c>
+      <c r="G31" s="39">
+        <f t="shared" si="9"/>
+        <v>51912</v>
+      </c>
+      <c r="H31" s="39">
+        <f t="shared" si="9"/>
+        <v>54796</v>
+      </c>
+      <c r="I31" s="39">
+        <f t="shared" si="9"/>
+        <v>49028</v>
+      </c>
+      <c r="J31" s="39">
+        <f t="shared" si="9"/>
+        <v>54796</v>
+      </c>
+      <c r="K31" s="39">
+        <f t="shared" si="9"/>
+        <v>46144</v>
+      </c>
+      <c r="L31" s="39">
+        <f t="shared" si="9"/>
+        <v>57680</v>
+      </c>
+      <c r="M31" s="39">
+        <f t="shared" si="9"/>
+        <v>51912</v>
+      </c>
+      <c r="N31" s="39">
+        <f t="shared" si="9"/>
+        <v>40376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="44">
+        <f>SUM(C4,C7,C10,C13,C16,C19,C22,C25,C28,C31)</f>
+        <v>74283</v>
+      </c>
+      <c r="D32" s="44">
+        <f t="shared" ref="D32:N32" si="10">SUM(D4,D7,D10,D13,D16,D19,D22,D25,D28,D31)</f>
+        <v>233669</v>
+      </c>
+      <c r="E32" s="44">
+        <f t="shared" si="10"/>
+        <v>264816</v>
+      </c>
+      <c r="F32" s="44">
+        <f t="shared" si="10"/>
+        <v>271913</v>
+      </c>
+      <c r="G32" s="44">
+        <f t="shared" si="10"/>
+        <v>281401</v>
+      </c>
+      <c r="H32" s="44">
+        <f t="shared" si="10"/>
+        <v>301078</v>
+      </c>
+      <c r="I32" s="44">
+        <f t="shared" si="10"/>
+        <v>196383</v>
+      </c>
+      <c r="J32" s="44">
+        <f t="shared" si="10"/>
+        <v>303629</v>
+      </c>
+      <c r="K32" s="44">
+        <f t="shared" si="10"/>
+        <v>301759</v>
+      </c>
+      <c r="L32" s="44">
+        <f t="shared" si="10"/>
+        <v>330503</v>
+      </c>
+      <c r="M32" s="44">
+        <f t="shared" si="10"/>
+        <v>229966</v>
+      </c>
+      <c r="N32" s="44">
+        <f t="shared" si="10"/>
+        <v>222604</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Ke hoach ban hang.xlsx
+++ b/Ke hoach ban hang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Von ban dau" sheetId="1" r:id="rId1"/>
@@ -639,6 +639,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -660,13 +667,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1000,11 +1000,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
@@ -1041,11 +1041,11 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
@@ -1178,10 +1178,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="25">
         <f>C5-C17</f>
         <v>177518</v>
@@ -1201,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,8 +1321,8 @@
         <v>0</v>
       </c>
       <c r="Q2" s="6">
-        <f t="shared" ref="Q2:Q11" si="1">N2*O2</f>
-        <v>16428</v>
+        <f>N2*P2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>44</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N11" si="2">_xlfn.FLOOR.MATH(AVERAGE(B3:M3))</f>
+        <f t="shared" ref="N3:N11" si="1">_xlfn.FLOOR.MATH(AVERAGE(B3:M3))</f>
         <v>36</v>
       </c>
       <c r="O3" s="2">
@@ -1377,8 +1377,8 @@
         <v>0</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" si="1"/>
-        <v>15552</v>
+        <f t="shared" ref="Q3:Q11" si="2">N3*P3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O4" s="2">
@@ -1433,8 +1433,8 @@
         <v>8000</v>
       </c>
       <c r="Q4" s="6">
-        <f t="shared" si="1"/>
-        <v>768</v>
+        <f t="shared" si="2"/>
+        <v>64000</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>13</v>
       </c>
       <c r="N5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O5" s="2">
@@ -1489,8 +1489,8 @@
         <v>900</v>
       </c>
       <c r="Q5" s="6">
-        <f t="shared" si="1"/>
-        <v>2700</v>
+        <f t="shared" si="2"/>
+        <v>13500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O6" s="2">
@@ -1545,8 +1545,8 @@
         <v>2500</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="1"/>
-        <v>588</v>
+        <f t="shared" si="2"/>
+        <v>17500</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>42</v>
       </c>
       <c r="N7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="O7" s="2">
@@ -1601,8 +1601,8 @@
         <v>300</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" si="1"/>
-        <v>23232</v>
+        <f t="shared" si="2"/>
+        <v>13200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O8" s="2">
@@ -1657,8 +1657,8 @@
         <v>3000</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="1"/>
-        <v>768</v>
+        <f t="shared" si="2"/>
+        <v>24000</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="O9" s="2">
@@ -1713,8 +1713,8 @@
         <v>200</v>
       </c>
       <c r="Q9" s="6">
-        <f t="shared" si="1"/>
-        <v>7500</v>
+        <f t="shared" si="2"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="O10" s="2">
@@ -1769,8 +1769,8 @@
         <v>2500</v>
       </c>
       <c r="Q10" s="6">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>12500</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>14</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="O11" s="2">
@@ -1825,8 +1825,8 @@
         <v>2500</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="1"/>
-        <v>3468</v>
+        <f t="shared" si="2"/>
+        <v>42500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="Q12" s="5">
         <f>SUM(Q2:Q11)</f>
-        <v>71304</v>
+        <v>192200</v>
       </c>
     </row>
   </sheetData>
@@ -2111,25 +2111,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="14"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="32" t="s">
+      <c r="F1" s="41"/>
+      <c r="H1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
     </row>
     <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -2651,7 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -2662,109 +2662,109 @@
     <col min="3" max="14" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="42" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:14" s="35" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="str">
+      <c r="A2" s="42" t="str">
         <f>'Uoc luong san pham ban ra'!A2</f>
         <v>Dịch vụ Sửa PC</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="31">
         <f>'Uoc luong san pham ban ra'!B2</f>
         <v>8</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="31">
         <f>'Uoc luong san pham ban ra'!C2</f>
         <v>20</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="31">
         <f>'Uoc luong san pham ban ra'!D2</f>
         <v>40</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="31">
         <f>'Uoc luong san pham ban ra'!E2</f>
         <v>41</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="31">
         <f>'Uoc luong san pham ban ra'!F2</f>
         <v>37</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="31">
         <f>'Uoc luong san pham ban ra'!G2</f>
         <v>45</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="31">
         <f>'Uoc luong san pham ban ra'!H2</f>
         <v>45</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="31">
         <f>'Uoc luong san pham ban ra'!I2</f>
         <v>40</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="31">
         <f>'Uoc luong san pham ban ra'!J2</f>
         <v>42</v>
       </c>
-      <c r="L2" s="38">
+      <c r="L2" s="31">
         <f>'Uoc luong san pham ban ra'!K2</f>
         <v>39</v>
       </c>
-      <c r="M2" s="38">
+      <c r="M2" s="31">
         <f>'Uoc luong san pham ban ra'!L2</f>
         <v>45</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="31">
         <f>'Uoc luong san pham ban ra'!M2</f>
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="11" t="s">
         <v>80</v>
       </c>
@@ -2818,118 +2818,118 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="32">
         <f>C2*C3</f>
         <v>936</v>
       </c>
-      <c r="D4" s="39">
+      <c r="D4" s="32">
         <f t="shared" ref="D4:N4" si="0">D2*D3</f>
         <v>2340</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="32">
         <f t="shared" si="0"/>
         <v>4680</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="32">
         <f t="shared" si="0"/>
         <v>4797</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="32">
         <f t="shared" si="0"/>
         <v>4329</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="32">
         <f t="shared" si="0"/>
         <v>5265</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="32">
         <f t="shared" si="0"/>
         <v>5265</v>
       </c>
-      <c r="J4" s="39">
+      <c r="J4" s="32">
         <f t="shared" si="0"/>
         <v>4680</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="32">
         <f t="shared" si="0"/>
         <v>4914</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="32">
         <f t="shared" si="0"/>
         <v>4563</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="32">
         <f t="shared" si="0"/>
         <v>5265</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="32">
         <f t="shared" si="0"/>
         <v>5850</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="str">
+      <c r="A5" s="42" t="str">
         <f>'Uoc luong san pham ban ra'!$A$3</f>
         <v>Dịch vụ Sửa Laptop</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="31">
         <f>'Uoc luong san pham ban ra'!B3</f>
         <v>13</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="31">
         <f>'Uoc luong san pham ban ra'!C3</f>
         <v>16</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="31">
         <f>'Uoc luong san pham ban ra'!D3</f>
         <v>55</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="31">
         <f>'Uoc luong san pham ban ra'!E3</f>
         <v>50</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="31">
         <f>'Uoc luong san pham ban ra'!F3</f>
         <v>37</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="31">
         <f>'Uoc luong san pham ban ra'!G3</f>
         <v>35</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="31">
         <f>'Uoc luong san pham ban ra'!H3</f>
         <v>33</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="31">
         <f>'Uoc luong san pham ban ra'!I3</f>
         <v>40</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="31">
         <f>'Uoc luong san pham ban ra'!J3</f>
         <v>42</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="31">
         <f>'Uoc luong san pham ban ra'!K3</f>
         <v>41</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="31">
         <f>'Uoc luong san pham ban ra'!L3</f>
         <v>37</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="31">
         <f>'Uoc luong san pham ban ra'!M3</f>
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="11" t="s">
         <v>80</v>
       </c>
@@ -2983,118 +2983,118 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="32">
         <f>C5*C6</f>
         <v>1547</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="32">
         <f t="shared" ref="D7:N7" si="1">D5*D6</f>
         <v>1904</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="32">
         <f t="shared" si="1"/>
         <v>6545</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="32">
         <f t="shared" si="1"/>
         <v>5950</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="32">
         <f t="shared" si="1"/>
         <v>4403</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="32">
         <f t="shared" si="1"/>
         <v>4165</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="32">
         <f t="shared" si="1"/>
         <v>3927</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="32">
         <f t="shared" si="1"/>
         <v>4760</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="32">
         <f t="shared" si="1"/>
         <v>4998</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="32">
         <f t="shared" si="1"/>
         <v>4879</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="32">
         <f t="shared" si="1"/>
         <v>4403</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="32">
         <f t="shared" si="1"/>
         <v>5236</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="str">
+      <c r="A8" s="42" t="str">
         <f>'Uoc luong san pham ban ra'!$A$4</f>
         <v>PC (bán)</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="31">
         <f>'Uoc luong san pham ban ra'!B4</f>
         <v>2</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="31">
         <f>'Uoc luong san pham ban ra'!C4</f>
         <v>8</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="31">
         <f>'Uoc luong san pham ban ra'!D4</f>
         <v>7</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="31">
         <f>'Uoc luong san pham ban ra'!E4</f>
         <v>10</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="31">
         <f>'Uoc luong san pham ban ra'!F4</f>
         <v>10</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="31">
         <f>'Uoc luong san pham ban ra'!G4</f>
         <v>9</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="31">
         <f>'Uoc luong san pham ban ra'!H4</f>
         <v>5</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="31">
         <f>'Uoc luong san pham ban ra'!I4</f>
         <v>11</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="31">
         <f>'Uoc luong san pham ban ra'!J4</f>
         <v>12</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="31">
         <f>'Uoc luong san pham ban ra'!K4</f>
         <v>15</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="31">
         <f>'Uoc luong san pham ban ra'!L4</f>
         <v>7</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="31">
         <f>'Uoc luong san pham ban ra'!M4</f>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="11" t="s">
         <v>80</v>
       </c>
@@ -3148,118 +3148,118 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="32">
         <f>C8*C9</f>
         <v>17926</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="32">
         <f t="shared" ref="D10:N10" si="2">D8*D9</f>
         <v>71704</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="32">
         <f t="shared" si="2"/>
         <v>62741</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="32">
         <f t="shared" si="2"/>
         <v>89630</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="32">
         <f t="shared" si="2"/>
         <v>89630</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="32">
         <f t="shared" si="2"/>
         <v>80667</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="32">
         <f t="shared" si="2"/>
         <v>44815</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="32">
         <f t="shared" si="2"/>
         <v>98593</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="32">
         <f t="shared" si="2"/>
         <v>107556</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="32">
         <f t="shared" si="2"/>
         <v>134445</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="32">
         <f t="shared" si="2"/>
         <v>62741</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="32">
         <f t="shared" si="2"/>
         <v>71704</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="str">
+      <c r="A11" s="42" t="str">
         <f>'Uoc luong san pham ban ra'!$A$5</f>
         <v>Ram</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="31">
         <f>'Uoc luong san pham ban ra'!B5</f>
         <v>5</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="31">
         <f>'Uoc luong san pham ban ra'!C5</f>
         <v>15</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="31">
         <f>'Uoc luong san pham ban ra'!D5</f>
         <v>20</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="31">
         <f>'Uoc luong san pham ban ra'!E5</f>
         <v>17</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="31">
         <f>'Uoc luong san pham ban ra'!F5</f>
         <v>20</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="31">
         <f>'Uoc luong san pham ban ra'!G5</f>
         <v>22</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="31">
         <f>'Uoc luong san pham ban ra'!H5</f>
         <v>16</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="31">
         <f>'Uoc luong san pham ban ra'!I5</f>
         <v>18</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="31">
         <f>'Uoc luong san pham ban ra'!J5</f>
         <v>15</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="31">
         <f>'Uoc luong san pham ban ra'!K5</f>
         <v>17</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="31">
         <f>'Uoc luong san pham ban ra'!L5</f>
         <v>10</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="31">
         <f>'Uoc luong san pham ban ra'!M5</f>
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="11" t="s">
         <v>80</v>
       </c>
@@ -3313,118 +3313,118 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="32">
         <f>C11*C12</f>
         <v>5705</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="32">
         <f t="shared" ref="D13:N13" si="3">D11*D12</f>
         <v>17115</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="32">
         <f t="shared" si="3"/>
         <v>22820</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="32">
         <f t="shared" si="3"/>
         <v>19397</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="32">
         <f t="shared" si="3"/>
         <v>22820</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="32">
         <f t="shared" si="3"/>
         <v>25102</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="32">
         <f t="shared" si="3"/>
         <v>18256</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="32">
         <f t="shared" si="3"/>
         <v>20538</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="32">
         <f t="shared" si="3"/>
         <v>17115</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="32">
         <f t="shared" si="3"/>
         <v>19397</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="32">
         <f t="shared" si="3"/>
         <v>11410</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="32">
         <f t="shared" si="3"/>
         <v>14833</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="str">
+      <c r="A14" s="42" t="str">
         <f>'Uoc luong san pham ban ra'!$A$6</f>
         <v>Ổ cứng</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="31">
         <f>'Uoc luong san pham ban ra'!B6</f>
         <v>1</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="31">
         <f>'Uoc luong san pham ban ra'!C6</f>
         <v>10</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="31">
         <f>'Uoc luong san pham ban ra'!D6</f>
         <v>10</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="31">
         <f>'Uoc luong san pham ban ra'!E6</f>
         <v>10</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="31">
         <f>'Uoc luong san pham ban ra'!F6</f>
         <v>7</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="31">
         <f>'Uoc luong san pham ban ra'!G6</f>
         <v>9</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="31">
         <f>'Uoc luong san pham ban ra'!H6</f>
         <v>1</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="31">
         <f>'Uoc luong san pham ban ra'!I6</f>
         <v>10</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="31">
         <f>'Uoc luong san pham ban ra'!J6</f>
         <v>10</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="31">
         <f>'Uoc luong san pham ban ra'!K6</f>
         <v>10</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="31">
         <f>'Uoc luong san pham ban ra'!L6</f>
         <v>7</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="31">
         <f>'Uoc luong san pham ban ra'!M6</f>
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="11" t="s">
         <v>80</v>
       </c>
@@ -3478,118 +3478,118 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="32">
         <f>C14*C15</f>
         <v>3017</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="32">
         <f t="shared" ref="D16:N16" si="4">D14*D15</f>
         <v>30170</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="32">
         <f t="shared" si="4"/>
         <v>30170</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="32">
         <f t="shared" si="4"/>
         <v>30170</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="32">
         <f t="shared" si="4"/>
         <v>21119</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="32">
         <f t="shared" si="4"/>
         <v>27153</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="32">
         <f t="shared" si="4"/>
         <v>3017</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="32">
         <f t="shared" si="4"/>
         <v>30170</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="32">
         <f t="shared" si="4"/>
         <v>30170</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="32">
         <f t="shared" si="4"/>
         <v>30170</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="32">
         <f t="shared" si="4"/>
         <v>21119</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="32">
         <f t="shared" si="4"/>
         <v>27153</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="str">
+      <c r="A17" s="42" t="str">
         <f>'Uoc luong san pham ban ra'!$A$7</f>
         <v>bàn phím/chuột</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="31">
         <f>'Uoc luong san pham ban ra'!B7</f>
         <v>10</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="31">
         <f>'Uoc luong san pham ban ra'!C7</f>
         <v>30</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="31">
         <f>'Uoc luong san pham ban ra'!D7</f>
         <v>50</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="31">
         <f>'Uoc luong san pham ban ra'!E7</f>
         <v>45</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="31">
         <f>'Uoc luong san pham ban ra'!F7</f>
         <v>50</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="31">
         <f>'Uoc luong san pham ban ra'!G7</f>
         <v>56</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="31">
         <f>'Uoc luong san pham ban ra'!H7</f>
         <v>55</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="31">
         <f>'Uoc luong san pham ban ra'!I7</f>
         <v>56</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="31">
         <f>'Uoc luong san pham ban ra'!J7</f>
         <v>44</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="31">
         <f>'Uoc luong san pham ban ra'!K7</f>
         <v>45</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="31">
         <f>'Uoc luong san pham ban ra'!L7</f>
         <v>50</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="31">
         <f>'Uoc luong san pham ban ra'!M7</f>
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="11" t="s">
         <v>80</v>
       </c>
@@ -3643,118 +3643,118 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="32">
         <f>C17*C18</f>
         <v>4130</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="32">
         <f t="shared" ref="D19:N19" si="5">D17*D18</f>
         <v>12390</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="32">
         <f t="shared" si="5"/>
         <v>20650</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="32">
         <f t="shared" si="5"/>
         <v>18585</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="32">
         <f t="shared" si="5"/>
         <v>20650</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="32">
         <f t="shared" si="5"/>
         <v>23128</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="32">
         <f t="shared" si="5"/>
         <v>22715</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="32">
         <f t="shared" si="5"/>
         <v>23128</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="32">
         <f t="shared" si="5"/>
         <v>18172</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="32">
         <f t="shared" si="5"/>
         <v>18585</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="32">
         <f t="shared" si="5"/>
         <v>20650</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="32">
         <f t="shared" si="5"/>
         <v>17346</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="str">
+      <c r="A20" s="42" t="str">
         <f>'Uoc luong san pham ban ra'!$A$8</f>
         <v>Màn hình</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="31">
         <f>'Uoc luong san pham ban ra'!B8</f>
         <v>2</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="31">
         <f>'Uoc luong san pham ban ra'!C8</f>
         <v>6</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="31">
         <f>'Uoc luong san pham ban ra'!D8</f>
         <v>10</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="31">
         <f>'Uoc luong san pham ban ra'!E8</f>
         <v>9</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="31">
         <f>'Uoc luong san pham ban ra'!F8</f>
         <v>11</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="31">
         <f>'Uoc luong san pham ban ra'!G8</f>
         <v>12</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="31">
         <f>'Uoc luong san pham ban ra'!H8</f>
         <v>8</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="31">
         <f>'Uoc luong san pham ban ra'!I8</f>
         <v>10</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="31">
         <f>'Uoc luong san pham ban ra'!J8</f>
         <v>11</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="31">
         <f>'Uoc luong san pham ban ra'!K8</f>
         <v>9</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="31">
         <f>'Uoc luong san pham ban ra'!L8</f>
         <v>7</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="31">
         <f>'Uoc luong san pham ban ra'!M8</f>
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="11" t="s">
         <v>80</v>
       </c>
@@ -3808,61 +3808,61 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="32">
         <f>C20*C21</f>
         <v>7036</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="32">
         <f t="shared" ref="D22:N22" si="6">D20*D21</f>
         <v>21108</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="32">
         <f t="shared" si="6"/>
         <v>35180</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="32">
         <f t="shared" si="6"/>
         <v>31662</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="32">
         <f t="shared" si="6"/>
         <v>38698</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="32">
         <f t="shared" si="6"/>
         <v>42216</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="32">
         <f t="shared" si="6"/>
         <v>28144</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="32">
         <f t="shared" si="6"/>
         <v>35180</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="32">
         <f t="shared" si="6"/>
         <v>38698</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="32">
         <f t="shared" si="6"/>
         <v>31662</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="32">
         <f t="shared" si="6"/>
         <v>24626</v>
       </c>
-      <c r="N22" s="39">
+      <c r="N22" s="32">
         <f t="shared" si="6"/>
         <v>17590</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="str">
+      <c r="A23" s="42" t="str">
         <f>'Uoc luong san pham ban ra'!$A$9</f>
         <v>USB</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="11" t="s">
         <v>80</v>
       </c>
@@ -3961,118 +3961,118 @@
       </c>
     </row>
     <row r="25" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="32">
         <f>C23*C24</f>
         <v>1932</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="32">
         <f t="shared" ref="D25:N25" si="7">D23*D24</f>
         <v>6072</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="32">
         <f t="shared" si="7"/>
         <v>8280</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="32">
         <f t="shared" si="7"/>
         <v>6624</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="32">
         <f t="shared" si="7"/>
         <v>8556</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="32">
         <f t="shared" si="7"/>
         <v>9660</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="32">
         <f t="shared" si="7"/>
         <v>1932</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="32">
         <f t="shared" si="7"/>
         <v>6072</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="32">
         <f t="shared" si="7"/>
         <v>8280</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="32">
         <f t="shared" si="7"/>
         <v>6624</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="32">
         <f t="shared" si="7"/>
         <v>8556</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="32">
         <f t="shared" si="7"/>
         <v>9660</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="str">
+      <c r="A26" s="42" t="str">
         <f>'Uoc luong san pham ban ra'!$A$10</f>
         <v>Mainboard</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="31">
         <f>'Uoc luong san pham ban ra'!B10</f>
         <v>1</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="31">
         <f>'Uoc luong san pham ban ra'!C10</f>
         <v>5</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="31">
         <f>'Uoc luong san pham ban ra'!D10</f>
         <v>5</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="31">
         <f>'Uoc luong san pham ban ra'!E10</f>
         <v>5</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="31">
         <f>'Uoc luong san pham ban ra'!F10</f>
         <v>6</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="31">
         <f>'Uoc luong san pham ban ra'!G10</f>
         <v>9</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="31">
         <f>'Uoc luong san pham ban ra'!H10</f>
         <v>6</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="31">
         <f>'Uoc luong san pham ban ra'!I10</f>
         <v>8</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="31">
         <f>'Uoc luong san pham ban ra'!J10</f>
         <v>8</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="31">
         <f>'Uoc luong san pham ban ra'!K10</f>
         <v>7</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="31">
         <f>'Uoc luong san pham ban ra'!L10</f>
         <v>6</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="31">
         <f>'Uoc luong san pham ban ra'!M10</f>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="11" t="s">
         <v>80</v>
       </c>
@@ -4126,118 +4126,118 @@
       </c>
     </row>
     <row r="28" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="32">
         <f>C26*C27</f>
         <v>3214</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="32">
         <f t="shared" ref="D28:N28" si="8">D26*D27</f>
         <v>16070</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="32">
         <f t="shared" si="8"/>
         <v>16070</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="32">
         <f t="shared" si="8"/>
         <v>16070</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="32">
         <f t="shared" si="8"/>
         <v>19284</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="32">
         <f t="shared" si="8"/>
         <v>28926</v>
       </c>
-      <c r="I28" s="39">
+      <c r="I28" s="32">
         <f t="shared" si="8"/>
         <v>19284</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="32">
         <f t="shared" si="8"/>
         <v>25712</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="32">
         <f t="shared" si="8"/>
         <v>25712</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="32">
         <f t="shared" si="8"/>
         <v>22498</v>
       </c>
-      <c r="M28" s="39">
+      <c r="M28" s="32">
         <f t="shared" si="8"/>
         <v>19284</v>
       </c>
-      <c r="N28" s="39">
+      <c r="N28" s="32">
         <f t="shared" si="8"/>
         <v>12856</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="str">
+      <c r="A29" s="42" t="str">
         <f>'Uoc luong san pham ban ra'!$A$11</f>
         <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
       </c>
       <c r="B29" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="31">
         <f>'Uoc luong san pham ban ra'!B11</f>
         <v>10</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="31">
         <f>'Uoc luong san pham ban ra'!C11</f>
         <v>19</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="31">
         <f>'Uoc luong san pham ban ra'!D11</f>
         <v>20</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="31">
         <f>'Uoc luong san pham ban ra'!E11</f>
         <v>17</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="31">
         <f>'Uoc luong san pham ban ra'!F11</f>
         <v>18</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="31">
         <f>'Uoc luong san pham ban ra'!G11</f>
         <v>19</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="31">
         <f>'Uoc luong san pham ban ra'!H11</f>
         <v>17</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="31">
         <f>'Uoc luong san pham ban ra'!I11</f>
         <v>19</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="31">
         <f>'Uoc luong san pham ban ra'!J11</f>
         <v>16</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="31">
         <f>'Uoc luong san pham ban ra'!K11</f>
         <v>20</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="31">
         <f>'Uoc luong san pham ban ra'!L11</f>
         <v>18</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="31">
         <f>'Uoc luong san pham ban ra'!M11</f>
         <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="11" t="s">
         <v>80</v>
       </c>
@@ -4291,108 +4291,108 @@
       </c>
     </row>
     <row r="31" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="32">
         <f>C29*C30</f>
         <v>28840</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="32">
         <f t="shared" ref="D31:N31" si="9">D29*D30</f>
         <v>54796</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="32">
         <f t="shared" si="9"/>
         <v>57680</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="32">
         <f t="shared" si="9"/>
         <v>49028</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="32">
         <f t="shared" si="9"/>
         <v>51912</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="32">
         <f t="shared" si="9"/>
         <v>54796</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="32">
         <f t="shared" si="9"/>
         <v>49028</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="32">
         <f t="shared" si="9"/>
         <v>54796</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="32">
         <f t="shared" si="9"/>
         <v>46144</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="32">
         <f t="shared" si="9"/>
         <v>57680</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="32">
         <f t="shared" si="9"/>
         <v>51912</v>
       </c>
-      <c r="N31" s="39">
+      <c r="N31" s="32">
         <f t="shared" si="9"/>
         <v>40376</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C32" s="37">
         <f>SUM(C4,C7,C10,C13,C16,C19,C22,C25,C28,C31)</f>
         <v>74283</v>
       </c>
-      <c r="D32" s="44">
+      <c r="D32" s="37">
         <f t="shared" ref="D32:N32" si="10">SUM(D4,D7,D10,D13,D16,D19,D22,D25,D28,D31)</f>
         <v>233669</v>
       </c>
-      <c r="E32" s="44">
+      <c r="E32" s="37">
         <f t="shared" si="10"/>
         <v>264816</v>
       </c>
-      <c r="F32" s="44">
+      <c r="F32" s="37">
         <f t="shared" si="10"/>
         <v>271913</v>
       </c>
-      <c r="G32" s="44">
+      <c r="G32" s="37">
         <f t="shared" si="10"/>
         <v>281401</v>
       </c>
-      <c r="H32" s="44">
+      <c r="H32" s="37">
         <f t="shared" si="10"/>
         <v>301078</v>
       </c>
-      <c r="I32" s="44">
+      <c r="I32" s="37">
         <f t="shared" si="10"/>
         <v>196383</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="37">
         <f t="shared" si="10"/>
         <v>303629</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="37">
         <f t="shared" si="10"/>
         <v>301759</v>
       </c>
-      <c r="L32" s="44">
+      <c r="L32" s="37">
         <f t="shared" si="10"/>
         <v>330503</v>
       </c>
-      <c r="M32" s="44">
+      <c r="M32" s="37">
         <f t="shared" si="10"/>
         <v>229966</v>
       </c>
-      <c r="N32" s="44">
+      <c r="N32" s="37">
         <f t="shared" si="10"/>
         <v>222604</v>
       </c>

--- a/Ke hoach ban hang.xlsx
+++ b/Ke hoach ban hang.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>Tháng 1</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Tổng doanh thu bán hàng theo tháng</t>
+  </si>
+  <si>
+    <t>Tổng Tiền nhập sản phẩm theo từng tháng</t>
+  </si>
+  <si>
+    <t>Tính tiền nhập sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -595,13 +601,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -666,6 +681,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -978,7 +997,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,15 +1218,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -1217,7 +1236,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1270,7 +1289,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="2">
@@ -1326,7 +1345,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="2">
@@ -1382,7 +1401,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="2">
@@ -1438,7 +1457,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
@@ -1494,7 +1513,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2">
@@ -1550,7 +1569,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2">
@@ -1606,7 +1625,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="2">
@@ -1662,7 +1681,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2">
@@ -1718,7 +1737,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
@@ -1774,7 +1793,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="2">
@@ -1838,7 +1857,676 @@
         <v>192200</v>
       </c>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+    </row>
+    <row r="14" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="str">
+        <f t="shared" ref="A14:M14" si="3">A1</f>
+        <v>Sản phẩm</v>
+      </c>
+      <c r="B14" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 1</v>
+      </c>
+      <c r="C14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 2</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 3</v>
+      </c>
+      <c r="E14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 4</v>
+      </c>
+      <c r="F14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 5</v>
+      </c>
+      <c r="G14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 6</v>
+      </c>
+      <c r="H14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 7</v>
+      </c>
+      <c r="I14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 8</v>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 9</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 10</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 11</v>
+      </c>
+      <c r="M14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Tháng 12</v>
+      </c>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="str">
+        <f t="shared" ref="A15:M15" si="4">A2</f>
+        <v>Dịch vụ Sửa PC</v>
+      </c>
+      <c r="B15" s="18">
+        <f>B2*$P2</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <f t="shared" ref="C15:M15" si="5">C2*$P2</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="str">
+        <f t="shared" ref="A16:M16" si="6">A3</f>
+        <v>Dịch vụ Sửa Laptop</v>
+      </c>
+      <c r="B16" s="18">
+        <f>B3*$P3</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <f t="shared" ref="C16:M16" si="7">C3*$P3</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="str">
+        <f t="shared" ref="A17:M17" si="8">A4</f>
+        <v>PC (bán)</v>
+      </c>
+      <c r="B17" s="18">
+        <f>B4*$P4</f>
+        <v>16000</v>
+      </c>
+      <c r="C17" s="18">
+        <f t="shared" ref="C17:M17" si="9">C4*$P4</f>
+        <v>64000</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="9"/>
+        <v>56000</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" si="9"/>
+        <v>80000</v>
+      </c>
+      <c r="F17" s="18">
+        <f t="shared" si="9"/>
+        <v>80000</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="9"/>
+        <v>72000</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="9"/>
+        <v>40000</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" si="9"/>
+        <v>88000</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="9"/>
+        <v>96000</v>
+      </c>
+      <c r="K17" s="18">
+        <f t="shared" si="9"/>
+        <v>120000</v>
+      </c>
+      <c r="L17" s="18">
+        <f t="shared" si="9"/>
+        <v>56000</v>
+      </c>
+      <c r="M17" s="18">
+        <f t="shared" si="9"/>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="str">
+        <f t="shared" ref="A18:M18" si="10">A5</f>
+        <v>Ram</v>
+      </c>
+      <c r="B18" s="18">
+        <f>B5*$P5</f>
+        <v>4500</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" ref="C18:M18" si="11">C5*$P5</f>
+        <v>13500</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="11"/>
+        <v>18000</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" si="11"/>
+        <v>15300</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="11"/>
+        <v>18000</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="11"/>
+        <v>19800</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="11"/>
+        <v>14400</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" si="11"/>
+        <v>16200</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="11"/>
+        <v>13500</v>
+      </c>
+      <c r="K18" s="18">
+        <f t="shared" si="11"/>
+        <v>15300</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="11"/>
+        <v>9000</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" si="11"/>
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="str">
+        <f t="shared" ref="A19:M19" si="12">A6</f>
+        <v>Ổ cứng</v>
+      </c>
+      <c r="B19" s="18">
+        <f>B6*$P6</f>
+        <v>2500</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" ref="C19:M19" si="13">C6*$P6</f>
+        <v>25000</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="13"/>
+        <v>25000</v>
+      </c>
+      <c r="E19" s="18">
+        <f t="shared" si="13"/>
+        <v>25000</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="13"/>
+        <v>17500</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="13"/>
+        <v>22500</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="13"/>
+        <v>2500</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="13"/>
+        <v>25000</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="13"/>
+        <v>25000</v>
+      </c>
+      <c r="K19" s="18">
+        <f t="shared" si="13"/>
+        <v>25000</v>
+      </c>
+      <c r="L19" s="18">
+        <f t="shared" si="13"/>
+        <v>17500</v>
+      </c>
+      <c r="M19" s="18">
+        <f t="shared" si="13"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="str">
+        <f t="shared" ref="A20:M20" si="14">A7</f>
+        <v>bàn phím/chuột</v>
+      </c>
+      <c r="B20" s="18">
+        <f>B7*$P7</f>
+        <v>3000</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" ref="C20:M20" si="15">C7*$P7</f>
+        <v>9000</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" si="15"/>
+        <v>15000</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" si="15"/>
+        <v>13500</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" si="15"/>
+        <v>15000</v>
+      </c>
+      <c r="G20" s="18">
+        <f t="shared" si="15"/>
+        <v>16800</v>
+      </c>
+      <c r="H20" s="18">
+        <f t="shared" si="15"/>
+        <v>16500</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" si="15"/>
+        <v>16800</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="15"/>
+        <v>13200</v>
+      </c>
+      <c r="K20" s="18">
+        <f t="shared" si="15"/>
+        <v>13500</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" si="15"/>
+        <v>15000</v>
+      </c>
+      <c r="M20" s="18">
+        <f t="shared" si="15"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="str">
+        <f t="shared" ref="A21:M21" si="16">A8</f>
+        <v>Màn hình</v>
+      </c>
+      <c r="B21" s="18">
+        <f>B8*$P8</f>
+        <v>6000</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" ref="C21:M21" si="17">C8*$P8</f>
+        <v>18000</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" si="17"/>
+        <v>30000</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" si="17"/>
+        <v>27000</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="17"/>
+        <v>33000</v>
+      </c>
+      <c r="G21" s="18">
+        <f t="shared" si="17"/>
+        <v>36000</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" si="17"/>
+        <v>24000</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="17"/>
+        <v>30000</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="17"/>
+        <v>33000</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" si="17"/>
+        <v>27000</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="17"/>
+        <v>21000</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" si="17"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="str">
+        <f t="shared" ref="A22:M22" si="18">A9</f>
+        <v>USB</v>
+      </c>
+      <c r="B22" s="18">
+        <f>B9*$P9</f>
+        <v>1400</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" ref="C22:M22" si="19">C9*$P9</f>
+        <v>4400</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" si="19"/>
+        <v>6000</v>
+      </c>
+      <c r="E22" s="18">
+        <f t="shared" si="19"/>
+        <v>4800</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" si="19"/>
+        <v>6200</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="19"/>
+        <v>7000</v>
+      </c>
+      <c r="H22" s="18">
+        <f t="shared" si="19"/>
+        <v>5600</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" si="19"/>
+        <v>5000</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="19"/>
+        <v>6000</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="19"/>
+        <v>6600</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="19"/>
+        <v>6200</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="19"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="str">
+        <f t="shared" ref="A23:M23" si="20">A10</f>
+        <v>Mainboard</v>
+      </c>
+      <c r="B23" s="18">
+        <f>B10*$P10</f>
+        <v>2500</v>
+      </c>
+      <c r="C23" s="18">
+        <f t="shared" ref="C23:M23" si="21">C10*$P10</f>
+        <v>12500</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" si="21"/>
+        <v>12500</v>
+      </c>
+      <c r="E23" s="18">
+        <f t="shared" si="21"/>
+        <v>12500</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="21"/>
+        <v>15000</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="21"/>
+        <v>22500</v>
+      </c>
+      <c r="H23" s="18">
+        <f t="shared" si="21"/>
+        <v>15000</v>
+      </c>
+      <c r="I23" s="18">
+        <f t="shared" si="21"/>
+        <v>20000</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="21"/>
+        <v>20000</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="21"/>
+        <v>17500</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" si="21"/>
+        <v>15000</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="21"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="str">
+        <f t="shared" ref="A24:M24" si="22">A11</f>
+        <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
+      </c>
+      <c r="B24" s="18">
+        <f>B11*$P11</f>
+        <v>25000</v>
+      </c>
+      <c r="C24" s="18">
+        <f t="shared" ref="C24:M24" si="23">C11*$P11</f>
+        <v>47500</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" si="23"/>
+        <v>50000</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" si="23"/>
+        <v>42500</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" si="23"/>
+        <v>45000</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="23"/>
+        <v>47500</v>
+      </c>
+      <c r="H24" s="18">
+        <f t="shared" si="23"/>
+        <v>42500</v>
+      </c>
+      <c r="I24" s="18">
+        <f t="shared" si="23"/>
+        <v>47500</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="23"/>
+        <v>40000</v>
+      </c>
+      <c r="K24" s="18">
+        <f t="shared" si="23"/>
+        <v>50000</v>
+      </c>
+      <c r="L24" s="18">
+        <f t="shared" si="23"/>
+        <v>45000</v>
+      </c>
+      <c r="M24" s="18">
+        <f t="shared" si="23"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="20">
+        <f>SUM(B15:B24)</f>
+        <v>60900</v>
+      </c>
+      <c r="C25" s="20">
+        <f t="shared" ref="C25:M25" si="24">SUM(C15:C24)</f>
+        <v>193900</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" si="24"/>
+        <v>212500</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="24"/>
+        <v>220600</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="24"/>
+        <v>229700</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="24"/>
+        <v>244100</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="24"/>
+        <v>160500</v>
+      </c>
+      <c r="I25" s="20">
+        <f t="shared" si="24"/>
+        <v>248500</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="24"/>
+        <v>246700</v>
+      </c>
+      <c r="K25" s="20">
+        <f t="shared" si="24"/>
+        <v>274900</v>
+      </c>
+      <c r="L25" s="20">
+        <f t="shared" si="24"/>
+        <v>184700</v>
+      </c>
+      <c r="M25" s="20">
+        <f t="shared" si="24"/>
+        <v>173200</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:M13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2090,7 +2778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -2651,7 +3339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>

--- a/Ke hoach ban hang.xlsx
+++ b/Ke hoach ban hang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Von ban dau" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Von dau tu &amp; von luu dong" sheetId="3" r:id="rId3"/>
     <sheet name="Chi phi &amp; Gia thanh" sheetId="4" r:id="rId4"/>
     <sheet name="Doanh Thu" sheetId="6" r:id="rId5"/>
+    <sheet name="Kế hoạch doanh thu và chi phí" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="107">
   <si>
     <t>Tháng 1</t>
   </si>
@@ -330,12 +331,21 @@
   </si>
   <si>
     <t>Tính tiền nhập sản phẩm</t>
+  </si>
+  <si>
+    <t>Chi phí hoạt động</t>
+  </si>
+  <si>
+    <t>Khấu hao</t>
+  </si>
+  <si>
+    <t>Lợi nhuận trước thuế</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -601,33 +611,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -636,18 +633,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -661,17 +652,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -682,9 +665,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -997,7 +1007,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,200 +1018,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="46">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="48">
         <f>75000*4</f>
         <v>300000</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="46">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="48">
         <f>2700*1*2</f>
         <v>5400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="48">
         <f>C3+C4</f>
         <v>305400</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="43">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="45">
         <f>1500*2</f>
         <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="43">
         <v>2</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="45">
         <f>2000*4*2</f>
         <v>16000</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="43">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="45">
         <f>210*2</f>
         <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="43">
         <v>4</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="45">
         <f>700*2</f>
         <v>1400</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="43">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="45">
         <f>50*10</f>
         <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="43">
         <v>6</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="45">
         <f>1054 * 3</f>
         <v>3162</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="43">
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="45">
         <f>250*1</f>
         <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="43">
         <v>8</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="45">
         <f>3000</f>
         <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="43">
         <v>9</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="45">
         <f>150</f>
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="43">
         <v>10</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="45">
         <f>100000</f>
         <v>100000</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="45">
         <f>SUM(C7:C16)</f>
         <v>127882</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="25">
+      <c r="B18" s="33"/>
+      <c r="C18" s="19">
         <f>C5-C17</f>
         <v>177518</v>
       </c>
@@ -1220,1306 +1230,1306 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="52" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>20</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>40</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>41</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>37</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>45</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>45</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>40</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>42</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>39</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>45</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>50</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <f>_xlfn.FLOOR.MATH(AVERAGE(B2:M2))</f>
         <v>37</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <f t="shared" ref="O2:O11" si="0">N2*12</f>
         <v>444</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>0</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="5">
         <f>N2*P2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>16</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>55</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>50</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>37</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>35</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>33</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>40</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <v>42</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>41</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>37</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>44</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <f t="shared" ref="N3:N11" si="1">_xlfn.FLOOR.MATH(AVERAGE(B3:M3))</f>
         <v>36</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <v>0</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <f t="shared" ref="Q3:Q11" si="2">N3*P3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>7</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>10</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>9</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>11</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>12</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>15</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>7</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>8</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <v>8000</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <f t="shared" si="2"/>
         <v>64000</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>15</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>17</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>22</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>16</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>18</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <v>15</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>17</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>10</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>13</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="5">
         <v>900</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="5">
         <f t="shared" si="2"/>
         <v>13500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>7</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>9</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>10</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>10</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>7</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>9</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <v>2500</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <f t="shared" si="2"/>
         <v>17500</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>30</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>50</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>45</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>50</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>56</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>55</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>56</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>44</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>45</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>50</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>42</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <f t="shared" si="0"/>
         <v>528</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <v>300</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <f t="shared" si="2"/>
         <v>13200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>9</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>11</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>12</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>8</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>10</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <v>11</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>9</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>7</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>5</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>3000</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <f t="shared" si="2"/>
         <v>24000</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>22</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>30</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>24</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>31</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>35</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>28</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>25</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <v>30</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>33</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>31</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>12</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>200</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>6</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>9</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>6</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <v>8</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>7</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>6</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <v>2500</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <f t="shared" si="2"/>
         <v>12500</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>19</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>20</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>17</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>18</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>19</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>17</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>19</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <v>16</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>20</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>18</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>14</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <v>2500</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <f t="shared" si="2"/>
         <v>42500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="P12" s="4" t="s">
+      <c r="P12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <f>SUM(Q2:Q11)</f>
         <v>192200</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-    </row>
-    <row r="14" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="str">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="str">
         <f t="shared" ref="A14:M14" si="3">A1</f>
         <v>Sản phẩm</v>
       </c>
-      <c r="B14" s="17" t="str">
+      <c r="B14" s="14" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 1</v>
       </c>
-      <c r="C14" s="12" t="str">
+      <c r="C14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 2</v>
       </c>
-      <c r="D14" s="12" t="str">
+      <c r="D14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 3</v>
       </c>
-      <c r="E14" s="12" t="str">
+      <c r="E14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 4</v>
       </c>
-      <c r="F14" s="12" t="str">
+      <c r="F14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 5</v>
       </c>
-      <c r="G14" s="12" t="str">
+      <c r="G14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 6</v>
       </c>
-      <c r="H14" s="12" t="str">
+      <c r="H14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 7</v>
       </c>
-      <c r="I14" s="12" t="str">
+      <c r="I14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 8</v>
       </c>
-      <c r="J14" s="12" t="str">
+      <c r="J14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 9</v>
       </c>
-      <c r="K14" s="12" t="str">
+      <c r="K14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 10</v>
       </c>
-      <c r="L14" s="12" t="str">
+      <c r="L14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 11</v>
       </c>
-      <c r="M14" s="12" t="str">
+      <c r="M14" s="10" t="str">
         <f t="shared" si="3"/>
         <v>Tháng 12</v>
       </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="str">
-        <f t="shared" ref="A15:M15" si="4">A2</f>
+      <c r="A15" s="10" t="str">
+        <f t="shared" ref="A15" si="4">A2</f>
         <v>Dịch vụ Sửa PC</v>
       </c>
-      <c r="B15" s="18">
-        <f>B2*$P2</f>
+      <c r="B15" s="15">
+        <f t="shared" ref="B15:B24" si="5">B2*$P2</f>
         <v>0</v>
       </c>
-      <c r="C15" s="18">
-        <f t="shared" ref="C15:M15" si="5">C2*$P2</f>
+      <c r="C15" s="15">
+        <f t="shared" ref="C15:M15" si="6">C2*$P2</f>
         <v>0</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="str">
+        <f t="shared" ref="A16" si="7">A3</f>
+        <v>Dịch vụ Sửa Laptop</v>
+      </c>
+      <c r="B16" s="15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E15" s="18">
+      <c r="C16" s="15">
+        <f t="shared" ref="C16:M16" si="8">C3*$P3</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="str">
+        <f t="shared" ref="A17" si="9">A4</f>
+        <v>PC (bán)</v>
+      </c>
+      <c r="B17" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
+        <v>16000</v>
+      </c>
+      <c r="C17" s="15">
+        <f t="shared" ref="C17:M17" si="10">C4*$P4</f>
+        <v>64000</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="10"/>
+        <v>56000</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="10"/>
+        <v>80000</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="10"/>
+        <v>80000</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="10"/>
+        <v>72000</v>
+      </c>
+      <c r="H17" s="15">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="10"/>
+        <v>88000</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="10"/>
+        <v>96000</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="10"/>
+        <v>120000</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="10"/>
+        <v>56000</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="10"/>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="str">
+        <f t="shared" ref="A18" si="11">A5</f>
+        <v>Ram</v>
+      </c>
+      <c r="B18" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="18">
+        <v>4500</v>
+      </c>
+      <c r="C18" s="15">
+        <f t="shared" ref="C18:M18" si="12">C5*$P5</f>
+        <v>13500</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="12"/>
+        <v>18000</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="12"/>
+        <v>15300</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="12"/>
+        <v>18000</v>
+      </c>
+      <c r="G18" s="15">
+        <f t="shared" si="12"/>
+        <v>19800</v>
+      </c>
+      <c r="H18" s="15">
+        <f t="shared" si="12"/>
+        <v>14400</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="12"/>
+        <v>16200</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="12"/>
+        <v>13500</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="12"/>
+        <v>15300</v>
+      </c>
+      <c r="L18" s="15">
+        <f t="shared" si="12"/>
+        <v>9000</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="12"/>
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="str">
+        <f t="shared" ref="A19" si="13">A6</f>
+        <v>Ổ cứng</v>
+      </c>
+      <c r="B19" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
+        <v>2500</v>
+      </c>
+      <c r="C19" s="15">
+        <f t="shared" ref="C19:M19" si="14">C6*$P6</f>
+        <v>25000</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="14"/>
+        <v>25000</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="14"/>
+        <v>25000</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="14"/>
+        <v>17500</v>
+      </c>
+      <c r="G19" s="15">
+        <f t="shared" si="14"/>
+        <v>22500</v>
+      </c>
+      <c r="H19" s="15">
+        <f t="shared" si="14"/>
+        <v>2500</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="14"/>
+        <v>25000</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="14"/>
+        <v>25000</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="14"/>
+        <v>25000</v>
+      </c>
+      <c r="L19" s="15">
+        <f t="shared" si="14"/>
+        <v>17500</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" si="14"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="str">
+        <f t="shared" ref="A20" si="15">A7</f>
+        <v>bàn phím/chuột</v>
+      </c>
+      <c r="B20" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="18">
+        <v>3000</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" ref="C20:M20" si="16">C7*$P7</f>
+        <v>9000</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="16"/>
+        <v>15000</v>
+      </c>
+      <c r="E20" s="15">
+        <f t="shared" si="16"/>
+        <v>13500</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="16"/>
+        <v>15000</v>
+      </c>
+      <c r="G20" s="15">
+        <f t="shared" si="16"/>
+        <v>16800</v>
+      </c>
+      <c r="H20" s="15">
+        <f t="shared" si="16"/>
+        <v>16500</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="16"/>
+        <v>16800</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="16"/>
+        <v>13200</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="16"/>
+        <v>13500</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="16"/>
+        <v>15000</v>
+      </c>
+      <c r="M20" s="15">
+        <f t="shared" si="16"/>
+        <v>12600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="str">
+        <f t="shared" ref="A21" si="17">A8</f>
+        <v>Màn hình</v>
+      </c>
+      <c r="B21" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="18">
+        <v>6000</v>
+      </c>
+      <c r="C21" s="15">
+        <f t="shared" ref="C21:M21" si="18">C8*$P8</f>
+        <v>18000</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="18"/>
+        <v>30000</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" si="18"/>
+        <v>27000</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="18"/>
+        <v>33000</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="18"/>
+        <v>36000</v>
+      </c>
+      <c r="H21" s="15">
+        <f t="shared" si="18"/>
+        <v>24000</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="18"/>
+        <v>30000</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="18"/>
+        <v>33000</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="18"/>
+        <v>27000</v>
+      </c>
+      <c r="L21" s="15">
+        <f t="shared" si="18"/>
+        <v>21000</v>
+      </c>
+      <c r="M21" s="15">
+        <f t="shared" si="18"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="str">
+        <f t="shared" ref="A22" si="19">A9</f>
+        <v>USB</v>
+      </c>
+      <c r="B22" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="18">
+        <v>1400</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" ref="C22:M22" si="20">C9*$P9</f>
+        <v>4400</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="20"/>
+        <v>6000</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="20"/>
+        <v>4800</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="20"/>
+        <v>6200</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="20"/>
+        <v>7000</v>
+      </c>
+      <c r="H22" s="15">
+        <f t="shared" si="20"/>
+        <v>5600</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="20"/>
+        <v>5000</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="20"/>
+        <v>6000</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="20"/>
+        <v>6600</v>
+      </c>
+      <c r="L22" s="15">
+        <f t="shared" si="20"/>
+        <v>6200</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="20"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="str">
+        <f t="shared" ref="A23" si="21">A10</f>
+        <v>Mainboard</v>
+      </c>
+      <c r="B23" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="18">
+        <v>2500</v>
+      </c>
+      <c r="C23" s="15">
+        <f t="shared" ref="C23:M23" si="22">C10*$P10</f>
+        <v>12500</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="22"/>
+        <v>12500</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="22"/>
+        <v>12500</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="22"/>
+        <v>15000</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="22"/>
+        <v>22500</v>
+      </c>
+      <c r="H23" s="15">
+        <f t="shared" si="22"/>
+        <v>15000</v>
+      </c>
+      <c r="I23" s="15">
+        <f t="shared" si="22"/>
+        <v>20000</v>
+      </c>
+      <c r="J23" s="15">
+        <f t="shared" si="22"/>
+        <v>20000</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="22"/>
+        <v>17500</v>
+      </c>
+      <c r="L23" s="15">
+        <f t="shared" si="22"/>
+        <v>15000</v>
+      </c>
+      <c r="M23" s="15">
+        <f t="shared" si="22"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="str">
+        <f t="shared" ref="A24" si="23">A11</f>
+        <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
+      </c>
+      <c r="B24" s="15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="str">
-        <f t="shared" ref="A16:M16" si="6">A3</f>
-        <v>Dịch vụ Sửa Laptop</v>
-      </c>
-      <c r="B16" s="18">
-        <f>B3*$P3</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="18">
-        <f t="shared" ref="C16:M16" si="7">C3*$P3</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="str">
-        <f t="shared" ref="A17:M17" si="8">A4</f>
-        <v>PC (bán)</v>
-      </c>
-      <c r="B17" s="18">
-        <f>B4*$P4</f>
-        <v>16000</v>
-      </c>
-      <c r="C17" s="18">
-        <f t="shared" ref="C17:M17" si="9">C4*$P4</f>
-        <v>64000</v>
-      </c>
-      <c r="D17" s="18">
-        <f t="shared" si="9"/>
-        <v>56000</v>
-      </c>
-      <c r="E17" s="18">
-        <f t="shared" si="9"/>
-        <v>80000</v>
-      </c>
-      <c r="F17" s="18">
-        <f t="shared" si="9"/>
-        <v>80000</v>
-      </c>
-      <c r="G17" s="18">
-        <f t="shared" si="9"/>
-        <v>72000</v>
-      </c>
-      <c r="H17" s="18">
-        <f t="shared" si="9"/>
+        <v>25000</v>
+      </c>
+      <c r="C24" s="15">
+        <f t="shared" ref="C24:M24" si="24">C11*$P11</f>
+        <v>47500</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="24"/>
+        <v>50000</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="24"/>
+        <v>42500</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="24"/>
+        <v>45000</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="24"/>
+        <v>47500</v>
+      </c>
+      <c r="H24" s="15">
+        <f t="shared" si="24"/>
+        <v>42500</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="24"/>
+        <v>47500</v>
+      </c>
+      <c r="J24" s="15">
+        <f t="shared" si="24"/>
         <v>40000</v>
       </c>
-      <c r="I17" s="18">
-        <f t="shared" si="9"/>
-        <v>88000</v>
-      </c>
-      <c r="J17" s="18">
-        <f t="shared" si="9"/>
-        <v>96000</v>
-      </c>
-      <c r="K17" s="18">
-        <f t="shared" si="9"/>
-        <v>120000</v>
-      </c>
-      <c r="L17" s="18">
-        <f t="shared" si="9"/>
-        <v>56000</v>
-      </c>
-      <c r="M17" s="18">
-        <f t="shared" si="9"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="str">
-        <f t="shared" ref="A18:M18" si="10">A5</f>
-        <v>Ram</v>
-      </c>
-      <c r="B18" s="18">
-        <f>B5*$P5</f>
-        <v>4500</v>
-      </c>
-      <c r="C18" s="18">
-        <f t="shared" ref="C18:M18" si="11">C5*$P5</f>
-        <v>13500</v>
-      </c>
-      <c r="D18" s="18">
-        <f t="shared" si="11"/>
-        <v>18000</v>
-      </c>
-      <c r="E18" s="18">
-        <f t="shared" si="11"/>
-        <v>15300</v>
-      </c>
-      <c r="F18" s="18">
-        <f t="shared" si="11"/>
-        <v>18000</v>
-      </c>
-      <c r="G18" s="18">
-        <f t="shared" si="11"/>
-        <v>19800</v>
-      </c>
-      <c r="H18" s="18">
-        <f t="shared" si="11"/>
-        <v>14400</v>
-      </c>
-      <c r="I18" s="18">
-        <f t="shared" si="11"/>
-        <v>16200</v>
-      </c>
-      <c r="J18" s="18">
-        <f t="shared" si="11"/>
-        <v>13500</v>
-      </c>
-      <c r="K18" s="18">
-        <f t="shared" si="11"/>
-        <v>15300</v>
-      </c>
-      <c r="L18" s="18">
-        <f t="shared" si="11"/>
-        <v>9000</v>
-      </c>
-      <c r="M18" s="18">
-        <f t="shared" si="11"/>
-        <v>11700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="str">
-        <f t="shared" ref="A19:M19" si="12">A6</f>
-        <v>Ổ cứng</v>
-      </c>
-      <c r="B19" s="18">
-        <f>B6*$P6</f>
-        <v>2500</v>
-      </c>
-      <c r="C19" s="18">
-        <f t="shared" ref="C19:M19" si="13">C6*$P6</f>
-        <v>25000</v>
-      </c>
-      <c r="D19" s="18">
-        <f t="shared" si="13"/>
-        <v>25000</v>
-      </c>
-      <c r="E19" s="18">
-        <f t="shared" si="13"/>
-        <v>25000</v>
-      </c>
-      <c r="F19" s="18">
-        <f t="shared" si="13"/>
-        <v>17500</v>
-      </c>
-      <c r="G19" s="18">
-        <f t="shared" si="13"/>
-        <v>22500</v>
-      </c>
-      <c r="H19" s="18">
-        <f t="shared" si="13"/>
-        <v>2500</v>
-      </c>
-      <c r="I19" s="18">
-        <f t="shared" si="13"/>
-        <v>25000</v>
-      </c>
-      <c r="J19" s="18">
-        <f t="shared" si="13"/>
-        <v>25000</v>
-      </c>
-      <c r="K19" s="18">
-        <f t="shared" si="13"/>
-        <v>25000</v>
-      </c>
-      <c r="L19" s="18">
-        <f t="shared" si="13"/>
-        <v>17500</v>
-      </c>
-      <c r="M19" s="18">
-        <f t="shared" si="13"/>
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="str">
-        <f t="shared" ref="A20:M20" si="14">A7</f>
-        <v>bàn phím/chuột</v>
-      </c>
-      <c r="B20" s="18">
-        <f>B7*$P7</f>
-        <v>3000</v>
-      </c>
-      <c r="C20" s="18">
-        <f t="shared" ref="C20:M20" si="15">C7*$P7</f>
-        <v>9000</v>
-      </c>
-      <c r="D20" s="18">
-        <f t="shared" si="15"/>
-        <v>15000</v>
-      </c>
-      <c r="E20" s="18">
-        <f t="shared" si="15"/>
-        <v>13500</v>
-      </c>
-      <c r="F20" s="18">
-        <f t="shared" si="15"/>
-        <v>15000</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" si="15"/>
-        <v>16800</v>
-      </c>
-      <c r="H20" s="18">
-        <f t="shared" si="15"/>
-        <v>16500</v>
-      </c>
-      <c r="I20" s="18">
-        <f t="shared" si="15"/>
-        <v>16800</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="15"/>
-        <v>13200</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="15"/>
-        <v>13500</v>
-      </c>
-      <c r="L20" s="18">
-        <f t="shared" si="15"/>
-        <v>15000</v>
-      </c>
-      <c r="M20" s="18">
-        <f t="shared" si="15"/>
-        <v>12600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="str">
-        <f t="shared" ref="A21:M21" si="16">A8</f>
-        <v>Màn hình</v>
-      </c>
-      <c r="B21" s="18">
-        <f>B8*$P8</f>
-        <v>6000</v>
-      </c>
-      <c r="C21" s="18">
-        <f t="shared" ref="C21:M21" si="17">C8*$P8</f>
-        <v>18000</v>
-      </c>
-      <c r="D21" s="18">
-        <f t="shared" si="17"/>
-        <v>30000</v>
-      </c>
-      <c r="E21" s="18">
-        <f t="shared" si="17"/>
-        <v>27000</v>
-      </c>
-      <c r="F21" s="18">
-        <f t="shared" si="17"/>
-        <v>33000</v>
-      </c>
-      <c r="G21" s="18">
-        <f t="shared" si="17"/>
-        <v>36000</v>
-      </c>
-      <c r="H21" s="18">
-        <f t="shared" si="17"/>
-        <v>24000</v>
-      </c>
-      <c r="I21" s="18">
-        <f t="shared" si="17"/>
-        <v>30000</v>
-      </c>
-      <c r="J21" s="18">
-        <f t="shared" si="17"/>
-        <v>33000</v>
-      </c>
-      <c r="K21" s="18">
-        <f t="shared" si="17"/>
-        <v>27000</v>
-      </c>
-      <c r="L21" s="18">
-        <f t="shared" si="17"/>
-        <v>21000</v>
-      </c>
-      <c r="M21" s="18">
-        <f t="shared" si="17"/>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="str">
-        <f t="shared" ref="A22:M22" si="18">A9</f>
-        <v>USB</v>
-      </c>
-      <c r="B22" s="18">
-        <f>B9*$P9</f>
-        <v>1400</v>
-      </c>
-      <c r="C22" s="18">
-        <f t="shared" ref="C22:M22" si="19">C9*$P9</f>
-        <v>4400</v>
-      </c>
-      <c r="D22" s="18">
-        <f t="shared" si="19"/>
-        <v>6000</v>
-      </c>
-      <c r="E22" s="18">
-        <f t="shared" si="19"/>
-        <v>4800</v>
-      </c>
-      <c r="F22" s="18">
-        <f t="shared" si="19"/>
-        <v>6200</v>
-      </c>
-      <c r="G22" s="18">
-        <f t="shared" si="19"/>
-        <v>7000</v>
-      </c>
-      <c r="H22" s="18">
-        <f t="shared" si="19"/>
-        <v>5600</v>
-      </c>
-      <c r="I22" s="18">
-        <f t="shared" si="19"/>
-        <v>5000</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="19"/>
-        <v>6000</v>
-      </c>
-      <c r="K22" s="18">
-        <f t="shared" si="19"/>
-        <v>6600</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" si="19"/>
-        <v>6200</v>
-      </c>
-      <c r="M22" s="18">
-        <f t="shared" si="19"/>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="str">
-        <f t="shared" ref="A23:M23" si="20">A10</f>
-        <v>Mainboard</v>
-      </c>
-      <c r="B23" s="18">
-        <f>B10*$P10</f>
-        <v>2500</v>
-      </c>
-      <c r="C23" s="18">
-        <f t="shared" ref="C23:M23" si="21">C10*$P10</f>
-        <v>12500</v>
-      </c>
-      <c r="D23" s="18">
-        <f t="shared" si="21"/>
-        <v>12500</v>
-      </c>
-      <c r="E23" s="18">
-        <f t="shared" si="21"/>
-        <v>12500</v>
-      </c>
-      <c r="F23" s="18">
-        <f t="shared" si="21"/>
-        <v>15000</v>
-      </c>
-      <c r="G23" s="18">
-        <f t="shared" si="21"/>
-        <v>22500</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" si="21"/>
-        <v>15000</v>
-      </c>
-      <c r="I23" s="18">
-        <f t="shared" si="21"/>
-        <v>20000</v>
-      </c>
-      <c r="J23" s="18">
-        <f t="shared" si="21"/>
-        <v>20000</v>
-      </c>
-      <c r="K23" s="18">
-        <f t="shared" si="21"/>
-        <v>17500</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="21"/>
-        <v>15000</v>
-      </c>
-      <c r="M23" s="18">
-        <f t="shared" si="21"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="str">
-        <f t="shared" ref="A24:M24" si="22">A11</f>
-        <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
-      </c>
-      <c r="B24" s="18">
-        <f>B11*$P11</f>
-        <v>25000</v>
-      </c>
-      <c r="C24" s="18">
-        <f t="shared" ref="C24:M24" si="23">C11*$P11</f>
-        <v>47500</v>
-      </c>
-      <c r="D24" s="18">
-        <f t="shared" si="23"/>
+      <c r="K24" s="15">
+        <f t="shared" si="24"/>
         <v>50000</v>
       </c>
-      <c r="E24" s="18">
-        <f t="shared" si="23"/>
-        <v>42500</v>
-      </c>
-      <c r="F24" s="18">
-        <f t="shared" si="23"/>
+      <c r="L24" s="15">
+        <f t="shared" si="24"/>
         <v>45000</v>
       </c>
-      <c r="G24" s="18">
-        <f t="shared" si="23"/>
-        <v>47500</v>
-      </c>
-      <c r="H24" s="18">
-        <f t="shared" si="23"/>
-        <v>42500</v>
-      </c>
-      <c r="I24" s="18">
-        <f t="shared" si="23"/>
-        <v>47500</v>
-      </c>
-      <c r="J24" s="18">
-        <f t="shared" si="23"/>
-        <v>40000</v>
-      </c>
-      <c r="K24" s="18">
-        <f t="shared" si="23"/>
-        <v>50000</v>
-      </c>
-      <c r="L24" s="18">
-        <f t="shared" si="23"/>
-        <v>45000</v>
-      </c>
-      <c r="M24" s="18">
-        <f t="shared" si="23"/>
+      <c r="M24" s="15">
+        <f t="shared" si="24"/>
         <v>35000</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="17">
         <f>SUM(B15:B24)</f>
         <v>60900</v>
       </c>
-      <c r="C25" s="20">
-        <f t="shared" ref="C25:M25" si="24">SUM(C15:C24)</f>
+      <c r="C25" s="17">
+        <f t="shared" ref="C25:M25" si="25">SUM(C15:C24)</f>
         <v>193900</v>
       </c>
-      <c r="D25" s="20">
-        <f t="shared" si="24"/>
+      <c r="D25" s="17">
+        <f t="shared" si="25"/>
         <v>212500</v>
       </c>
-      <c r="E25" s="20">
-        <f t="shared" si="24"/>
+      <c r="E25" s="17">
+        <f t="shared" si="25"/>
         <v>220600</v>
       </c>
-      <c r="F25" s="20">
-        <f t="shared" si="24"/>
+      <c r="F25" s="17">
+        <f t="shared" si="25"/>
         <v>229700</v>
       </c>
-      <c r="G25" s="20">
-        <f t="shared" si="24"/>
+      <c r="G25" s="17">
+        <f t="shared" si="25"/>
         <v>244100</v>
       </c>
-      <c r="H25" s="20">
-        <f t="shared" si="24"/>
+      <c r="H25" s="17">
+        <f t="shared" si="25"/>
         <v>160500</v>
       </c>
-      <c r="I25" s="20">
-        <f t="shared" si="24"/>
+      <c r="I25" s="17">
+        <f t="shared" si="25"/>
         <v>248500</v>
       </c>
-      <c r="J25" s="20">
-        <f t="shared" si="24"/>
+      <c r="J25" s="17">
+        <f t="shared" si="25"/>
         <v>246700</v>
       </c>
-      <c r="K25" s="20">
-        <f t="shared" si="24"/>
+      <c r="K25" s="17">
+        <f t="shared" si="25"/>
         <v>274900</v>
       </c>
-      <c r="L25" s="20">
-        <f t="shared" si="24"/>
+      <c r="L25" s="17">
+        <f t="shared" si="25"/>
         <v>184700</v>
       </c>
-      <c r="M25" s="20">
-        <f t="shared" si="24"/>
+      <c r="M25" s="17">
+        <f t="shared" si="25"/>
         <v>173200</v>
       </c>
     </row>
@@ -2537,14 +2547,14 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
@@ -2552,217 +2562,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="41" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="13">
         <f>1500/12</f>
         <v>125</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="13">
         <f>300</f>
         <v>300</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="10"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="13"/>
+      <c r="D3" s="8"/>
+      <c r="F3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="41" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <f>30</f>
         <v>30</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="10"/>
-      <c r="F4" s="17" t="str">
+      <c r="C4" s="13"/>
+      <c r="D4" s="8"/>
+      <c r="F4" s="14" t="str">
         <f>$A$14</f>
         <v>Tiền cơ sở vật chất</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <f>$C$14</f>
         <v>10000</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="15">
         <v>4</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="15">
         <f>G4/(H4*12)</f>
         <v>208.33333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <f>3000</f>
         <v>3000</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="10"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="17" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="8"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <f>SUM(I4)</f>
         <v>208.33333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <f>6000*4</f>
         <v>24000</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="10"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <f>1000/12</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="13">
         <f>250</f>
         <v>250</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="10"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <f>20000</f>
         <v>20000</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13">
         <f>1000</f>
         <v>1000</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13">
         <f>500*2</f>
         <v>1000</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13">
         <f>150*2</f>
         <v>300</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13">
         <f>10000</f>
         <v>10000</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <f>SUM(B2:B10)</f>
         <v>47888.333333333328</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="13">
         <f>SUM(C12:C14)</f>
         <v>11300</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="17" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M17">
@@ -2778,24 +2788,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2804,11 +2814,11 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="41"/>
+      <c r="F1" s="38"/>
       <c r="H1" s="39" t="s">
         <v>51</v>
       </c>
@@ -2819,508 +2829,508 @@
       <c r="M1" s="39"/>
       <c r="N1" s="39"/>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="12" t="str">
+      <c r="E2" s="16" t="str">
         <f>'Uoc luong san pham ban ra'!A1</f>
         <v>Sản phẩm</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="12" t="str">
+      <c r="H2" s="16" t="str">
         <f>'Uoc luong san pham ban ra'!A1</f>
         <v>Sản phẩm</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="17" t="str">
+      <c r="J2" s="40" t="str">
         <f>'Uoc luong san pham ban ra'!P1</f>
         <v>Giá nhập sản phẩm</v>
       </c>
-      <c r="K2" s="12" t="str">
+      <c r="K2" s="16" t="str">
         <f>'Uoc luong san pham ban ra'!N1</f>
         <v>Bình quân bán được(1 tháng)</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="40" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="str">
+      <c r="A3" s="9" t="str">
         <f>'Von dau tu &amp; von luu dong'!$A$2</f>
         <v>Bảo hiểm</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="15">
         <f>'Von dau tu &amp; von luu dong'!$B$2</f>
         <v>125</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="E3" s="11" t="str">
+      <c r="C3" s="9"/>
+      <c r="E3" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A2</f>
         <v>Dịch vụ Sửa PC</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>5</v>
       </c>
-      <c r="H3" s="11" t="str">
+      <c r="H3" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A2</f>
         <v>Dịch vụ Sửa PC</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="15">
         <f>_xlfn.FLOOR.MATH(B$12 * F3 / 100)</f>
         <v>1404</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="15">
         <f>'Uoc luong san pham ban ra'!P2</f>
         <v>0</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <f>'Uoc luong san pham ban ra'!N2</f>
         <v>37</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="15">
         <f>_xlfn.FLOOR.MATH(J3+I3/K3)</f>
         <v>37</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="15">
         <v>80</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="15">
         <f>SUM(M3+L3)</f>
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="str">
+      <c r="A4" s="9" t="str">
         <f>'Von dau tu &amp; von luu dong'!$A$3</f>
         <v>Tiền điện</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <f>'Von dau tu &amp; von luu dong'!$B$3</f>
         <v>300</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="E4" s="11" t="str">
+      <c r="C4" s="9"/>
+      <c r="E4" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A3</f>
         <v>Dịch vụ Sửa Laptop</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="str">
+      <c r="H4" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A3</f>
         <v>Dịch vụ Sửa Laptop</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="15">
         <f t="shared" ref="I4:I12" si="0">_xlfn.FLOOR.MATH(B$12 * F4 / 100)</f>
         <v>1404</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <f>'Uoc luong san pham ban ra'!P3</f>
         <v>0</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <f>'Uoc luong san pham ban ra'!N3</f>
         <v>36</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="15">
         <f t="shared" ref="L4:L12" si="1">_xlfn.FLOOR.MATH(J4+I4/K4)</f>
         <v>39</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="15">
         <v>80</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="15">
         <f t="shared" ref="N4:N12" si="2">SUM(M4+L4)</f>
         <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="str">
+      <c r="A5" s="9" t="str">
         <f>'Von dau tu &amp; von luu dong'!A4</f>
         <v>Tiền nước</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="15">
         <f>'Von dau tu &amp; von luu dong'!B4</f>
         <v>30</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="E5" s="11" t="str">
+      <c r="C5" s="9"/>
+      <c r="E5" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A4</f>
         <v>PC (bán)</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>20</v>
       </c>
-      <c r="H5" s="11" t="str">
+      <c r="H5" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A4</f>
         <v>PC (bán)</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="15">
         <f t="shared" si="0"/>
         <v>5619</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="15">
         <f>'Uoc luong san pham ban ra'!P4</f>
         <v>8000</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <f>'Uoc luong san pham ban ra'!N4</f>
         <v>8</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="15">
         <f>_xlfn.FLOOR.MATH(J5+I5/K5)</f>
         <v>8702</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="15">
         <f>_xlfn.FLOOR.MATH(L5*3%)</f>
         <v>261</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="15">
         <f t="shared" si="2"/>
         <v>8963</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="str">
+      <c r="A6" s="9" t="str">
         <f>'Von dau tu &amp; von luu dong'!A5</f>
         <v>Tiền trọ</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="15">
         <f>'Von dau tu &amp; von luu dong'!B5</f>
         <v>3000</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="E6" s="11" t="str">
+      <c r="C6" s="9"/>
+      <c r="E6" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A5</f>
         <v>Ram</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>10</v>
       </c>
-      <c r="H6" s="11" t="str">
+      <c r="H6" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A5</f>
         <v>Ram</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="15">
         <f t="shared" si="0"/>
         <v>2809</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="15">
         <f>'Uoc luong san pham ban ra'!P5</f>
         <v>900</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <f>'Uoc luong san pham ban ra'!N5</f>
         <v>15</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="15">
         <f t="shared" si="1"/>
         <v>1087</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="15">
         <f>_xlfn.FLOOR.MATH(L6*5%)</f>
         <v>54</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="15">
         <f t="shared" si="2"/>
         <v>1141</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="str">
+      <c r="A7" s="9" t="str">
         <f>'Von dau tu &amp; von luu dong'!A6</f>
         <v>Lương thành viên</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="15">
         <f>'Von dau tu &amp; von luu dong'!B6</f>
         <v>24000</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="E7" s="11" t="str">
+      <c r="C7" s="9"/>
+      <c r="E7" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A6</f>
         <v>Ổ cứng</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>10</v>
       </c>
-      <c r="H7" s="11" t="str">
+      <c r="H7" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A6</f>
         <v>Ổ cứng</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="15">
         <f t="shared" si="0"/>
         <v>2809</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="15">
         <f>'Uoc luong san pham ban ra'!P6</f>
         <v>2500</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <f>'Uoc luong san pham ban ra'!N6</f>
         <v>7</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="15">
         <f t="shared" si="1"/>
         <v>2901</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="15">
         <f>_xlfn.FLOOR.MATH(L7*4%)</f>
         <v>116</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="15">
         <f t="shared" si="2"/>
         <v>3017</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="str">
+      <c r="A8" s="9" t="str">
         <f>'Von dau tu &amp; von luu dong'!A7</f>
         <v>Tiền điện thoại</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="15">
         <f>'Von dau tu &amp; von luu dong'!B7</f>
         <v>100</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="E8" s="11" t="str">
+      <c r="C8" s="9"/>
+      <c r="E8" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A7</f>
         <v>bàn phím/chuột</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>10</v>
       </c>
-      <c r="H8" s="11" t="str">
+      <c r="H8" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A7</f>
         <v>bàn phím/chuột</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="15">
         <f t="shared" si="0"/>
         <v>2809</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="15">
         <f>'Uoc luong san pham ban ra'!P7</f>
         <v>300</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <f>'Uoc luong san pham ban ra'!N7</f>
         <v>44</v>
       </c>
-      <c r="L8" s="18">
+      <c r="L8" s="15">
         <f t="shared" si="1"/>
         <v>363</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="15">
         <v>50</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="15">
         <f t="shared" si="2"/>
         <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="str">
+      <c r="A9" s="9" t="str">
         <f>'Von dau tu &amp; von luu dong'!A8</f>
         <v>Thuế</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="15">
         <f>'Von dau tu &amp; von luu dong'!B8</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="E9" s="11" t="str">
+      <c r="C9" s="9"/>
+      <c r="E9" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A8</f>
         <v>Màn hình</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>10</v>
       </c>
-      <c r="H9" s="11" t="str">
+      <c r="H9" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A8</f>
         <v>Màn hình</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <f t="shared" si="0"/>
         <v>2809</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <f>'Uoc luong san pham ban ra'!P8</f>
         <v>3000</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <f>'Uoc luong san pham ban ra'!N8</f>
         <v>8</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <f t="shared" si="1"/>
         <v>3351</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="15">
         <f>_xlfn.FLOOR.MATH(L9*5%)</f>
         <v>167</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="15">
         <f t="shared" si="2"/>
         <v>3518</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="str">
+      <c r="A10" s="9" t="str">
         <f>'Von dau tu &amp; von luu dong'!A9</f>
         <v>Tiền mạng</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="15">
         <f>'Von dau tu &amp; von luu dong'!B9</f>
         <v>250</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="E10" s="11" t="str">
+      <c r="C10" s="9"/>
+      <c r="E10" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A9</f>
         <v>USB</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>5</v>
       </c>
-      <c r="H10" s="11" t="str">
+      <c r="H10" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A9</f>
         <v>USB</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="15">
         <f t="shared" si="0"/>
         <v>1404</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="15">
         <f>'Uoc luong san pham ban ra'!P9</f>
         <v>200</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <f>'Uoc luong san pham ban ra'!N9</f>
         <v>25</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="15">
         <v>20</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="15">
         <f t="shared" si="2"/>
         <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="str">
+      <c r="A11" s="9" t="str">
         <f>'Von dau tu &amp; von luu dong'!$H$5</f>
         <v>Tổng tiền khấu hao hàng tháng</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="15">
         <f>'Von dau tu &amp; von luu dong'!$I$5</f>
         <v>208.33333333333334</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="E11" s="11" t="str">
+      <c r="C11" s="9"/>
+      <c r="E11" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A10</f>
         <v>Mainboard</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>10</v>
       </c>
-      <c r="H11" s="11" t="str">
+      <c r="H11" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A10</f>
         <v>Mainboard</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="15">
         <f t="shared" si="0"/>
         <v>2809</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="15">
         <f>'Uoc luong san pham ban ra'!P10</f>
         <v>2500</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <f>'Uoc luong san pham ban ra'!N10</f>
         <v>5</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
         <v>3061</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="15">
         <f>_xlfn.FLOOR.MATH(L11*5%)</f>
         <v>153</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="15">
         <f t="shared" si="2"/>
         <v>3214</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <f>SUM(B3:B11)</f>
         <v>28096.666666666664</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="E12" s="11" t="str">
+      <c r="C12" s="18"/>
+      <c r="E12" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A11</f>
         <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>15</v>
       </c>
-      <c r="H12" s="11" t="str">
+      <c r="H12" s="9" t="str">
         <f>'Uoc luong san pham ban ra'!A11</f>
         <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <f t="shared" si="0"/>
         <v>4214</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <f>'Uoc luong san pham ban ra'!P11</f>
         <v>2500</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <f>'Uoc luong san pham ban ra'!N11</f>
         <v>17</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <f t="shared" si="1"/>
         <v>2747</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="15">
         <f>_xlfn.FLOOR.MATH(L12*5%)</f>
         <v>137</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="15">
         <f t="shared" si="2"/>
         <v>2884</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="16">
         <f>SUM(F3:F12)</f>
         <v>100</v>
       </c>
@@ -3339,1748 +3349,1748 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="7"/>
+    <col min="3" max="14" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="35" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:14" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="str">
+    <row r="2" spans="1:14" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="str">
         <f>'Uoc luong san pham ban ra'!A2</f>
         <v>Dịch vụ Sửa PC</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="25">
         <f>'Uoc luong san pham ban ra'!B2</f>
         <v>8</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="25">
         <f>'Uoc luong san pham ban ra'!C2</f>
         <v>20</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="25">
         <f>'Uoc luong san pham ban ra'!D2</f>
         <v>40</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="25">
         <f>'Uoc luong san pham ban ra'!E2</f>
         <v>41</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="25">
         <f>'Uoc luong san pham ban ra'!F2</f>
         <v>37</v>
       </c>
-      <c r="H2" s="31">
+      <c r="H2" s="25">
         <f>'Uoc luong san pham ban ra'!G2</f>
         <v>45</v>
       </c>
-      <c r="I2" s="31">
+      <c r="I2" s="25">
         <f>'Uoc luong san pham ban ra'!H2</f>
         <v>45</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="25">
         <f>'Uoc luong san pham ban ra'!I2</f>
         <v>40</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="25">
         <f>'Uoc luong san pham ban ra'!J2</f>
         <v>42</v>
       </c>
-      <c r="L2" s="31">
+      <c r="L2" s="25">
         <f>'Uoc luong san pham ban ra'!K2</f>
         <v>39</v>
       </c>
-      <c r="M2" s="31">
+      <c r="M2" s="25">
         <f>'Uoc luong san pham ban ra'!L2</f>
         <v>45</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="25">
         <f>'Uoc luong san pham ban ra'!M2</f>
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
-      <c r="K3" s="18">
+      <c r="K3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:14" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="26">
         <f>C2*C3</f>
         <v>936</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="26">
         <f t="shared" ref="D4:N4" si="0">D2*D3</f>
         <v>2340</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="26">
         <f t="shared" si="0"/>
         <v>4680</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="26">
         <f t="shared" si="0"/>
         <v>4797</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="26">
         <f t="shared" si="0"/>
         <v>4329</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="26">
         <f t="shared" si="0"/>
         <v>5265</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="26">
         <f t="shared" si="0"/>
         <v>5265</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="26">
         <f t="shared" si="0"/>
         <v>4680</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="26">
         <f t="shared" si="0"/>
         <v>4914</v>
       </c>
-      <c r="L4" s="32">
+      <c r="L4" s="26">
         <f t="shared" si="0"/>
         <v>4563</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="26">
         <f t="shared" si="0"/>
         <v>5265</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="26">
         <f t="shared" si="0"/>
         <v>5850</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="str">
+    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="str">
         <f>'Uoc luong san pham ban ra'!$A$3</f>
         <v>Dịch vụ Sửa Laptop</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="25">
         <f>'Uoc luong san pham ban ra'!B3</f>
         <v>13</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="25">
         <f>'Uoc luong san pham ban ra'!C3</f>
         <v>16</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="25">
         <f>'Uoc luong san pham ban ra'!D3</f>
         <v>55</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="25">
         <f>'Uoc luong san pham ban ra'!E3</f>
         <v>50</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="25">
         <f>'Uoc luong san pham ban ra'!F3</f>
         <v>37</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="25">
         <f>'Uoc luong san pham ban ra'!G3</f>
         <v>35</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="25">
         <f>'Uoc luong san pham ban ra'!H3</f>
         <v>33</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="25">
         <f>'Uoc luong san pham ban ra'!I3</f>
         <v>40</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="25">
         <f>'Uoc luong san pham ban ra'!J3</f>
         <v>42</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="25">
         <f>'Uoc luong san pham ban ra'!K3</f>
         <v>41</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="25">
         <f>'Uoc luong san pham ban ra'!L3</f>
         <v>37</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="25">
         <f>'Uoc luong san pham ban ra'!M3</f>
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="29" t="s">
+    <row r="7" spans="1:14" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36"/>
+      <c r="B7" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="26">
         <f>C5*C6</f>
         <v>1547</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="26">
         <f t="shared" ref="D7:N7" si="1">D5*D6</f>
         <v>1904</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="26">
         <f t="shared" si="1"/>
         <v>6545</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="26">
         <f t="shared" si="1"/>
         <v>5950</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="26">
         <f t="shared" si="1"/>
         <v>4403</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="26">
         <f t="shared" si="1"/>
         <v>4165</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="26">
         <f t="shared" si="1"/>
         <v>3927</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="26">
         <f t="shared" si="1"/>
         <v>4760</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="26">
         <f t="shared" si="1"/>
         <v>4998</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="26">
         <f t="shared" si="1"/>
         <v>4879</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="26">
         <f t="shared" si="1"/>
         <v>4403</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="26">
         <f t="shared" si="1"/>
         <v>5236</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="str">
+    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="str">
         <f>'Uoc luong san pham ban ra'!$A$4</f>
         <v>PC (bán)</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="25">
         <f>'Uoc luong san pham ban ra'!B4</f>
         <v>2</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="25">
         <f>'Uoc luong san pham ban ra'!C4</f>
         <v>8</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="25">
         <f>'Uoc luong san pham ban ra'!D4</f>
         <v>7</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="25">
         <f>'Uoc luong san pham ban ra'!E4</f>
         <v>10</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="25">
         <f>'Uoc luong san pham ban ra'!F4</f>
         <v>10</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="25">
         <f>'Uoc luong san pham ban ra'!G4</f>
         <v>9</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="25">
         <f>'Uoc luong san pham ban ra'!H4</f>
         <v>5</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="25">
         <f>'Uoc luong san pham ban ra'!I4</f>
         <v>11</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="25">
         <f>'Uoc luong san pham ban ra'!J4</f>
         <v>12</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="25">
         <f>'Uoc luong san pham ban ra'!K4</f>
         <v>15</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="25">
         <f>'Uoc luong san pham ban ra'!L4</f>
         <v>7</v>
       </c>
-      <c r="N8" s="31">
+      <c r="N8" s="25">
         <f>'Uoc luong san pham ban ra'!M4</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8963</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="29" t="s">
+    <row r="10" spans="1:14" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="26">
         <f>C8*C9</f>
         <v>17926</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="26">
         <f t="shared" ref="D10:N10" si="2">D8*D9</f>
         <v>71704</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="26">
         <f t="shared" si="2"/>
         <v>62741</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="26">
         <f t="shared" si="2"/>
         <v>89630</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="26">
         <f t="shared" si="2"/>
         <v>89630</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="26">
         <f t="shared" si="2"/>
         <v>80667</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="26">
         <f t="shared" si="2"/>
         <v>44815</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="26">
         <f t="shared" si="2"/>
         <v>98593</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="26">
         <f t="shared" si="2"/>
         <v>107556</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="26">
         <f t="shared" si="2"/>
         <v>134445</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="26">
         <f t="shared" si="2"/>
         <v>62741</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="26">
         <f t="shared" si="2"/>
         <v>71704</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="str">
+    <row r="11" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="str">
         <f>'Uoc luong san pham ban ra'!$A$5</f>
         <v>Ram</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="25">
         <f>'Uoc luong san pham ban ra'!B5</f>
         <v>5</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="25">
         <f>'Uoc luong san pham ban ra'!C5</f>
         <v>15</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="25">
         <f>'Uoc luong san pham ban ra'!D5</f>
         <v>20</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="25">
         <f>'Uoc luong san pham ban ra'!E5</f>
         <v>17</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="25">
         <f>'Uoc luong san pham ban ra'!F5</f>
         <v>20</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="25">
         <f>'Uoc luong san pham ban ra'!G5</f>
         <v>22</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="25">
         <f>'Uoc luong san pham ban ra'!H5</f>
         <v>16</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="25">
         <f>'Uoc luong san pham ban ra'!I5</f>
         <v>18</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="25">
         <f>'Uoc luong san pham ban ra'!J5</f>
         <v>15</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="25">
         <f>'Uoc luong san pham ban ra'!K5</f>
         <v>17</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="25">
         <f>'Uoc luong san pham ban ra'!L5</f>
         <v>10</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="25">
         <f>'Uoc luong san pham ban ra'!M5</f>
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1141</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="29" t="s">
+    <row r="13" spans="1:14" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="26">
         <f>C11*C12</f>
         <v>5705</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="26">
         <f t="shared" ref="D13:N13" si="3">D11*D12</f>
         <v>17115</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="26">
         <f t="shared" si="3"/>
         <v>22820</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="26">
         <f t="shared" si="3"/>
         <v>19397</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="26">
         <f t="shared" si="3"/>
         <v>22820</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="26">
         <f t="shared" si="3"/>
         <v>25102</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="26">
         <f t="shared" si="3"/>
         <v>18256</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="26">
         <f t="shared" si="3"/>
         <v>20538</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="26">
         <f t="shared" si="3"/>
         <v>17115</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="26">
         <f t="shared" si="3"/>
         <v>19397</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="26">
         <f t="shared" si="3"/>
         <v>11410</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="26">
         <f t="shared" si="3"/>
         <v>14833</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="str">
+    <row r="14" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="str">
         <f>'Uoc luong san pham ban ra'!$A$6</f>
         <v>Ổ cứng</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="25">
         <f>'Uoc luong san pham ban ra'!B6</f>
         <v>1</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="25">
         <f>'Uoc luong san pham ban ra'!C6</f>
         <v>10</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="25">
         <f>'Uoc luong san pham ban ra'!D6</f>
         <v>10</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="25">
         <f>'Uoc luong san pham ban ra'!E6</f>
         <v>10</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="25">
         <f>'Uoc luong san pham ban ra'!F6</f>
         <v>7</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="25">
         <f>'Uoc luong san pham ban ra'!G6</f>
         <v>9</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="25">
         <f>'Uoc luong san pham ban ra'!H6</f>
         <v>1</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="25">
         <f>'Uoc luong san pham ban ra'!I6</f>
         <v>10</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="25">
         <f>'Uoc luong san pham ban ra'!J6</f>
         <v>10</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="25">
         <f>'Uoc luong san pham ban ra'!K6</f>
         <v>10</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="25">
         <f>'Uoc luong san pham ban ra'!L6</f>
         <v>7</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="25">
         <f>'Uoc luong san pham ban ra'!M6</f>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3017</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="29" t="s">
+    <row r="16" spans="1:14" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="36"/>
+      <c r="B16" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="26">
         <f>C14*C15</f>
         <v>3017</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="26">
         <f t="shared" ref="D16:N16" si="4">D14*D15</f>
         <v>30170</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="26">
         <f t="shared" si="4"/>
         <v>30170</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="26">
         <f t="shared" si="4"/>
         <v>30170</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="26">
         <f t="shared" si="4"/>
         <v>21119</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="26">
         <f t="shared" si="4"/>
         <v>27153</v>
       </c>
-      <c r="I16" s="32">
+      <c r="I16" s="26">
         <f t="shared" si="4"/>
         <v>3017</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="26">
         <f t="shared" si="4"/>
         <v>30170</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="26">
         <f t="shared" si="4"/>
         <v>30170</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="26">
         <f t="shared" si="4"/>
         <v>30170</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="26">
         <f t="shared" si="4"/>
         <v>21119</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="26">
         <f t="shared" si="4"/>
         <v>27153</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="str">
+    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="str">
         <f>'Uoc luong san pham ban ra'!$A$7</f>
         <v>bàn phím/chuột</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="25">
         <f>'Uoc luong san pham ban ra'!B7</f>
         <v>10</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="25">
         <f>'Uoc luong san pham ban ra'!C7</f>
         <v>30</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="25">
         <f>'Uoc luong san pham ban ra'!D7</f>
         <v>50</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="25">
         <f>'Uoc luong san pham ban ra'!E7</f>
         <v>45</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="25">
         <f>'Uoc luong san pham ban ra'!F7</f>
         <v>50</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="25">
         <f>'Uoc luong san pham ban ra'!G7</f>
         <v>56</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="25">
         <f>'Uoc luong san pham ban ra'!H7</f>
         <v>55</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="25">
         <f>'Uoc luong san pham ban ra'!I7</f>
         <v>56</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="25">
         <f>'Uoc luong san pham ban ra'!J7</f>
         <v>44</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="25">
         <f>'Uoc luong san pham ban ra'!K7</f>
         <v>45</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="25">
         <f>'Uoc luong san pham ban ra'!L7</f>
         <v>50</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="25">
         <f>'Uoc luong san pham ban ra'!M7</f>
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>413</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="29" t="s">
+    <row r="19" spans="1:14" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="26">
         <f>C17*C18</f>
         <v>4130</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="26">
         <f t="shared" ref="D19:N19" si="5">D17*D18</f>
         <v>12390</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="26">
         <f t="shared" si="5"/>
         <v>20650</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="26">
         <f t="shared" si="5"/>
         <v>18585</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="26">
         <f t="shared" si="5"/>
         <v>20650</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="26">
         <f t="shared" si="5"/>
         <v>23128</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="26">
         <f t="shared" si="5"/>
         <v>22715</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="26">
         <f t="shared" si="5"/>
         <v>23128</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="26">
         <f t="shared" si="5"/>
         <v>18172</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="26">
         <f t="shared" si="5"/>
         <v>18585</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="26">
         <f t="shared" si="5"/>
         <v>20650</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="26">
         <f t="shared" si="5"/>
         <v>17346</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="str">
+    <row r="20" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="str">
         <f>'Uoc luong san pham ban ra'!$A$8</f>
         <v>Màn hình</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="25">
         <f>'Uoc luong san pham ban ra'!B8</f>
         <v>2</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="25">
         <f>'Uoc luong san pham ban ra'!C8</f>
         <v>6</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="25">
         <f>'Uoc luong san pham ban ra'!D8</f>
         <v>10</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="25">
         <f>'Uoc luong san pham ban ra'!E8</f>
         <v>9</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="25">
         <f>'Uoc luong san pham ban ra'!F8</f>
         <v>11</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="25">
         <f>'Uoc luong san pham ban ra'!G8</f>
         <v>12</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="25">
         <f>'Uoc luong san pham ban ra'!H8</f>
         <v>8</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="25">
         <f>'Uoc luong san pham ban ra'!I8</f>
         <v>10</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="25">
         <f>'Uoc luong san pham ban ra'!J8</f>
         <v>11</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="25">
         <f>'Uoc luong san pham ban ra'!K8</f>
         <v>9</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="25">
         <f>'Uoc luong san pham ban ra'!L8</f>
         <v>7</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="25">
         <f>'Uoc luong san pham ban ra'!M8</f>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3518</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="29" t="s">
+    <row r="22" spans="1:14" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="26">
         <f>C20*C21</f>
         <v>7036</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="26">
         <f t="shared" ref="D22:N22" si="6">D20*D21</f>
         <v>21108</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="26">
         <f t="shared" si="6"/>
         <v>35180</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="26">
         <f t="shared" si="6"/>
         <v>31662</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="26">
         <f t="shared" si="6"/>
         <v>38698</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="26">
         <f t="shared" si="6"/>
         <v>42216</v>
       </c>
-      <c r="I22" s="32">
+      <c r="I22" s="26">
         <f t="shared" si="6"/>
         <v>28144</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="26">
         <f t="shared" si="6"/>
         <v>35180</v>
       </c>
-      <c r="K22" s="32">
+      <c r="K22" s="26">
         <f t="shared" si="6"/>
         <v>38698</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="26">
         <f t="shared" si="6"/>
         <v>31662</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="26">
         <f t="shared" si="6"/>
         <v>24626</v>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="26">
         <f t="shared" si="6"/>
         <v>17590</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="str">
+    <row r="23" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="str">
         <f>'Uoc luong san pham ban ra'!$A$9</f>
         <v>USB</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>7</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>22</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>30</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>24</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>31</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>35</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>7</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>22</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>30</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>24</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>31</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="11" t="s">
+    <row r="24" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="29" t="s">
+    <row r="25" spans="1:14" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="26">
         <f>C23*C24</f>
         <v>1932</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="26">
         <f t="shared" ref="D25:N25" si="7">D23*D24</f>
         <v>6072</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="26">
         <f t="shared" si="7"/>
         <v>8280</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="26">
         <f t="shared" si="7"/>
         <v>6624</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="26">
         <f t="shared" si="7"/>
         <v>8556</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="26">
         <f t="shared" si="7"/>
         <v>9660</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="26">
         <f t="shared" si="7"/>
         <v>1932</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="26">
         <f t="shared" si="7"/>
         <v>6072</v>
       </c>
-      <c r="K25" s="32">
+      <c r="K25" s="26">
         <f t="shared" si="7"/>
         <v>8280</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="26">
         <f t="shared" si="7"/>
         <v>6624</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="26">
         <f t="shared" si="7"/>
         <v>8556</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="26">
         <f t="shared" si="7"/>
         <v>9660</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="str">
+    <row r="26" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="str">
         <f>'Uoc luong san pham ban ra'!$A$10</f>
         <v>Mainboard</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="25">
         <f>'Uoc luong san pham ban ra'!B10</f>
         <v>1</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="25">
         <f>'Uoc luong san pham ban ra'!C10</f>
         <v>5</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="25">
         <f>'Uoc luong san pham ban ra'!D10</f>
         <v>5</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="25">
         <f>'Uoc luong san pham ban ra'!E10</f>
         <v>5</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="25">
         <f>'Uoc luong san pham ban ra'!F10</f>
         <v>6</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="25">
         <f>'Uoc luong san pham ban ra'!G10</f>
         <v>9</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="25">
         <f>'Uoc luong san pham ban ra'!H10</f>
         <v>6</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="25">
         <f>'Uoc luong san pham ban ra'!I10</f>
         <v>8</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="25">
         <f>'Uoc luong san pham ban ra'!J10</f>
         <v>8</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="25">
         <f>'Uoc luong san pham ban ra'!K10</f>
         <v>7</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="25">
         <f>'Uoc luong san pham ban ra'!L10</f>
         <v>6</v>
       </c>
-      <c r="N26" s="31">
+      <c r="N26" s="25">
         <f>'Uoc luong san pham ban ra'!M10</f>
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3214</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="29" t="s">
+    <row r="28" spans="1:14" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36"/>
+      <c r="B28" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="26">
         <f>C26*C27</f>
         <v>3214</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="26">
         <f t="shared" ref="D28:N28" si="8">D26*D27</f>
         <v>16070</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="26">
         <f t="shared" si="8"/>
         <v>16070</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="26">
         <f t="shared" si="8"/>
         <v>16070</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="26">
         <f t="shared" si="8"/>
         <v>19284</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="26">
         <f t="shared" si="8"/>
         <v>28926</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="26">
         <f t="shared" si="8"/>
         <v>19284</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="26">
         <f t="shared" si="8"/>
         <v>25712</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="26">
         <f t="shared" si="8"/>
         <v>25712</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="26">
         <f t="shared" si="8"/>
         <v>22498</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="26">
         <f t="shared" si="8"/>
         <v>19284</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="26">
         <f t="shared" si="8"/>
         <v>12856</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="str">
+    <row r="29" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="str">
         <f>'Uoc luong san pham ban ra'!$A$11</f>
         <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="25">
         <f>'Uoc luong san pham ban ra'!B11</f>
         <v>10</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="25">
         <f>'Uoc luong san pham ban ra'!C11</f>
         <v>19</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="25">
         <f>'Uoc luong san pham ban ra'!D11</f>
         <v>20</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="25">
         <f>'Uoc luong san pham ban ra'!E11</f>
         <v>17</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="25">
         <f>'Uoc luong san pham ban ra'!F11</f>
         <v>18</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H29" s="25">
         <f>'Uoc luong san pham ban ra'!G11</f>
         <v>19</v>
       </c>
-      <c r="I29" s="31">
+      <c r="I29" s="25">
         <f>'Uoc luong san pham ban ra'!H11</f>
         <v>17</v>
       </c>
-      <c r="J29" s="31">
+      <c r="J29" s="25">
         <f>'Uoc luong san pham ban ra'!I11</f>
         <v>19</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="25">
         <f>'Uoc luong san pham ban ra'!J11</f>
         <v>16</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="25">
         <f>'Uoc luong san pham ban ra'!K11</f>
         <v>20</v>
       </c>
-      <c r="M29" s="31">
+      <c r="M29" s="25">
         <f>'Uoc luong san pham ban ra'!L11</f>
         <v>18</v>
       </c>
-      <c r="N29" s="31">
+      <c r="N29" s="25">
         <f>'Uoc luong san pham ban ra'!M11</f>
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="11" t="s">
+    <row r="30" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2884</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="29" t="s">
+    <row r="31" spans="1:14" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="36"/>
+      <c r="B31" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="26">
         <f>C29*C30</f>
         <v>28840</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="26">
         <f t="shared" ref="D31:N31" si="9">D29*D30</f>
         <v>54796</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="26">
         <f t="shared" si="9"/>
         <v>57680</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="26">
         <f t="shared" si="9"/>
         <v>49028</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G31" s="26">
         <f t="shared" si="9"/>
         <v>51912</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="26">
         <f t="shared" si="9"/>
         <v>54796</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I31" s="26">
         <f t="shared" si="9"/>
         <v>49028</v>
       </c>
-      <c r="J31" s="32">
+      <c r="J31" s="26">
         <f t="shared" si="9"/>
         <v>54796</v>
       </c>
-      <c r="K31" s="32">
+      <c r="K31" s="26">
         <f t="shared" si="9"/>
         <v>46144</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L31" s="26">
         <f t="shared" si="9"/>
         <v>57680</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M31" s="26">
         <f t="shared" si="9"/>
         <v>51912</v>
       </c>
-      <c r="N31" s="32">
+      <c r="N31" s="26">
         <f t="shared" si="9"/>
         <v>40376</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="36" t="s">
+    <row r="32" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="31">
         <f>SUM(C4,C7,C10,C13,C16,C19,C22,C25,C28,C31)</f>
         <v>74283</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="31">
         <f t="shared" ref="D32:N32" si="10">SUM(D4,D7,D10,D13,D16,D19,D22,D25,D28,D31)</f>
         <v>233669</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="31">
         <f t="shared" si="10"/>
         <v>264816</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="31">
         <f t="shared" si="10"/>
         <v>271913</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="31">
         <f t="shared" si="10"/>
         <v>281401</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="31">
         <f t="shared" si="10"/>
         <v>301078</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="31">
         <f t="shared" si="10"/>
         <v>196383</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="31">
         <f t="shared" si="10"/>
         <v>303629</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="31">
         <f t="shared" si="10"/>
         <v>301759</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="31">
         <f t="shared" si="10"/>
         <v>330503</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="31">
         <f t="shared" si="10"/>
         <v>229966</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="31">
         <f t="shared" si="10"/>
         <v>222604</v>
       </c>
@@ -5101,4 +5111,713 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="15">
+        <f>'Doanh Thu'!C32</f>
+        <v>74283</v>
+      </c>
+      <c r="C4" s="15">
+        <f>'Doanh Thu'!D32</f>
+        <v>233669</v>
+      </c>
+      <c r="D4" s="15">
+        <f>'Doanh Thu'!E32</f>
+        <v>264816</v>
+      </c>
+      <c r="E4" s="15">
+        <f>'Doanh Thu'!F32</f>
+        <v>271913</v>
+      </c>
+      <c r="F4" s="15">
+        <f>'Doanh Thu'!G32</f>
+        <v>281401</v>
+      </c>
+      <c r="G4" s="15">
+        <f>'Doanh Thu'!H32</f>
+        <v>301078</v>
+      </c>
+      <c r="H4" s="15">
+        <f>'Doanh Thu'!I32</f>
+        <v>196383</v>
+      </c>
+      <c r="I4" s="15">
+        <f>'Doanh Thu'!J32</f>
+        <v>303629</v>
+      </c>
+      <c r="J4" s="15">
+        <f>'Doanh Thu'!K32</f>
+        <v>301759</v>
+      </c>
+      <c r="K4" s="15">
+        <f>'Doanh Thu'!L32</f>
+        <v>330503</v>
+      </c>
+      <c r="L4" s="15">
+        <f>'Doanh Thu'!M32</f>
+        <v>229966</v>
+      </c>
+      <c r="M4" s="15">
+        <f>'Doanh Thu'!N32</f>
+        <v>222604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="str">
+        <f>'Chi phi &amp; Gia thanh'!A3</f>
+        <v>Bảo hiểm</v>
+      </c>
+      <c r="B6" s="15">
+        <f>'Chi phi &amp; Gia thanh'!B$3</f>
+        <v>125</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="str">
+        <f>'Chi phi &amp; Gia thanh'!A4</f>
+        <v>Tiền điện</v>
+      </c>
+      <c r="B7" s="15">
+        <f>'Chi phi &amp; Gia thanh'!B4</f>
+        <v>300</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" ref="C7:M14" si="0">B7</f>
+        <v>300</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="M7" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="str">
+        <f>'Chi phi &amp; Gia thanh'!A5</f>
+        <v>Tiền nước</v>
+      </c>
+      <c r="B8" s="15">
+        <f>'Chi phi &amp; Gia thanh'!B5</f>
+        <v>30</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G8" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="str">
+        <f>'Chi phi &amp; Gia thanh'!A6</f>
+        <v>Tiền trọ</v>
+      </c>
+      <c r="B9" s="15">
+        <f>'Chi phi &amp; Gia thanh'!B6</f>
+        <v>3000</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="str">
+        <f>'Chi phi &amp; Gia thanh'!A7</f>
+        <v>Lương thành viên</v>
+      </c>
+      <c r="B10" s="15">
+        <f>'Chi phi &amp; Gia thanh'!B7</f>
+        <v>24000</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="G10" s="15">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="0"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="str">
+        <f>'Chi phi &amp; Gia thanh'!A8</f>
+        <v>Tiền điện thoại</v>
+      </c>
+      <c r="B11" s="15">
+        <f>'Chi phi &amp; Gia thanh'!B8</f>
+        <v>100</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M11" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="str">
+        <f>'Chi phi &amp; Gia thanh'!A9</f>
+        <v>Thuế</v>
+      </c>
+      <c r="B12" s="15">
+        <f>'Chi phi &amp; Gia thanh'!B9</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="M12" s="15">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="str">
+        <f>'Chi phi &amp; Gia thanh'!A10</f>
+        <v>Tiền mạng</v>
+      </c>
+      <c r="B13" s="15">
+        <f>'Chi phi &amp; Gia thanh'!B10</f>
+        <v>250</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="H13" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="M13" s="15">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="str">
+        <f>'Chi phi &amp; Gia thanh'!A11</f>
+        <v>Tổng tiền khấu hao hàng tháng</v>
+      </c>
+      <c r="B14" s="15">
+        <f>'Chi phi &amp; Gia thanh'!B11</f>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="M14" s="15">
+        <f t="shared" si="0"/>
+        <v>208.33333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="str">
+        <f>'Chi phi &amp; Gia thanh'!$A$12</f>
+        <v>Tổng chi phí</v>
+      </c>
+      <c r="B16" s="17">
+        <f>SUM(B6:B15)</f>
+        <v>28096.666666666664</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" ref="C16:M16" si="1">SUM(C6:C15)</f>
+        <v>27971.666666666664</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="1"/>
+        <v>27971.666666666664</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="1"/>
+        <v>27971.666666666664</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="1"/>
+        <v>27971.666666666664</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="1"/>
+        <v>27971.666666666664</v>
+      </c>
+      <c r="H16" s="17">
+        <f t="shared" si="1"/>
+        <v>27971.666666666664</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" si="1"/>
+        <v>27971.666666666664</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="1"/>
+        <v>27971.666666666664</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" si="1"/>
+        <v>27971.666666666664</v>
+      </c>
+      <c r="L16" s="17">
+        <f t="shared" si="1"/>
+        <v>27971.666666666664</v>
+      </c>
+      <c r="M16" s="17">
+        <f t="shared" si="1"/>
+        <v>27971.666666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="17">
+        <f>B4-B16</f>
+        <v>46186.333333333336</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" ref="C17:M17" si="2">C4-C16</f>
+        <v>205697.33333333334</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="2"/>
+        <v>236844.33333333334</v>
+      </c>
+      <c r="E17" s="17">
+        <f t="shared" si="2"/>
+        <v>243941.33333333334</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="2"/>
+        <v>253429.33333333334</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="2"/>
+        <v>273106.33333333331</v>
+      </c>
+      <c r="H17" s="17">
+        <f t="shared" si="2"/>
+        <v>168411.33333333334</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="2"/>
+        <v>275657.33333333331</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="2"/>
+        <v>273787.33333333331</v>
+      </c>
+      <c r="K17" s="17">
+        <f t="shared" si="2"/>
+        <v>302531.33333333331</v>
+      </c>
+      <c r="L17" s="17">
+        <f t="shared" si="2"/>
+        <v>201994.33333333334</v>
+      </c>
+      <c r="M17" s="17">
+        <f t="shared" si="2"/>
+        <v>194632.33333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Ke hoach ban hang.xlsx
+++ b/Ke hoach ban hang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Von ban dau" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <sheet name="Kế hoạch doanh thu và chi phí" sheetId="7" r:id="rId6"/>
     <sheet name="Lưu chuyển tiền mặt" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
   <si>
     <t>Tháng 1</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Vốn đầu tư</t>
   </si>
   <si>
-    <t>Tiền khấu hao</t>
-  </si>
-  <si>
     <t>Giá</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>Danh mục</t>
   </si>
   <si>
-    <t>Chi phí hàng tháng (không tính nhập hàng)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Số tiền </t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Tổng</t>
   </si>
   <si>
-    <t>Giá thành sản phẩm</t>
-  </si>
-  <si>
     <t>Chi phí hàng tháng</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>Hạng mục</t>
   </si>
   <si>
-    <t>Số tiền(1000)</t>
-  </si>
-  <si>
     <t>Tiền hiện có</t>
   </si>
   <si>
@@ -280,9 +268,6 @@
     <t>Tổng Tiền nhập sản phẩm theo từng tháng</t>
   </si>
   <si>
-    <t>Tính tiền nhập sản phẩm</t>
-  </si>
-  <si>
     <t>Chi phí hoạt động</t>
   </si>
   <si>
@@ -295,12 +280,6 @@
     <t>Doanh thu bán hàng</t>
   </si>
   <si>
-    <t>Bảng lưu chuyển tiền mặt</t>
-  </si>
-  <si>
-    <t>tháng</t>
-  </si>
-  <si>
     <t>THU</t>
   </si>
   <si>
@@ -373,16 +352,43 @@
     <t>Tiền nhập sản phẩm hàng tháng</t>
   </si>
   <si>
-    <t>Ước lượng sản phẩm bán ra</t>
-  </si>
-  <si>
-    <t>Vốn Lưu động và vốn đầu tư</t>
+    <t>Bảng lưu chuyển tiền mặt (đơn vị: 1000đ)</t>
+  </si>
+  <si>
+    <t>Bảng kế hoạch doanh thu và chi phí  (đơn vị: 1000đ)</t>
+  </si>
+  <si>
+    <t>Bảng doanh thu (đơn vị: 1000đ)</t>
+  </si>
+  <si>
+    <t>Chi phí hàng tháng (không tính nhập hàng,  đơn vị: 1000đ)</t>
+  </si>
+  <si>
+    <t>Giá thành sản phẩm (đơn vị: 1000đ)</t>
+  </si>
+  <si>
+    <t>Vốn Lưu động và vốn đầu tư (đơn vị: 1000đ)</t>
+  </si>
+  <si>
+    <t>Tiền khấu hao (đơn vị: 1000đ)</t>
+  </si>
+  <si>
+    <t>Tính tiền nhập sản phẩm (đơn vị: 1000đ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ước lượng sản phẩm bán ra </t>
+  </si>
+  <si>
+    <t>Số tiền(1000đ)</t>
+  </si>
+  <si>
+    <t>Tháng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -654,13 +660,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -698,7 +715,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,41 +761,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,92 +1085,92 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="A2" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="51">
+      <c r="B3" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="41">
         <f>75000*4</f>
         <v>300000</v>
       </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="51">
+      <c r="B4" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="41">
         <f>6000*4*2</f>
         <v>48000</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="51">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="41">
         <f>C3+C4</f>
         <v>348000</v>
       </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="38">
         <v>1</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>105</v>
+      <c r="B7" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="C7" s="5">
         <f>3000*2</f>
@@ -1156,11 +1179,11 @@
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="38">
         <v>2</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>55</v>
+      <c r="B8" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="5">
         <f>2000*4*2</f>
@@ -1169,10 +1192,10 @@
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="38">
         <v>3</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="13">
@@ -1182,10 +1205,10 @@
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="38">
         <v>4</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="39" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="13">
@@ -1195,10 +1218,10 @@
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="38">
         <v>5</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="13">
@@ -1208,11 +1231,11 @@
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="38">
         <v>6</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>111</v>
+      <c r="B12" s="39" t="s">
+        <v>104</v>
       </c>
       <c r="C12" s="5">
         <v>4000</v>
@@ -1220,84 +1243,84 @@
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="38">
         <v>7</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>109</v>
+      <c r="B13" s="39" t="s">
+        <v>102</v>
       </c>
       <c r="C13" s="5">
         <f>50*10</f>
         <v>500</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="38">
         <v>8</v>
       </c>
-      <c r="B14" s="49" t="s">
-        <v>107</v>
+      <c r="B14" s="39" t="s">
+        <v>100</v>
       </c>
       <c r="C14" s="5">
         <f>1054 * 3 + 150 *4</f>
         <v>3762</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="48">
+      <c r="A15" s="38">
         <v>9</v>
       </c>
-      <c r="B15" s="49" t="s">
-        <v>56</v>
+      <c r="B15" s="39" t="s">
+        <v>52</v>
       </c>
       <c r="C15" s="5">
         <f>250*12</f>
         <v>3000</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="48">
+      <c r="A16" s="38">
         <v>11</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>57</v>
+      <c r="B16" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="C16" s="5">
         <f>150 * 2</f>
         <v>300</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
+      <c r="A17" s="38">
         <v>12</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>112</v>
+      <c r="B17" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="C17" s="5">
         <f>10000*2</f>
         <v>20000</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49" t="s">
-        <v>58</v>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39" t="s">
+        <v>54</v>
       </c>
       <c r="C18" s="5">
         <f>SUM(C7:C17)</f>
@@ -1306,11 +1329,11 @@
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="50">
+      <c r="A19" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="40">
         <f>C5-C18</f>
         <v>293278</v>
       </c>
@@ -1331,7 +1354,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,82 +1369,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-    </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+    </row>
+    <row r="2" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="M2" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="53" t="s">
-        <v>44</v>
+      <c r="N2" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
@@ -1477,7 +1500,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
         <v>13</v>
@@ -1533,7 +1556,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -1925,7 +1948,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
@@ -1989,21 +2012,21 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
+      <c r="A14" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="str">
@@ -2603,7 +2626,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B26" s="17">
         <f>SUM(B16:B25)</f>
@@ -2668,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2684,21 +2707,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-    </row>
-    <row r="2" spans="1:4" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="1:4" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="45" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2740,7 +2763,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B6" s="13">
         <f>3000</f>
@@ -2881,11 +2904,11 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="57">
+      <c r="B17" s="45">
         <f>SUM(B3:B10)</f>
         <v>27888.333333333332</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="45">
         <f>SUM(C13:C16)</f>
         <v>24562</v>
       </c>
@@ -2899,25 +2922,25 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+    </row>
+    <row r="21" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-    </row>
-    <row r="21" spans="1:13" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2991,7 +3014,7 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="C26" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="17">
         <f>SUM(D22:D25)</f>
@@ -3012,7 +3035,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,49 +3055,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="A1" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="35"/>
-      <c r="H1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="E1" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="51"/>
+      <c r="H1" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="16" t="str">
         <f>'Uoc luong san pham ban ra'!A2</f>
         <v>Sản phẩm</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2" s="16" t="str">
         <f>'Uoc luong san pham ban ra'!A2</f>
         <v>Sản phẩm</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J2" s="29" t="str">
         <f>'Uoc luong san pham ban ra'!P2</f>
@@ -3085,13 +3108,13 @@
         <v>Bình quân bán được(1 tháng)</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -3506,7 +3529,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="17">
         <f>SUM(B3:B11)</f>
@@ -3551,7 +3574,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E13" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="16">
         <f>SUM(F3:F12)</f>
@@ -3570,10 +3593,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:N32"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,1753 +3606,1771 @@
     <col min="3" max="14" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="39" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="51"/>
+    </row>
+    <row r="2" spans="1:14" s="33" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="B2" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="J2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="str">
+    </row>
+    <row r="3" spans="1:14" s="20" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="str">
         <f>'Uoc luong san pham ban ra'!A3</f>
         <v>Dịch vụ Sửa PC</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="24">
+      <c r="B3" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="24">
         <f>'Uoc luong san pham ban ra'!B3</f>
         <v>8</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D3" s="24">
         <f>'Uoc luong san pham ban ra'!C3</f>
         <v>20</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E3" s="24">
         <f>'Uoc luong san pham ban ra'!D3</f>
         <v>40</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F3" s="24">
         <f>'Uoc luong san pham ban ra'!E3</f>
         <v>41</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G3" s="24">
         <f>'Uoc luong san pham ban ra'!F3</f>
         <v>37</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H3" s="24">
         <f>'Uoc luong san pham ban ra'!G3</f>
         <v>45</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I3" s="24">
         <f>'Uoc luong san pham ban ra'!H3</f>
         <v>45</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J3" s="24">
         <f>'Uoc luong san pham ban ra'!I3</f>
         <v>40</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K3" s="24">
         <f>'Uoc luong san pham ban ra'!J3</f>
         <v>42</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L3" s="24">
         <f>'Uoc luong san pham ban ra'!K3</f>
         <v>39</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M3" s="24">
         <f>'Uoc luong san pham ban ra'!L3</f>
         <v>45</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N3" s="24">
         <f>'Uoc luong san pham ban ra'!M3</f>
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="15">
+    <row r="4" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N4" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$3</f>
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="25">
-        <f>C2*C3</f>
+    <row r="5" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54"/>
+      <c r="B5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="25">
+        <f>C3*C4</f>
         <v>944</v>
       </c>
-      <c r="D4" s="25">
-        <f t="shared" ref="D4:N4" si="0">D2*D3</f>
+      <c r="D5" s="25">
+        <f t="shared" ref="D5:N5" si="0">D3*D4</f>
         <v>2360</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E5" s="25">
         <f t="shared" si="0"/>
         <v>4720</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F5" s="25">
         <f t="shared" si="0"/>
         <v>4838</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G5" s="25">
         <f t="shared" si="0"/>
         <v>4366</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H5" s="25">
         <f t="shared" si="0"/>
         <v>5310</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I5" s="25">
         <f t="shared" si="0"/>
         <v>5310</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J5" s="25">
         <f t="shared" si="0"/>
         <v>4720</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K5" s="25">
         <f t="shared" si="0"/>
         <v>4956</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L5" s="25">
         <f t="shared" si="0"/>
         <v>4602</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M5" s="25">
         <f t="shared" si="0"/>
         <v>5310</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N5" s="25">
         <f t="shared" si="0"/>
         <v>5900</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="str">
+    <row r="6" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="str">
         <f>'Uoc luong san pham ban ra'!$A$4</f>
         <v>Dịch vụ Sửa Laptop</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="24">
+      <c r="B6" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="24">
         <f>'Uoc luong san pham ban ra'!B4</f>
         <v>13</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D6" s="24">
         <f>'Uoc luong san pham ban ra'!C4</f>
         <v>16</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E6" s="24">
         <f>'Uoc luong san pham ban ra'!D4</f>
         <v>55</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F6" s="24">
         <f>'Uoc luong san pham ban ra'!E4</f>
         <v>50</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G6" s="24">
         <f>'Uoc luong san pham ban ra'!F4</f>
         <v>37</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H6" s="24">
         <f>'Uoc luong san pham ban ra'!G4</f>
         <v>35</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I6" s="24">
         <f>'Uoc luong san pham ban ra'!H4</f>
         <v>33</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J6" s="24">
         <f>'Uoc luong san pham ban ra'!I4</f>
         <v>40</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K6" s="24">
         <f>'Uoc luong san pham ban ra'!J4</f>
         <v>42</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L6" s="24">
         <f>'Uoc luong san pham ban ra'!K4</f>
         <v>41</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M6" s="24">
         <f>'Uoc luong san pham ban ra'!L4</f>
         <v>37</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N6" s="24">
         <f>'Uoc luong san pham ban ra'!M4</f>
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="15">
+    <row r="7" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N7" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$4</f>
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="25">
-        <f>C5*C6</f>
+    <row r="8" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
+      <c r="B8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="25">
+        <f>C6*C7</f>
         <v>1547</v>
       </c>
-      <c r="D7" s="25">
-        <f t="shared" ref="D7:N7" si="1">D5*D6</f>
+      <c r="D8" s="25">
+        <f t="shared" ref="D8:N8" si="1">D6*D7</f>
         <v>1904</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E8" s="25">
         <f t="shared" si="1"/>
         <v>6545</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F8" s="25">
         <f t="shared" si="1"/>
         <v>5950</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G8" s="25">
         <f t="shared" si="1"/>
         <v>4403</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H8" s="25">
         <f t="shared" si="1"/>
         <v>4165</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I8" s="25">
         <f t="shared" si="1"/>
         <v>3927</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J8" s="25">
         <f t="shared" si="1"/>
         <v>4760</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K8" s="25">
         <f t="shared" si="1"/>
         <v>4998</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L8" s="25">
         <f t="shared" si="1"/>
         <v>4879</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M8" s="25">
         <f t="shared" si="1"/>
         <v>4403</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N8" s="25">
         <f t="shared" si="1"/>
         <v>5236</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="str">
+    <row r="9" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="str">
         <f>'Uoc luong san pham ban ra'!$A$5</f>
         <v>PC (bán)</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="24">
+      <c r="B9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="24">
         <f>'Uoc luong san pham ban ra'!B5</f>
         <v>2</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D9" s="24">
         <f>'Uoc luong san pham ban ra'!C5</f>
         <v>8</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E9" s="24">
         <f>'Uoc luong san pham ban ra'!D5</f>
         <v>7</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F9" s="24">
         <f>'Uoc luong san pham ban ra'!E5</f>
         <v>10</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G9" s="24">
         <f>'Uoc luong san pham ban ra'!F5</f>
         <v>10</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H9" s="24">
         <f>'Uoc luong san pham ban ra'!G5</f>
         <v>9</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I9" s="24">
         <f>'Uoc luong san pham ban ra'!H5</f>
         <v>5</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J9" s="24">
         <f>'Uoc luong san pham ban ra'!I5</f>
         <v>11</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K9" s="24">
         <f>'Uoc luong san pham ban ra'!J5</f>
         <v>12</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L9" s="24">
         <f>'Uoc luong san pham ban ra'!K5</f>
         <v>15</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M9" s="24">
         <f>'Uoc luong san pham ban ra'!L5</f>
         <v>7</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N9" s="24">
         <f>'Uoc luong san pham ban ra'!M5</f>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="15">
+    <row r="10" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N10" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$5</f>
         <v>8971</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
-      <c r="B10" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="25">
-        <f>C8*C9</f>
+    <row r="11" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="25">
+        <f>C9*C10</f>
         <v>17942</v>
       </c>
-      <c r="D10" s="25">
-        <f t="shared" ref="D10:N10" si="2">D8*D9</f>
+      <c r="D11" s="25">
+        <f t="shared" ref="D11:N11" si="2">D9*D10</f>
         <v>71768</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E11" s="25">
         <f t="shared" si="2"/>
         <v>62797</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F11" s="25">
         <f t="shared" si="2"/>
         <v>89710</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G11" s="25">
         <f t="shared" si="2"/>
         <v>89710</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H11" s="25">
         <f t="shared" si="2"/>
         <v>80739</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I11" s="25">
         <f t="shared" si="2"/>
         <v>44855</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J11" s="25">
         <f t="shared" si="2"/>
         <v>98681</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K11" s="25">
         <f t="shared" si="2"/>
         <v>107652</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L11" s="25">
         <f t="shared" si="2"/>
         <v>134565</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M11" s="25">
         <f t="shared" si="2"/>
         <v>62797</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N11" s="25">
         <f t="shared" si="2"/>
         <v>71768</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="str">
+    <row r="12" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="str">
         <f>'Uoc luong san pham ban ra'!$A$6</f>
         <v>Ram</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="24">
+      <c r="B12" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="24">
         <f>'Uoc luong san pham ban ra'!B6</f>
         <v>5</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D12" s="24">
         <f>'Uoc luong san pham ban ra'!C6</f>
         <v>15</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E12" s="24">
         <f>'Uoc luong san pham ban ra'!D6</f>
         <v>20</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F12" s="24">
         <f>'Uoc luong san pham ban ra'!E6</f>
         <v>17</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G12" s="24">
         <f>'Uoc luong san pham ban ra'!F6</f>
         <v>20</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H12" s="24">
         <f>'Uoc luong san pham ban ra'!G6</f>
         <v>22</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I12" s="24">
         <f>'Uoc luong san pham ban ra'!H6</f>
         <v>16</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J12" s="24">
         <f>'Uoc luong san pham ban ra'!I6</f>
         <v>18</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K12" s="24">
         <f>'Uoc luong san pham ban ra'!J6</f>
         <v>15</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L12" s="24">
         <f>'Uoc luong san pham ban ra'!K6</f>
         <v>17</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M12" s="24">
         <f>'Uoc luong san pham ban ra'!L6</f>
         <v>10</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N12" s="24">
         <f>'Uoc luong san pham ban ra'!M6</f>
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="15">
+    <row r="13" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$6</f>
         <v>1143</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
-      <c r="B13" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="25">
-        <f>C11*C12</f>
+    <row r="14" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="25">
+        <f>C12*C13</f>
         <v>5715</v>
       </c>
-      <c r="D13" s="25">
-        <f t="shared" ref="D13:N13" si="3">D11*D12</f>
+      <c r="D14" s="25">
+        <f t="shared" ref="D14:N14" si="3">D12*D13</f>
         <v>17145</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E14" s="25">
         <f t="shared" si="3"/>
         <v>22860</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F14" s="25">
         <f t="shared" si="3"/>
         <v>19431</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G14" s="25">
         <f t="shared" si="3"/>
         <v>22860</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H14" s="25">
         <f t="shared" si="3"/>
         <v>25146</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I14" s="25">
         <f t="shared" si="3"/>
         <v>18288</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J14" s="25">
         <f t="shared" si="3"/>
         <v>20574</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K14" s="25">
         <f t="shared" si="3"/>
         <v>17145</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L14" s="25">
         <f t="shared" si="3"/>
         <v>19431</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M14" s="25">
         <f t="shared" si="3"/>
         <v>11430</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N14" s="25">
         <f t="shared" si="3"/>
         <v>14859</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="str">
+    <row r="15" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="str">
         <f>'Uoc luong san pham ban ra'!$A$7</f>
         <v>Ổ cứng</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="24">
+      <c r="B15" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="24">
         <f>'Uoc luong san pham ban ra'!B7</f>
         <v>1</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D15" s="24">
         <f>'Uoc luong san pham ban ra'!C7</f>
         <v>10</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E15" s="24">
         <f>'Uoc luong san pham ban ra'!D7</f>
         <v>10</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F15" s="24">
         <f>'Uoc luong san pham ban ra'!E7</f>
         <v>10</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G15" s="24">
         <f>'Uoc luong san pham ban ra'!F7</f>
         <v>7</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H15" s="24">
         <f>'Uoc luong san pham ban ra'!G7</f>
         <v>9</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I15" s="24">
         <f>'Uoc luong san pham ban ra'!H7</f>
         <v>1</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J15" s="24">
         <f>'Uoc luong san pham ban ra'!I7</f>
         <v>10</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K15" s="24">
         <f>'Uoc luong san pham ban ra'!J7</f>
         <v>10</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L15" s="24">
         <f>'Uoc luong san pham ban ra'!K7</f>
         <v>10</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M15" s="24">
         <f>'Uoc luong san pham ban ra'!L7</f>
         <v>7</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N15" s="24">
         <f>'Uoc luong san pham ban ra'!M7</f>
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="15">
+    <row r="16" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
+      <c r="B16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N16" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$7</f>
         <v>3021</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="25">
-        <f>C14*C15</f>
+    <row r="17" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="54"/>
+      <c r="B17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="25">
+        <f>C15*C16</f>
         <v>3021</v>
       </c>
-      <c r="D16" s="25">
-        <f t="shared" ref="D16:N16" si="4">D14*D15</f>
+      <c r="D17" s="25">
+        <f t="shared" ref="D17:N17" si="4">D15*D16</f>
         <v>30210</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E17" s="25">
         <f t="shared" si="4"/>
         <v>30210</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F17" s="25">
         <f t="shared" si="4"/>
         <v>30210</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G17" s="25">
         <f t="shared" si="4"/>
         <v>21147</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H17" s="25">
         <f t="shared" si="4"/>
         <v>27189</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I17" s="25">
         <f t="shared" si="4"/>
         <v>3021</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J17" s="25">
         <f t="shared" si="4"/>
         <v>30210</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K17" s="25">
         <f t="shared" si="4"/>
         <v>30210</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L17" s="25">
         <f t="shared" si="4"/>
         <v>30210</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M17" s="25">
         <f t="shared" si="4"/>
         <v>21147</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N17" s="25">
         <f t="shared" si="4"/>
         <v>27189</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="str">
+    <row r="18" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="str">
         <f>'Uoc luong san pham ban ra'!$A$8</f>
         <v>bàn phím/chuột</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="24">
+      <c r="B18" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="24">
         <f>'Uoc luong san pham ban ra'!B8</f>
         <v>10</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D18" s="24">
         <f>'Uoc luong san pham ban ra'!C8</f>
         <v>30</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E18" s="24">
         <f>'Uoc luong san pham ban ra'!D8</f>
         <v>50</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F18" s="24">
         <f>'Uoc luong san pham ban ra'!E8</f>
         <v>45</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G18" s="24">
         <f>'Uoc luong san pham ban ra'!F8</f>
         <v>50</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H18" s="24">
         <f>'Uoc luong san pham ban ra'!G8</f>
         <v>56</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I18" s="24">
         <f>'Uoc luong san pham ban ra'!H8</f>
         <v>55</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J18" s="24">
         <f>'Uoc luong san pham ban ra'!I8</f>
         <v>56</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K18" s="24">
         <f>'Uoc luong san pham ban ra'!J8</f>
         <v>44</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L18" s="24">
         <f>'Uoc luong san pham ban ra'!K8</f>
         <v>45</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M18" s="24">
         <f>'Uoc luong san pham ban ra'!L8</f>
         <v>50</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N18" s="24">
         <f>'Uoc luong san pham ban ra'!M8</f>
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="15">
+    <row r="19" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N19" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$8</f>
         <v>414</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="25">
-        <f>C17*C18</f>
+    <row r="20" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="54"/>
+      <c r="B20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="25">
+        <f>C18*C19</f>
         <v>4140</v>
       </c>
-      <c r="D19" s="25">
-        <f t="shared" ref="D19:N19" si="5">D17*D18</f>
+      <c r="D20" s="25">
+        <f t="shared" ref="D20:N20" si="5">D18*D19</f>
         <v>12420</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E20" s="25">
         <f t="shared" si="5"/>
         <v>20700</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F20" s="25">
         <f t="shared" si="5"/>
         <v>18630</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G20" s="25">
         <f t="shared" si="5"/>
         <v>20700</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H20" s="25">
         <f t="shared" si="5"/>
         <v>23184</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I20" s="25">
         <f t="shared" si="5"/>
         <v>22770</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J20" s="25">
         <f t="shared" si="5"/>
         <v>23184</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K20" s="25">
         <f t="shared" si="5"/>
         <v>18216</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L20" s="25">
         <f t="shared" si="5"/>
         <v>18630</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M20" s="25">
         <f t="shared" si="5"/>
         <v>20700</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N20" s="25">
         <f t="shared" si="5"/>
         <v>17388</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="str">
+    <row r="21" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="str">
         <f>'Uoc luong san pham ban ra'!$A$9</f>
         <v>Màn hình</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="24">
+      <c r="B21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="24">
         <f>'Uoc luong san pham ban ra'!B9</f>
         <v>2</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D21" s="24">
         <f>'Uoc luong san pham ban ra'!C9</f>
         <v>6</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E21" s="24">
         <f>'Uoc luong san pham ban ra'!D9</f>
         <v>10</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F21" s="24">
         <f>'Uoc luong san pham ban ra'!E9</f>
         <v>9</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G21" s="24">
         <f>'Uoc luong san pham ban ra'!F9</f>
         <v>11</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H21" s="24">
         <f>'Uoc luong san pham ban ra'!G9</f>
         <v>12</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I21" s="24">
         <f>'Uoc luong san pham ban ra'!H9</f>
         <v>8</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J21" s="24">
         <f>'Uoc luong san pham ban ra'!I9</f>
         <v>10</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K21" s="24">
         <f>'Uoc luong san pham ban ra'!J9</f>
         <v>11</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L21" s="24">
         <f>'Uoc luong san pham ban ra'!K9</f>
         <v>9</v>
       </c>
-      <c r="M20" s="24">
+      <c r="M21" s="24">
         <f>'Uoc luong san pham ban ra'!L9</f>
         <v>7</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N21" s="24">
         <f>'Uoc luong san pham ban ra'!M9</f>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="15">
+    <row r="22" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
-      <c r="J21" s="15">
+      <c r="J22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N22" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$9</f>
         <v>3522</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="25">
-        <f>C20*C21</f>
+    <row r="23" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="54"/>
+      <c r="B23" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="25">
+        <f>C21*C22</f>
         <v>7044</v>
       </c>
-      <c r="D22" s="25">
-        <f t="shared" ref="D22:N22" si="6">D20*D21</f>
+      <c r="D23" s="25">
+        <f t="shared" ref="D23:N23" si="6">D21*D22</f>
         <v>21132</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E23" s="25">
         <f t="shared" si="6"/>
         <v>35220</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F23" s="25">
         <f t="shared" si="6"/>
         <v>31698</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G23" s="25">
         <f t="shared" si="6"/>
         <v>38742</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H23" s="25">
         <f t="shared" si="6"/>
         <v>42264</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I23" s="25">
         <f t="shared" si="6"/>
         <v>28176</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J23" s="25">
         <f t="shared" si="6"/>
         <v>35220</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K23" s="25">
         <f t="shared" si="6"/>
         <v>38742</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L23" s="25">
         <f t="shared" si="6"/>
         <v>31698</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M23" s="25">
         <f t="shared" si="6"/>
         <v>24654</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N23" s="25">
         <f t="shared" si="6"/>
         <v>17610</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="str">
+    <row r="24" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="str">
         <f>'Uoc luong san pham ban ra'!$A$10</f>
         <v>USB</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B24" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="5">
         <v>7</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <v>22</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <v>30</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <v>24</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G24" s="5">
         <v>31</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H24" s="5">
         <v>35</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I24" s="5">
         <v>7</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J24" s="5">
         <v>22</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K24" s="5">
         <v>30</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L24" s="5">
         <v>24</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M24" s="5">
         <v>31</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N24" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="15">
+    <row r="25" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N25" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$10</f>
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="38"/>
-      <c r="B25" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="25">
-        <f>C23*C24</f>
+    <row r="26" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="54"/>
+      <c r="B26" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="25">
+        <f>C24*C25</f>
         <v>1932</v>
       </c>
-      <c r="D25" s="25">
-        <f t="shared" ref="D25:N25" si="7">D23*D24</f>
+      <c r="D26" s="25">
+        <f t="shared" ref="D26:N26" si="7">D24*D25</f>
         <v>6072</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E26" s="25">
         <f t="shared" si="7"/>
         <v>8280</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F26" s="25">
         <f t="shared" si="7"/>
         <v>6624</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G26" s="25">
         <f t="shared" si="7"/>
         <v>8556</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H26" s="25">
         <f t="shared" si="7"/>
         <v>9660</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I26" s="25">
         <f t="shared" si="7"/>
         <v>1932</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J26" s="25">
         <f t="shared" si="7"/>
         <v>6072</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K26" s="25">
         <f t="shared" si="7"/>
         <v>8280</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L26" s="25">
         <f t="shared" si="7"/>
         <v>6624</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M26" s="25">
         <f t="shared" si="7"/>
         <v>8556</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N26" s="25">
         <f t="shared" si="7"/>
         <v>9660</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="str">
+    <row r="27" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="str">
         <f>'Uoc luong san pham ban ra'!$A$11</f>
         <v>Mainboard</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="24">
+      <c r="B27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="24">
         <f>'Uoc luong san pham ban ra'!B11</f>
         <v>1</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D27" s="24">
         <f>'Uoc luong san pham ban ra'!C11</f>
         <v>5</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E27" s="24">
         <f>'Uoc luong san pham ban ra'!D11</f>
         <v>5</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F27" s="24">
         <f>'Uoc luong san pham ban ra'!E11</f>
         <v>5</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G27" s="24">
         <f>'Uoc luong san pham ban ra'!F11</f>
         <v>6</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H27" s="24">
         <f>'Uoc luong san pham ban ra'!G11</f>
         <v>9</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I27" s="24">
         <f>'Uoc luong san pham ban ra'!H11</f>
         <v>6</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J27" s="24">
         <f>'Uoc luong san pham ban ra'!I11</f>
         <v>8</v>
       </c>
-      <c r="K26" s="24">
+      <c r="K27" s="24">
         <f>'Uoc luong san pham ban ra'!J11</f>
         <v>8</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L27" s="24">
         <f>'Uoc luong san pham ban ra'!K11</f>
         <v>7</v>
       </c>
-      <c r="M26" s="24">
+      <c r="M27" s="24">
         <f>'Uoc luong san pham ban ra'!L11</f>
         <v>6</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N27" s="24">
         <f>'Uoc luong san pham ban ra'!M11</f>
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="15">
+    <row r="28" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
-      <c r="J27" s="15">
+      <c r="J28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
-      <c r="N27" s="15">
+      <c r="N28" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$11</f>
         <v>3221</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38"/>
-      <c r="B28" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="25">
-        <f>C26*C27</f>
+    <row r="29" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="54"/>
+      <c r="B29" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="25">
+        <f>C27*C28</f>
         <v>3221</v>
       </c>
-      <c r="D28" s="25">
-        <f t="shared" ref="D28:N28" si="8">D26*D27</f>
+      <c r="D29" s="25">
+        <f t="shared" ref="D29:N29" si="8">D27*D28</f>
         <v>16105</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E29" s="25">
         <f t="shared" si="8"/>
         <v>16105</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F29" s="25">
         <f t="shared" si="8"/>
         <v>16105</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G29" s="25">
         <f t="shared" si="8"/>
         <v>19326</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H29" s="25">
         <f t="shared" si="8"/>
         <v>28989</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I29" s="25">
         <f t="shared" si="8"/>
         <v>19326</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J29" s="25">
         <f t="shared" si="8"/>
         <v>25768</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K29" s="25">
         <f t="shared" si="8"/>
         <v>25768</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L29" s="25">
         <f t="shared" si="8"/>
         <v>22547</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M29" s="25">
         <f t="shared" si="8"/>
         <v>19326</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N29" s="25">
         <f t="shared" si="8"/>
         <v>12884</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="str">
+    <row r="30" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52" t="str">
         <f>'Uoc luong san pham ban ra'!$A$12</f>
         <v>Linh kiện khác (Nguồn, quạt tản nhiệt, GPU,….vv)</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="24">
+      <c r="B30" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="24">
         <f>'Uoc luong san pham ban ra'!B12</f>
         <v>10</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D30" s="24">
         <f>'Uoc luong san pham ban ra'!C12</f>
         <v>19</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E30" s="24">
         <f>'Uoc luong san pham ban ra'!D12</f>
         <v>20</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F30" s="24">
         <f>'Uoc luong san pham ban ra'!E12</f>
         <v>17</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G30" s="24">
         <f>'Uoc luong san pham ban ra'!F12</f>
         <v>18</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H30" s="24">
         <f>'Uoc luong san pham ban ra'!G12</f>
         <v>19</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I30" s="24">
         <f>'Uoc luong san pham ban ra'!H12</f>
         <v>17</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J30" s="24">
         <f>'Uoc luong san pham ban ra'!I12</f>
         <v>19</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K30" s="24">
         <f>'Uoc luong san pham ban ra'!J12</f>
         <v>16</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L30" s="24">
         <f>'Uoc luong san pham ban ra'!K12</f>
         <v>20</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M30" s="24">
         <f>'Uoc luong san pham ban ra'!L12</f>
         <v>18</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N30" s="24">
         <f>'Uoc luong san pham ban ra'!M12</f>
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="15">
+    <row r="31" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53"/>
+      <c r="B31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N31" s="15">
         <f>'Chi phi &amp; Gia thanh'!$N$12</f>
         <v>2887</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38"/>
-      <c r="B31" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="41">
-        <f>C29*C30</f>
+    <row r="32" spans="1:14" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="54"/>
+      <c r="B32" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="35">
+        <f>C30*C31</f>
         <v>28870</v>
       </c>
-      <c r="D31" s="41">
-        <f t="shared" ref="D31:N31" si="9">D29*D30</f>
+      <c r="D32" s="35">
+        <f t="shared" ref="D32:N32" si="9">D30*D31</f>
         <v>54853</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E32" s="35">
         <f t="shared" si="9"/>
         <v>57740</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F32" s="35">
         <f t="shared" si="9"/>
         <v>49079</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G32" s="35">
         <f t="shared" si="9"/>
         <v>51966</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H32" s="35">
         <f t="shared" si="9"/>
         <v>54853</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I32" s="35">
         <f t="shared" si="9"/>
         <v>49079</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J32" s="35">
         <f t="shared" si="9"/>
         <v>54853</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K32" s="35">
         <f t="shared" si="9"/>
         <v>46192</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L32" s="35">
         <f t="shared" si="9"/>
         <v>57740</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M32" s="35">
         <f t="shared" si="9"/>
         <v>51966</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N32" s="35">
         <f t="shared" si="9"/>
         <v>40418</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="29">
-        <f>SUM(C4,C7,C10,C13,C16,C19,C22,C25,C28,C31)</f>
+    <row r="33" spans="2:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="29">
+        <f>SUM(C5,C8,C11,C14,C17,C20,C23,C26,C29,C32)</f>
         <v>74376</v>
       </c>
-      <c r="D32" s="29">
-        <f t="shared" ref="D32:N32" si="10">SUM(D4,D7,D10,D13,D16,D19,D22,D25,D28,D31)</f>
+      <c r="D33" s="29">
+        <f t="shared" ref="D33:N33" si="10">SUM(D5,D8,D11,D14,D17,D20,D23,D26,D29,D32)</f>
         <v>233969</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E33" s="29">
         <f t="shared" si="10"/>
         <v>265177</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F33" s="29">
         <f t="shared" si="10"/>
         <v>272275</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G33" s="29">
         <f t="shared" si="10"/>
         <v>281776</v>
       </c>
-      <c r="H32" s="29">
+      <c r="H33" s="29">
         <f t="shared" si="10"/>
         <v>301499</v>
       </c>
-      <c r="I32" s="29">
+      <c r="I33" s="29">
         <f t="shared" si="10"/>
         <v>196684</v>
       </c>
-      <c r="J32" s="29">
+      <c r="J33" s="29">
         <f t="shared" si="10"/>
         <v>304042</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K33" s="29">
         <f t="shared" si="10"/>
         <v>302159</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L33" s="29">
         <f t="shared" si="10"/>
         <v>330926</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M33" s="29">
         <f t="shared" si="10"/>
         <v>230289</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N33" s="29">
         <f t="shared" si="10"/>
         <v>222912</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
+  <mergeCells count="11">
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5338,10 +5379,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M17"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5349,764 +5390,784 @@
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>83</v>
+      <c r="A3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="15">
+        <f>'Doanh Thu'!C33</f>
+        <v>74376</v>
+      </c>
+      <c r="C3" s="15">
+        <f>'Doanh Thu'!D33</f>
+        <v>233969</v>
+      </c>
+      <c r="D3" s="15">
+        <f>'Doanh Thu'!E33</f>
+        <v>265177</v>
+      </c>
+      <c r="E3" s="15">
+        <f>'Doanh Thu'!F33</f>
+        <v>272275</v>
+      </c>
+      <c r="F3" s="15">
+        <f>'Doanh Thu'!G33</f>
+        <v>281776</v>
+      </c>
+      <c r="G3" s="15">
+        <f>'Doanh Thu'!H33</f>
+        <v>301499</v>
+      </c>
+      <c r="H3" s="15">
+        <f>'Doanh Thu'!I33</f>
+        <v>196684</v>
+      </c>
+      <c r="I3" s="15">
+        <f>'Doanh Thu'!J33</f>
+        <v>304042</v>
+      </c>
+      <c r="J3" s="15">
+        <f>'Doanh Thu'!K33</f>
+        <v>302159</v>
+      </c>
+      <c r="K3" s="15">
+        <f>'Doanh Thu'!L33</f>
+        <v>330926</v>
+      </c>
+      <c r="L3" s="15">
+        <f>'Doanh Thu'!M33</f>
+        <v>230289</v>
+      </c>
+      <c r="M3" s="15">
+        <f>'Doanh Thu'!N33</f>
+        <v>222912</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="15">
-        <f>'Doanh Thu'!C32</f>
-        <v>74376</v>
-      </c>
-      <c r="C4" s="15">
-        <f>'Doanh Thu'!D32</f>
-        <v>233969</v>
-      </c>
-      <c r="D4" s="15">
-        <f>'Doanh Thu'!E32</f>
-        <v>265177</v>
-      </c>
-      <c r="E4" s="15">
-        <f>'Doanh Thu'!F32</f>
-        <v>272275</v>
-      </c>
-      <c r="F4" s="15">
-        <f>'Doanh Thu'!G32</f>
-        <v>281776</v>
-      </c>
-      <c r="G4" s="15">
-        <f>'Doanh Thu'!H32</f>
-        <v>301499</v>
-      </c>
-      <c r="H4" s="15">
-        <f>'Doanh Thu'!I32</f>
-        <v>196684</v>
-      </c>
-      <c r="I4" s="15">
-        <f>'Doanh Thu'!J32</f>
-        <v>304042</v>
-      </c>
-      <c r="J4" s="15">
-        <f>'Doanh Thu'!K32</f>
-        <v>302159</v>
-      </c>
-      <c r="K4" s="15">
-        <f>'Doanh Thu'!L32</f>
-        <v>330926</v>
-      </c>
-      <c r="L4" s="15">
-        <f>'Doanh Thu'!M32</f>
-        <v>230289</v>
-      </c>
-      <c r="M4" s="15">
-        <f>'Doanh Thu'!N32</f>
-        <v>222912</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="A5" s="9" t="str">
+        <f>'Chi phi &amp; Gia thanh'!A3</f>
+        <v>Bảo hiểm</v>
+      </c>
+      <c r="B5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
+      <c r="C5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
+      <c r="D5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
+      <c r="E5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
+      <c r="F5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
+      <c r="G5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
+      <c r="H5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
+      <c r="I5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
+      <c r="J5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
+      <c r="K5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
+      <c r="L5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
+      <c r="M5" s="15">
+        <f>'Chi phi &amp; Gia thanh'!$B3</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="str">
-        <f>'Chi phi &amp; Gia thanh'!A3</f>
-        <v>Bảo hiểm</v>
+        <f>'Chi phi &amp; Gia thanh'!A4</f>
+        <v>Tiền điện</v>
       </c>
       <c r="B6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
       <c r="C6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
       <c r="D6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
       <c r="E6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
       <c r="F6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
       <c r="G6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
       <c r="H6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
       <c r="I6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
       <c r="J6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
       <c r="K6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
       <c r="L6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
       <c r="M6" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B3</f>
-        <v>125</v>
+        <f>'Chi phi &amp; Gia thanh'!$B4</f>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="str">
-        <f>'Chi phi &amp; Gia thanh'!A4</f>
-        <v>Tiền điện</v>
+        <f>'Chi phi &amp; Gia thanh'!A5</f>
+        <v>Tiền nước</v>
       </c>
       <c r="B7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
       <c r="C7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
       <c r="D7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
       <c r="E7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
       <c r="F7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
       <c r="G7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
       <c r="H7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
       <c r="I7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
       <c r="J7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
       <c r="K7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
       <c r="L7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
       <c r="M7" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B4</f>
-        <v>300</v>
+        <f>'Chi phi &amp; Gia thanh'!$B5</f>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="str">
-        <f>'Chi phi &amp; Gia thanh'!A5</f>
-        <v>Tiền nước</v>
+        <f>'Chi phi &amp; Gia thanh'!A6</f>
+        <v>Tiền mặt bằng</v>
       </c>
       <c r="B8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
       <c r="C8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
       <c r="D8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
       <c r="E8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
       <c r="F8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
       <c r="G8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
       <c r="H8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
       <c r="I8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
       <c r="J8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
       <c r="K8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
       <c r="L8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
       <c r="M8" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B5</f>
-        <v>30</v>
+        <f>'Chi phi &amp; Gia thanh'!$B6</f>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="str">
-        <f>'Chi phi &amp; Gia thanh'!A6</f>
-        <v>Tiền mặt bằng</v>
+        <f>'Chi phi &amp; Gia thanh'!A7</f>
+        <v>Lương thành viên</v>
       </c>
       <c r="B9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
       <c r="C9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
       <c r="D9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
       <c r="E9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
       <c r="F9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
       <c r="G9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
       <c r="H9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
       <c r="I9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
       <c r="J9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
       <c r="K9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
       <c r="L9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
       <c r="M9" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B6</f>
-        <v>3000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B7</f>
+        <v>24000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="str">
-        <f>'Chi phi &amp; Gia thanh'!A7</f>
-        <v>Lương thành viên</v>
+        <f>'Chi phi &amp; Gia thanh'!A8</f>
+        <v>Tiền điện thoại</v>
       </c>
       <c r="B10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
       <c r="C10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
       <c r="D10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
       <c r="E10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
       <c r="F10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
       <c r="G10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
       <c r="H10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
       <c r="I10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
       <c r="J10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
       <c r="K10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
       <c r="L10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
       <c r="M10" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B7</f>
-        <v>24000</v>
+        <f>'Chi phi &amp; Gia thanh'!$B8</f>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="str">
-        <f>'Chi phi &amp; Gia thanh'!A8</f>
-        <v>Tiền điện thoại</v>
-      </c>
-      <c r="B11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-      <c r="C11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-      <c r="D11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-      <c r="E11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-      <c r="F11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-      <c r="G11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-      <c r="H11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-      <c r="I11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-      <c r="J11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-      <c r="K11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-      <c r="L11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-      <c r="M11" s="15">
-        <f>'Chi phi &amp; Gia thanh'!$B8</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="str">
         <f>'Chi phi &amp; Gia thanh'!A9</f>
         <v>Thuế</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M11" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B9</f>
         <v>83.333333333333329</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="15">
         <f>'Uoc luong san pham ban ra'!B26</f>
         <v>60900</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C12" s="15">
         <f>'Uoc luong san pham ban ra'!C26</f>
         <v>193900</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D12" s="15">
         <f>'Uoc luong san pham ban ra'!D26</f>
         <v>212500</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E12" s="15">
         <f>'Uoc luong san pham ban ra'!E26</f>
         <v>220600</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F12" s="15">
         <f>'Uoc luong san pham ban ra'!F26</f>
         <v>229700</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G12" s="15">
         <f>'Uoc luong san pham ban ra'!G26</f>
         <v>244100</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H12" s="15">
         <f>'Uoc luong san pham ban ra'!H26</f>
         <v>160500</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I12" s="15">
         <f>'Uoc luong san pham ban ra'!I26</f>
         <v>248500</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J12" s="15">
         <f>'Uoc luong san pham ban ra'!J26</f>
         <v>246700</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K12" s="15">
         <f>'Uoc luong san pham ban ra'!K26</f>
         <v>274900</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L12" s="15">
         <f>'Uoc luong san pham ban ra'!L26</f>
         <v>184700</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M12" s="15">
         <f>'Uoc luong san pham ban ra'!M26</f>
         <v>173200</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="str">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="str">
         <f>'Chi phi &amp; Gia thanh'!A10</f>
         <v>Tiền mạng</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M13" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B10</f>
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="str">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="str">
         <f>'Chi phi &amp; Gia thanh'!A11</f>
         <v>Tổng tiền khấu hao hàng tháng</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M14" s="15">
         <f>'Chi phi &amp; Gia thanh'!$B11</f>
         <v>511.70833333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="str">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="str">
         <f>'Chi phi &amp; Gia thanh'!$A$12</f>
         <v>Tổng chi phí</v>
       </c>
-      <c r="B16" s="17">
-        <f t="shared" ref="B16:M16" si="0">SUM(B6:B15)</f>
+      <c r="B15" s="17">
+        <f t="shared" ref="B15:M15" si="0">SUM(B5:B14)</f>
         <v>89300.041666666657</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
         <v>222300.04166666669</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D15" s="17">
         <f t="shared" si="0"/>
         <v>240900.04166666669</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E15" s="17">
         <f t="shared" si="0"/>
         <v>249000.04166666669</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F15" s="17">
         <f t="shared" si="0"/>
         <v>258100.04166666669</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G15" s="17">
         <f t="shared" si="0"/>
         <v>272500.04166666663</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H15" s="17">
         <f t="shared" si="0"/>
         <v>188900.04166666669</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I15" s="17">
         <f t="shared" si="0"/>
         <v>276900.04166666663</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J15" s="17">
         <f t="shared" si="0"/>
         <v>275100.04166666663</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K15" s="17">
         <f t="shared" si="0"/>
         <v>303300.04166666663</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L15" s="17">
         <f t="shared" si="0"/>
         <v>213100.04166666669</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M15" s="17">
         <f t="shared" si="0"/>
         <v>201600.04166666669</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="17">
-        <f t="shared" ref="B17:M17" si="1">B4-B16</f>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" ref="B16:M16" si="1">B3-B15</f>
         <v>-14924.041666666657</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C16" s="17">
         <f t="shared" si="1"/>
         <v>11668.958333333314</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D16" s="17">
         <f t="shared" si="1"/>
         <v>24276.958333333314</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E16" s="17">
         <f t="shared" si="1"/>
         <v>23274.958333333314</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F16" s="17">
         <f t="shared" si="1"/>
         <v>23675.958333333314</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G16" s="17">
         <f t="shared" si="1"/>
         <v>28998.958333333372</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H16" s="17">
         <f t="shared" si="1"/>
         <v>7783.9583333333139</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I16" s="17">
         <f t="shared" si="1"/>
         <v>27141.958333333372</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J16" s="17">
         <f t="shared" si="1"/>
         <v>27058.958333333372</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K16" s="17">
         <f t="shared" si="1"/>
         <v>27625.958333333372</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L16" s="17">
         <f t="shared" si="1"/>
         <v>17188.958333333314</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M16" s="17">
         <f t="shared" si="1"/>
         <v>21311.958333333314</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6116,8 +6177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6132,197 +6193,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
+      <c r="A1" s="56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
     </row>
     <row r="3" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="14">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="29">
         <v>1</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="29">
         <v>2</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="29">
         <v>3</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="29">
         <v>4</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="29">
         <v>5</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="29">
         <v>6</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="29">
         <v>7</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="29">
         <v>8</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="29">
         <v>9</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="29">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="29">
         <v>11</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="29">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>93</v>
+      <c r="A4" s="55" t="s">
+        <v>86</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C4" s="15">
         <f>'Von ban dau'!$C$19</f>
         <v>293278</v>
       </c>
       <c r="D4" s="15">
-        <f>C20</f>
+        <f t="shared" ref="D4:N4" si="0">C20</f>
         <v>278353.95833333337</v>
       </c>
       <c r="E4" s="15">
-        <f>D20</f>
+        <f t="shared" si="0"/>
         <v>290022.91666666669</v>
       </c>
       <c r="F4" s="15">
-        <f>E20</f>
+        <f t="shared" si="0"/>
         <v>314299.87500000006</v>
       </c>
       <c r="G4" s="15">
-        <f>F20</f>
+        <f t="shared" si="0"/>
         <v>337574.83333333331</v>
       </c>
       <c r="H4" s="15">
-        <f>G20</f>
+        <f t="shared" si="0"/>
         <v>361250.79166666657</v>
       </c>
       <c r="I4" s="15">
-        <f>H20</f>
+        <f t="shared" si="0"/>
         <v>390249.74999999988</v>
       </c>
       <c r="J4" s="15">
-        <f>I20</f>
+        <f t="shared" si="0"/>
         <v>398033.7083333332</v>
       </c>
       <c r="K4" s="15">
-        <f>J20</f>
+        <f t="shared" si="0"/>
         <v>425175.66666666663</v>
       </c>
       <c r="L4" s="15">
-        <f>K20</f>
+        <f t="shared" si="0"/>
         <v>452234.625</v>
       </c>
       <c r="M4" s="15">
-        <f>L20</f>
+        <f t="shared" si="0"/>
         <v>479860.58333333337</v>
       </c>
       <c r="N4" s="15">
-        <f>M20</f>
+        <f t="shared" si="0"/>
         <v>497049.54166666669</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C5" s="15">
-        <f>'Doanh Thu'!C32</f>
+        <f>'Doanh Thu'!C33</f>
         <v>74376</v>
       </c>
       <c r="D5" s="15">
-        <f>'Doanh Thu'!D32</f>
+        <f>'Doanh Thu'!D33</f>
         <v>233969</v>
       </c>
       <c r="E5" s="15">
-        <f>'Doanh Thu'!E32</f>
+        <f>'Doanh Thu'!E33</f>
         <v>265177</v>
       </c>
       <c r="F5" s="15">
-        <f>'Doanh Thu'!F32</f>
+        <f>'Doanh Thu'!F33</f>
         <v>272275</v>
       </c>
       <c r="G5" s="15">
-        <f>'Doanh Thu'!G32</f>
+        <f>'Doanh Thu'!G33</f>
         <v>281776</v>
       </c>
       <c r="H5" s="15">
-        <f>'Doanh Thu'!H32</f>
+        <f>'Doanh Thu'!H33</f>
         <v>301499</v>
       </c>
       <c r="I5" s="15">
-        <f>'Doanh Thu'!I32</f>
+        <f>'Doanh Thu'!I33</f>
         <v>196684</v>
       </c>
       <c r="J5" s="15">
-        <f>'Doanh Thu'!J32</f>
+        <f>'Doanh Thu'!J33</f>
         <v>304042</v>
       </c>
       <c r="K5" s="15">
-        <f>'Doanh Thu'!K32</f>
+        <f>'Doanh Thu'!K33</f>
         <v>302159</v>
       </c>
       <c r="L5" s="15">
-        <f>'Doanh Thu'!L32</f>
+        <f>'Doanh Thu'!L33</f>
         <v>330926</v>
       </c>
       <c r="M5" s="15">
-        <f>'Doanh Thu'!M32</f>
+        <f>'Doanh Thu'!M33</f>
         <v>230289</v>
       </c>
       <c r="N5" s="15">
-        <f>'Doanh Thu'!N32</f>
+        <f>'Doanh Thu'!N33</f>
         <v>222912</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="15" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C6" s="15">
         <v>0</v>
@@ -6362,615 +6423,615 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C7" s="14">
         <f>SUM(C4:C6)</f>
         <v>367654</v>
       </c>
       <c r="D7" s="14">
-        <f t="shared" ref="D7:N7" si="0">SUM(D4:D6)</f>
+        <f t="shared" ref="D7:N7" si="1">SUM(D4:D6)</f>
         <v>512322.95833333337</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>555199.91666666674</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>586574.875</v>
       </c>
       <c r="G7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>619350.83333333326</v>
       </c>
       <c r="H7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>662749.79166666651</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>586933.74999999988</v>
       </c>
       <c r="J7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>702075.70833333326</v>
       </c>
       <c r="K7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>727334.66666666663</v>
       </c>
       <c r="L7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>783160.625</v>
       </c>
       <c r="M7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>710149.58333333337</v>
       </c>
       <c r="N7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>719961.54166666674</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>96</v>
+      <c r="A8" s="55" t="s">
+        <v>89</v>
       </c>
       <c r="B8" s="15" t="str">
+        <f>'Kế hoạch doanh thu và chi phí'!A5</f>
+        <v>Bảo hiểm</v>
+      </c>
+      <c r="C8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!B5</f>
+        <v>125</v>
+      </c>
+      <c r="D8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!C5</f>
+        <v>125</v>
+      </c>
+      <c r="E8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!D5</f>
+        <v>125</v>
+      </c>
+      <c r="F8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!E5</f>
+        <v>125</v>
+      </c>
+      <c r="G8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!F5</f>
+        <v>125</v>
+      </c>
+      <c r="H8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!G5</f>
+        <v>125</v>
+      </c>
+      <c r="I8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!H5</f>
+        <v>125</v>
+      </c>
+      <c r="J8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!I5</f>
+        <v>125</v>
+      </c>
+      <c r="K8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!J5</f>
+        <v>125</v>
+      </c>
+      <c r="L8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!K5</f>
+        <v>125</v>
+      </c>
+      <c r="M8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!L5</f>
+        <v>125</v>
+      </c>
+      <c r="N8" s="15">
+        <f>'Kế hoạch doanh thu và chi phí'!M5</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="15" t="str">
         <f>'Kế hoạch doanh thu và chi phí'!A6</f>
-        <v>Bảo hiểm</v>
-      </c>
-      <c r="C8" s="15">
+        <v>Tiền điện</v>
+      </c>
+      <c r="C9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!B6</f>
-        <v>125</v>
-      </c>
-      <c r="D8" s="15">
+        <v>300</v>
+      </c>
+      <c r="D9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!C6</f>
-        <v>125</v>
-      </c>
-      <c r="E8" s="15">
+        <v>300</v>
+      </c>
+      <c r="E9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!D6</f>
-        <v>125</v>
-      </c>
-      <c r="F8" s="15">
+        <v>300</v>
+      </c>
+      <c r="F9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!E6</f>
-        <v>125</v>
-      </c>
-      <c r="G8" s="15">
+        <v>300</v>
+      </c>
+      <c r="G9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!F6</f>
-        <v>125</v>
-      </c>
-      <c r="H8" s="15">
+        <v>300</v>
+      </c>
+      <c r="H9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!G6</f>
-        <v>125</v>
-      </c>
-      <c r="I8" s="15">
+        <v>300</v>
+      </c>
+      <c r="I9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!H6</f>
-        <v>125</v>
-      </c>
-      <c r="J8" s="15">
+        <v>300</v>
+      </c>
+      <c r="J9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!I6</f>
-        <v>125</v>
-      </c>
-      <c r="K8" s="15">
+        <v>300</v>
+      </c>
+      <c r="K9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!J6</f>
-        <v>125</v>
-      </c>
-      <c r="L8" s="15">
+        <v>300</v>
+      </c>
+      <c r="L9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!K6</f>
-        <v>125</v>
-      </c>
-      <c r="M8" s="15">
+        <v>300</v>
+      </c>
+      <c r="M9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!L6</f>
-        <v>125</v>
-      </c>
-      <c r="N8" s="15">
+        <v>300</v>
+      </c>
+      <c r="N9" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!M6</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="15" t="str">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" s="15" t="str">
         <f>'Kế hoạch doanh thu và chi phí'!A7</f>
-        <v>Tiền điện</v>
-      </c>
-      <c r="C9" s="15">
+        <v>Tiền nước</v>
+      </c>
+      <c r="C10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!B7</f>
-        <v>300</v>
-      </c>
-      <c r="D9" s="15">
+        <v>30</v>
+      </c>
+      <c r="D10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!C7</f>
-        <v>300</v>
-      </c>
-      <c r="E9" s="15">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!D7</f>
-        <v>300</v>
-      </c>
-      <c r="F9" s="15">
+        <v>30</v>
+      </c>
+      <c r="F10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!E7</f>
-        <v>300</v>
-      </c>
-      <c r="G9" s="15">
+        <v>30</v>
+      </c>
+      <c r="G10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!F7</f>
-        <v>300</v>
-      </c>
-      <c r="H9" s="15">
+        <v>30</v>
+      </c>
+      <c r="H10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!G7</f>
-        <v>300</v>
-      </c>
-      <c r="I9" s="15">
+        <v>30</v>
+      </c>
+      <c r="I10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!H7</f>
-        <v>300</v>
-      </c>
-      <c r="J9" s="15">
+        <v>30</v>
+      </c>
+      <c r="J10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!I7</f>
-        <v>300</v>
-      </c>
-      <c r="K9" s="15">
+        <v>30</v>
+      </c>
+      <c r="K10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!J7</f>
-        <v>300</v>
-      </c>
-      <c r="L9" s="15">
+        <v>30</v>
+      </c>
+      <c r="L10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!K7</f>
-        <v>300</v>
-      </c>
-      <c r="M9" s="15">
+        <v>30</v>
+      </c>
+      <c r="M10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!L7</f>
-        <v>300</v>
-      </c>
-      <c r="N9" s="15">
+        <v>30</v>
+      </c>
+      <c r="N10" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!M7</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="15" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="15" t="str">
         <f>'Kế hoạch doanh thu và chi phí'!A8</f>
-        <v>Tiền nước</v>
-      </c>
-      <c r="C10" s="15">
+        <v>Tiền mặt bằng</v>
+      </c>
+      <c r="C11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!B8</f>
-        <v>30</v>
-      </c>
-      <c r="D10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!C8</f>
-        <v>30</v>
-      </c>
-      <c r="E10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!D8</f>
-        <v>30</v>
-      </c>
-      <c r="F10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="F11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!E8</f>
-        <v>30</v>
-      </c>
-      <c r="G10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!F8</f>
-        <v>30</v>
-      </c>
-      <c r="H10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="H11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!G8</f>
-        <v>30</v>
-      </c>
-      <c r="I10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="I11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!H8</f>
-        <v>30</v>
-      </c>
-      <c r="J10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="J11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!I8</f>
-        <v>30</v>
-      </c>
-      <c r="K10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="K11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!J8</f>
-        <v>30</v>
-      </c>
-      <c r="L10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="L11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!K8</f>
-        <v>30</v>
-      </c>
-      <c r="M10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="M11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!L8</f>
-        <v>30</v>
-      </c>
-      <c r="N10" s="15">
+        <v>3000</v>
+      </c>
+      <c r="N11" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!M8</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="15" t="str">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="15" t="str">
         <f>'Kế hoạch doanh thu và chi phí'!A9</f>
-        <v>Tiền mặt bằng</v>
-      </c>
-      <c r="C11" s="15">
+        <v>Lương thành viên</v>
+      </c>
+      <c r="C12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!B9</f>
-        <v>3000</v>
-      </c>
-      <c r="D11" s="15">
+        <v>24000</v>
+      </c>
+      <c r="D12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!C9</f>
-        <v>3000</v>
-      </c>
-      <c r="E11" s="15">
+        <v>24000</v>
+      </c>
+      <c r="E12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!D9</f>
-        <v>3000</v>
-      </c>
-      <c r="F11" s="15">
+        <v>24000</v>
+      </c>
+      <c r="F12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!E9</f>
-        <v>3000</v>
-      </c>
-      <c r="G11" s="15">
+        <v>24000</v>
+      </c>
+      <c r="G12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!F9</f>
-        <v>3000</v>
-      </c>
-      <c r="H11" s="15">
+        <v>24000</v>
+      </c>
+      <c r="H12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!G9</f>
-        <v>3000</v>
-      </c>
-      <c r="I11" s="15">
+        <v>24000</v>
+      </c>
+      <c r="I12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!H9</f>
-        <v>3000</v>
-      </c>
-      <c r="J11" s="15">
+        <v>24000</v>
+      </c>
+      <c r="J12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!I9</f>
-        <v>3000</v>
-      </c>
-      <c r="K11" s="15">
+        <v>24000</v>
+      </c>
+      <c r="K12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!J9</f>
-        <v>3000</v>
-      </c>
-      <c r="L11" s="15">
+        <v>24000</v>
+      </c>
+      <c r="L12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!K9</f>
-        <v>3000</v>
-      </c>
-      <c r="M11" s="15">
+        <v>24000</v>
+      </c>
+      <c r="M12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!L9</f>
-        <v>3000</v>
-      </c>
-      <c r="N11" s="15">
+        <v>24000</v>
+      </c>
+      <c r="N12" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!M9</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="15" t="str">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="55"/>
+      <c r="B13" s="15" t="str">
         <f>'Kế hoạch doanh thu và chi phí'!A10</f>
-        <v>Lương thành viên</v>
-      </c>
-      <c r="C12" s="15">
+        <v>Tiền điện thoại</v>
+      </c>
+      <c r="C13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!B10</f>
-        <v>24000</v>
-      </c>
-      <c r="D12" s="15">
+        <v>100</v>
+      </c>
+      <c r="D13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!C10</f>
-        <v>24000</v>
-      </c>
-      <c r="E12" s="15">
+        <v>100</v>
+      </c>
+      <c r="E13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!D10</f>
-        <v>24000</v>
-      </c>
-      <c r="F12" s="15">
+        <v>100</v>
+      </c>
+      <c r="F13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!E10</f>
-        <v>24000</v>
-      </c>
-      <c r="G12" s="15">
+        <v>100</v>
+      </c>
+      <c r="G13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!F10</f>
-        <v>24000</v>
-      </c>
-      <c r="H12" s="15">
+        <v>100</v>
+      </c>
+      <c r="H13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!G10</f>
-        <v>24000</v>
-      </c>
-      <c r="I12" s="15">
+        <v>100</v>
+      </c>
+      <c r="I13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!H10</f>
-        <v>24000</v>
-      </c>
-      <c r="J12" s="15">
+        <v>100</v>
+      </c>
+      <c r="J13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!I10</f>
-        <v>24000</v>
-      </c>
-      <c r="K12" s="15">
+        <v>100</v>
+      </c>
+      <c r="K13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!J10</f>
-        <v>24000</v>
-      </c>
-      <c r="L12" s="15">
+        <v>100</v>
+      </c>
+      <c r="L13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!K10</f>
-        <v>24000</v>
-      </c>
-      <c r="M12" s="15">
+        <v>100</v>
+      </c>
+      <c r="M13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!L10</f>
-        <v>24000</v>
-      </c>
-      <c r="N12" s="15">
+        <v>100</v>
+      </c>
+      <c r="N13" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!M10</f>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="15" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
+      <c r="B14" s="15" t="str">
         <f>'Kế hoạch doanh thu và chi phí'!A11</f>
-        <v>Tiền điện thoại</v>
-      </c>
-      <c r="C13" s="15">
+        <v>Thuế</v>
+      </c>
+      <c r="C14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!B11</f>
-        <v>100</v>
-      </c>
-      <c r="D13" s="15">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="D14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!C11</f>
-        <v>100</v>
-      </c>
-      <c r="E13" s="15">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="E14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!D11</f>
-        <v>100</v>
-      </c>
-      <c r="F13" s="15">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="F14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!E11</f>
-        <v>100</v>
-      </c>
-      <c r="G13" s="15">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!F11</f>
-        <v>100</v>
-      </c>
-      <c r="H13" s="15">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="H14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!G11</f>
-        <v>100</v>
-      </c>
-      <c r="I13" s="15">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="I14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!H11</f>
-        <v>100</v>
-      </c>
-      <c r="J13" s="15">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="J14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!I11</f>
-        <v>100</v>
-      </c>
-      <c r="K13" s="15">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="K14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!J11</f>
-        <v>100</v>
-      </c>
-      <c r="L13" s="15">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="L14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!K11</f>
-        <v>100</v>
-      </c>
-      <c r="M13" s="15">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="M14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!L11</f>
-        <v>100</v>
-      </c>
-      <c r="N13" s="15">
+        <v>83.333333333333329</v>
+      </c>
+      <c r="N14" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!M11</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="15" t="str">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="15" t="str">
         <f>'Kế hoạch doanh thu và chi phí'!A12</f>
-        <v>Thuế</v>
-      </c>
-      <c r="C14" s="15">
+        <v>Tiền nhập linh kiện</v>
+      </c>
+      <c r="C15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!B12</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="D14" s="15">
+        <v>60900</v>
+      </c>
+      <c r="D15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!C12</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="E14" s="15">
+        <v>193900</v>
+      </c>
+      <c r="E15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!D12</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="F14" s="15">
+        <v>212500</v>
+      </c>
+      <c r="F15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!E12</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="G14" s="15">
+        <v>220600</v>
+      </c>
+      <c r="G15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!F12</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="H14" s="15">
+        <v>229700</v>
+      </c>
+      <c r="H15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!G12</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="I14" s="15">
+        <v>244100</v>
+      </c>
+      <c r="I15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!H12</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="J14" s="15">
+        <v>160500</v>
+      </c>
+      <c r="J15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!I12</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="K14" s="15">
+        <v>248500</v>
+      </c>
+      <c r="K15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!J12</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="L14" s="15">
+        <v>246700</v>
+      </c>
+      <c r="L15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!K12</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="M14" s="15">
+        <v>274900</v>
+      </c>
+      <c r="M15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!L12</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="N14" s="15">
+        <v>184700</v>
+      </c>
+      <c r="N15" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!M12</f>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="15" t="str">
+        <v>173200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="15" t="str">
         <f>'Kế hoạch doanh thu và chi phí'!A13</f>
-        <v>Tiền nhập linh kiện</v>
-      </c>
-      <c r="C15" s="15">
+        <v>Tiền mạng</v>
+      </c>
+      <c r="C16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!B13</f>
-        <v>60900</v>
-      </c>
-      <c r="D15" s="15">
+        <v>250</v>
+      </c>
+      <c r="D16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!C13</f>
-        <v>193900</v>
-      </c>
-      <c r="E15" s="15">
+        <v>250</v>
+      </c>
+      <c r="E16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!D13</f>
-        <v>212500</v>
-      </c>
-      <c r="F15" s="15">
+        <v>250</v>
+      </c>
+      <c r="F16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!E13</f>
-        <v>220600</v>
-      </c>
-      <c r="G15" s="15">
+        <v>250</v>
+      </c>
+      <c r="G16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!F13</f>
-        <v>229700</v>
-      </c>
-      <c r="H15" s="15">
+        <v>250</v>
+      </c>
+      <c r="H16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!G13</f>
-        <v>244100</v>
-      </c>
-      <c r="I15" s="15">
+        <v>250</v>
+      </c>
+      <c r="I16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!H13</f>
-        <v>160500</v>
-      </c>
-      <c r="J15" s="15">
+        <v>250</v>
+      </c>
+      <c r="J16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!I13</f>
-        <v>248500</v>
-      </c>
-      <c r="K15" s="15">
+        <v>250</v>
+      </c>
+      <c r="K16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!J13</f>
-        <v>246700</v>
-      </c>
-      <c r="L15" s="15">
+        <v>250</v>
+      </c>
+      <c r="L16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!K13</f>
-        <v>274900</v>
-      </c>
-      <c r="M15" s="15">
+        <v>250</v>
+      </c>
+      <c r="M16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!L13</f>
-        <v>184700</v>
-      </c>
-      <c r="N15" s="15">
+        <v>250</v>
+      </c>
+      <c r="N16" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!M13</f>
-        <v>173200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="15" t="str">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="15" t="str">
         <f>'Kế hoạch doanh thu và chi phí'!A14</f>
-        <v>Tiền mạng</v>
-      </c>
-      <c r="C16" s="15">
+        <v>Tổng tiền khấu hao hàng tháng</v>
+      </c>
+      <c r="C17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!B14</f>
-        <v>250</v>
-      </c>
-      <c r="D16" s="15">
+        <v>511.70833333333337</v>
+      </c>
+      <c r="D17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!C14</f>
-        <v>250</v>
-      </c>
-      <c r="E16" s="15">
+        <v>511.70833333333337</v>
+      </c>
+      <c r="E17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!D14</f>
-        <v>250</v>
-      </c>
-      <c r="F16" s="15">
+        <v>511.70833333333337</v>
+      </c>
+      <c r="F17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!E14</f>
-        <v>250</v>
-      </c>
-      <c r="G16" s="15">
+        <v>511.70833333333337</v>
+      </c>
+      <c r="G17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!F14</f>
-        <v>250</v>
-      </c>
-      <c r="H16" s="15">
+        <v>511.70833333333337</v>
+      </c>
+      <c r="H17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!G14</f>
-        <v>250</v>
-      </c>
-      <c r="I16" s="15">
+        <v>511.70833333333337</v>
+      </c>
+      <c r="I17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!H14</f>
-        <v>250</v>
-      </c>
-      <c r="J16" s="15">
+        <v>511.70833333333337</v>
+      </c>
+      <c r="J17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!I14</f>
-        <v>250</v>
-      </c>
-      <c r="K16" s="15">
+        <v>511.70833333333337</v>
+      </c>
+      <c r="K17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!J14</f>
-        <v>250</v>
-      </c>
-      <c r="L16" s="15">
+        <v>511.70833333333337</v>
+      </c>
+      <c r="L17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!K14</f>
-        <v>250</v>
-      </c>
-      <c r="M16" s="15">
+        <v>511.70833333333337</v>
+      </c>
+      <c r="M17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!L14</f>
-        <v>250</v>
-      </c>
-      <c r="N16" s="15">
+        <v>511.70833333333337</v>
+      </c>
+      <c r="N17" s="15">
         <f>'Kế hoạch doanh thu và chi phí'!M14</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="15" t="str">
-        <f>'Kế hoạch doanh thu và chi phí'!A15</f>
-        <v>Tổng tiền khấu hao hàng tháng</v>
-      </c>
-      <c r="C17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!B15</f>
         <v>511.70833333333337</v>
       </c>
-      <c r="D17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!C15</f>
-        <v>511.70833333333337</v>
-      </c>
-      <c r="E17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!D15</f>
-        <v>511.70833333333337</v>
-      </c>
-      <c r="F17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!E15</f>
-        <v>511.70833333333337</v>
-      </c>
-      <c r="G17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!F15</f>
-        <v>511.70833333333337</v>
-      </c>
-      <c r="H17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!G15</f>
-        <v>511.70833333333337</v>
-      </c>
-      <c r="I17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!H15</f>
-        <v>511.70833333333337</v>
-      </c>
-      <c r="J17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!I15</f>
-        <v>511.70833333333337</v>
-      </c>
-      <c r="K17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!J15</f>
-        <v>511.70833333333337</v>
-      </c>
-      <c r="L17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!K15</f>
-        <v>511.70833333333337</v>
-      </c>
-      <c r="M17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!L15</f>
-        <v>511.70833333333337</v>
-      </c>
-      <c r="N17" s="15">
-        <f>'Kế hoạch doanh thu và chi phí'!M15</f>
-        <v>511.70833333333337</v>
-      </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C18" s="15">
         <v>0</v>
@@ -7010,110 +7071,110 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C19" s="14">
         <f>SUM(C8:C18)</f>
         <v>89300.041666666657</v>
       </c>
       <c r="D19" s="14">
-        <f t="shared" ref="D19:N19" si="1">SUM(D8:D18)</f>
+        <f t="shared" ref="D19:N19" si="2">SUM(D8:D18)</f>
         <v>222300.04166666669</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240900.04166666669</v>
       </c>
       <c r="F19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>249000.04166666669</v>
       </c>
       <c r="G19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>258100.04166666669</v>
       </c>
       <c r="H19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>272500.04166666663</v>
       </c>
       <c r="I19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>188900.04166666669</v>
       </c>
       <c r="J19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>276900.04166666663</v>
       </c>
       <c r="K19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>275100.04166666663</v>
       </c>
       <c r="L19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>303300.04166666663</v>
       </c>
       <c r="M19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>213100.04166666669</v>
       </c>
       <c r="N19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>201600.04166666669</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="44">
+      <c r="A20" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="58">
         <f>C7-C19</f>
         <v>278353.95833333337</v>
       </c>
-      <c r="D20" s="44">
-        <f t="shared" ref="D20:N20" si="2">D7-D19</f>
+      <c r="D20" s="58">
+        <f t="shared" ref="D20:N20" si="3">D7-D19</f>
         <v>290022.91666666669</v>
       </c>
-      <c r="E20" s="44">
-        <f t="shared" si="2"/>
+      <c r="E20" s="58">
+        <f t="shared" si="3"/>
         <v>314299.87500000006</v>
       </c>
-      <c r="F20" s="44">
-        <f t="shared" si="2"/>
+      <c r="F20" s="58">
+        <f t="shared" si="3"/>
         <v>337574.83333333331</v>
       </c>
-      <c r="G20" s="44">
-        <f t="shared" si="2"/>
+      <c r="G20" s="58">
+        <f t="shared" si="3"/>
         <v>361250.79166666657</v>
       </c>
-      <c r="H20" s="44">
-        <f t="shared" si="2"/>
+      <c r="H20" s="58">
+        <f t="shared" si="3"/>
         <v>390249.74999999988</v>
       </c>
-      <c r="I20" s="44">
-        <f t="shared" si="2"/>
+      <c r="I20" s="58">
+        <f t="shared" si="3"/>
         <v>398033.7083333332</v>
       </c>
-      <c r="J20" s="44">
-        <f t="shared" si="2"/>
+      <c r="J20" s="58">
+        <f t="shared" si="3"/>
         <v>425175.66666666663</v>
       </c>
-      <c r="K20" s="44">
-        <f t="shared" si="2"/>
+      <c r="K20" s="58">
+        <f t="shared" si="3"/>
         <v>452234.625</v>
       </c>
-      <c r="L20" s="44">
-        <f t="shared" si="2"/>
+      <c r="L20" s="58">
+        <f t="shared" si="3"/>
         <v>479860.58333333337</v>
       </c>
-      <c r="M20" s="44">
-        <f t="shared" si="2"/>
+      <c r="M20" s="58">
+        <f t="shared" si="3"/>
         <v>497049.54166666669</v>
       </c>
-      <c r="N20" s="44">
-        <f t="shared" si="2"/>
+      <c r="N20" s="58">
+        <f t="shared" si="3"/>
         <v>518361.50000000006</v>
       </c>
     </row>
